--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R681"/>
+  <dimension ref="A1:R682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41388,41 +41388,41 @@
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K570" t="n">
-        <v>300</v>
+        <v>27000</v>
       </c>
       <c r="L570" t="n">
-        <v>300</v>
+        <v>28000</v>
       </c>
       <c r="M570" t="n">
-        <v>300</v>
+        <v>27559</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>300</v>
+        <v>1148</v>
       </c>
       <c r="Q570" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R570" t="inlineStr">
         <is>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="K571" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L571" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M571" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1240</v>
+        <v>480</v>
       </c>
       <c r="K572" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L572" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M572" t="n">
-        <v>753</v>
+        <v>900</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>753</v>
+        <v>900</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>570</v>
+        <v>1240</v>
       </c>
       <c r="K573" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L573" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M573" t="n">
-        <v>500</v>
+        <v>753</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>500</v>
+        <v>753</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>330</v>
+        <v>570</v>
       </c>
       <c r="K574" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L574" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M574" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>440</v>
+        <v>330</v>
       </c>
       <c r="K575" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L575" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M575" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K576" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L576" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M576" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>2180</v>
+        <v>450</v>
       </c>
       <c r="K577" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L577" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M577" t="n">
-        <v>748</v>
+        <v>270</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>748</v>
+        <v>270</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>3170</v>
+        <v>2180</v>
       </c>
       <c r="K578" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L578" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M578" t="n">
-        <v>637</v>
+        <v>748</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>637</v>
+        <v>748</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>1410</v>
+        <v>3170</v>
       </c>
       <c r="K579" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L579" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M579" t="n">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>1030</v>
+        <v>1410</v>
       </c>
       <c r="K580" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L580" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M580" t="n">
-        <v>861</v>
+        <v>545</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>861</v>
+        <v>545</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>660</v>
+        <v>1030</v>
       </c>
       <c r="K581" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L581" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="M581" t="n">
-        <v>424</v>
+        <v>861</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>424</v>
+        <v>861</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>5500</v>
+        <v>660</v>
       </c>
       <c r="K582" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L582" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="M582" t="n">
-        <v>594</v>
+        <v>424</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>594</v>
+        <v>424</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>6300</v>
+        <v>5500</v>
       </c>
       <c r="K583" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L583" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M583" t="n">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>444</v>
+        <v>594</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="K584" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L584" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M584" t="n">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>322</v>
+        <v>444</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="K585" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L585" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M585" t="n">
-        <v>840</v>
+        <v>322</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>840</v>
+        <v>322</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="K586" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="L586" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="M586" t="n">
-        <v>150</v>
+        <v>840</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>150</v>
+        <v>840</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>6900</v>
+        <v>2500</v>
       </c>
       <c r="K587" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="L587" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="M587" t="n">
-        <v>678</v>
+        <v>150</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>678</v>
+        <v>150</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>9600</v>
+        <v>6900</v>
       </c>
       <c r="K588" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L588" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M588" t="n">
-        <v>523</v>
+        <v>678</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>523</v>
+        <v>678</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>8400</v>
+        <v>9600</v>
       </c>
       <c r="K589" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L589" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M589" t="n">
-        <v>373</v>
+        <v>523</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>373</v>
+        <v>523</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>6000</v>
+        <v>8400</v>
       </c>
       <c r="K590" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L590" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M590" t="n">
-        <v>957</v>
+        <v>373</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>957</v>
+        <v>373</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>7100</v>
+        <v>6000</v>
       </c>
       <c r="K591" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L591" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M591" t="n">
-        <v>270</v>
+        <v>957</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>270</v>
+        <v>957</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>3200</v>
+        <v>7100</v>
       </c>
       <c r="K592" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L592" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M592" t="n">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>700</v>
+        <v>270</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="K593" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L593" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M593" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="K594" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L594" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M594" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="K595" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L595" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M595" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K596" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L596" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M596" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43332,25 +43332,25 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>6400</v>
+        <v>2800</v>
       </c>
       <c r="K597" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L597" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M597" t="n">
-        <v>677</v>
+        <v>300</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>677</v>
+        <v>300</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="K598" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L598" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M598" t="n">
-        <v>498</v>
+        <v>677</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>498</v>
+        <v>677</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>6300</v>
+        <v>8000</v>
       </c>
       <c r="K599" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L599" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M599" t="n">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>4700</v>
+        <v>6300</v>
       </c>
       <c r="K600" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L600" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M600" t="n">
-        <v>801</v>
+        <v>329</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>801</v>
+        <v>329</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>6300</v>
+        <v>4700</v>
       </c>
       <c r="K601" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L601" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M601" t="n">
-        <v>225</v>
+        <v>801</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>225</v>
+        <v>801</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44246</v>
+        <v>44186</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43692,25 +43692,25 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>4600</v>
+        <v>6300</v>
       </c>
       <c r="K602" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L602" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M602" t="n">
-        <v>609</v>
+        <v>225</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>609</v>
+        <v>225</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>5900</v>
+        <v>4600</v>
       </c>
       <c r="K603" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L603" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M603" t="n">
-        <v>454</v>
+        <v>609</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>454</v>
+        <v>609</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>4000</v>
+        <v>5900</v>
       </c>
       <c r="K604" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L604" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M604" t="n">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K605" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L605" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M605" t="n">
-        <v>758</v>
+        <v>321</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>758</v>
+        <v>321</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>4600</v>
+        <v>3800</v>
       </c>
       <c r="K606" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L606" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M606" t="n">
-        <v>216</v>
+        <v>758</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>216</v>
+        <v>758</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44052,25 +44052,25 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K607" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L607" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M607" t="n">
-        <v>528</v>
+        <v>216</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>528</v>
+        <v>216</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>6400</v>
+        <v>5700</v>
       </c>
       <c r="K608" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L608" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M608" t="n">
-        <v>420</v>
+        <v>528</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>420</v>
+        <v>528</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>5600</v>
+        <v>6400</v>
       </c>
       <c r="K609" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L609" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M609" t="n">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="K610" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L610" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M610" t="n">
-        <v>685</v>
+        <v>321</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>685</v>
+        <v>321</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="K611" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L611" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M611" t="n">
-        <v>222</v>
+        <v>685</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>222</v>
+        <v>685</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44412,25 +44412,25 @@
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="K612" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L612" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M612" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="K613" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L613" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M613" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K614" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L614" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M614" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>6100</v>
+        <v>3000</v>
       </c>
       <c r="K615" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L615" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M615" t="n">
-        <v>332</v>
+        <v>600</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>332</v>
+        <v>600</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="K616" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="L616" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M616" t="n">
-        <v>972</v>
+        <v>332</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>972</v>
+        <v>332</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="K617" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L617" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M617" t="n">
-        <v>827</v>
+        <v>972</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>827</v>
+        <v>972</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>5600</v>
+        <v>6200</v>
       </c>
       <c r="K618" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L618" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M618" t="n">
-        <v>620</v>
+        <v>827</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>620</v>
+        <v>827</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="K619" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L619" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M619" t="n">
-        <v>473</v>
+        <v>620</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>473</v>
+        <v>620</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K620" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L620" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M620" t="n">
-        <v>873</v>
+        <v>473</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>873</v>
+        <v>473</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="K621" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L621" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M621" t="n">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K622" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L622" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M622" t="n">
-        <v>582</v>
+        <v>727</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>582</v>
+        <v>727</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K623" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L623" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M623" t="n">
-        <v>377</v>
+        <v>582</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>377</v>
+        <v>582</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>6200</v>
+        <v>2800</v>
       </c>
       <c r="K624" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L624" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M624" t="n">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>6900</v>
+        <v>6200</v>
       </c>
       <c r="K625" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="L625" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M625" t="n">
-        <v>870</v>
+        <v>222</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>870</v>
+        <v>222</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="K626" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L626" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M626" t="n">
-        <v>626</v>
+        <v>870</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>626</v>
+        <v>870</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>7200</v>
+        <v>6400</v>
       </c>
       <c r="K627" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L627" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M627" t="n">
-        <v>476</v>
+        <v>626</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>476</v>
+        <v>626</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="K628" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L628" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M628" t="n">
-        <v>378</v>
+        <v>476</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>378</v>
+        <v>476</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>3600</v>
+        <v>6300</v>
       </c>
       <c r="K629" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L629" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M629" t="n">
-        <v>731</v>
+        <v>378</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>731</v>
+        <v>378</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="K630" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L630" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M630" t="n">
-        <v>560</v>
+        <v>731</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>560</v>
+        <v>731</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="K631" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L631" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M631" t="n">
-        <v>331</v>
+        <v>560</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>331</v>
+        <v>560</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="K632" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L632" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M632" t="n">
-        <v>858</v>
+        <v>331</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>858</v>
+        <v>331</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K633" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L633" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M633" t="n">
-        <v>233</v>
+        <v>858</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>233</v>
+        <v>858</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45996,25 +45996,25 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>6000</v>
+        <v>2900</v>
       </c>
       <c r="K634" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L634" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M634" t="n">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="K635" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L635" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M635" t="n">
-        <v>563</v>
+        <v>755</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>563</v>
+        <v>755</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="K636" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L636" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M636" t="n">
-        <v>353</v>
+        <v>563</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>353</v>
+        <v>563</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="K637" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L637" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M637" t="n">
-        <v>956</v>
+        <v>353</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>956</v>
+        <v>353</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="K638" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L638" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M638" t="n">
-        <v>227</v>
+        <v>956</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>227</v>
+        <v>956</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="K639" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L639" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M639" t="n">
-        <v>800</v>
+        <v>227</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>800</v>
+        <v>227</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K640" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L640" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M640" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K641" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L641" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M641" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K642" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L642" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M642" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K643" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L643" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M643" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="K644" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L644" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M644" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="K645" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L645" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M645" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="K646" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L646" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M646" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c r="K647" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="L647" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="M647" t="n">
-        <v>606</v>
+        <v>100</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>606</v>
+        <v>100</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="K648" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L648" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M648" t="n">
-        <v>455</v>
+        <v>606</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>455</v>
+        <v>606</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>4400</v>
+        <v>5800</v>
       </c>
       <c r="K649" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L649" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M649" t="n">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>327</v>
+        <v>455</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K650" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L650" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M650" t="n">
-        <v>755</v>
+        <v>327</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>755</v>
+        <v>327</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J651" t="n">
         <v>4000</v>
       </c>
       <c r="K651" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L651" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M651" t="n">
-        <v>231</v>
+        <v>755</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>231</v>
+        <v>755</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="K652" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L652" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M652" t="n">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>6300</v>
+        <v>3200</v>
       </c>
       <c r="K653" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L653" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M653" t="n">
-        <v>652</v>
+        <v>100</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>652</v>
+        <v>100</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>11600</v>
+        <v>6300</v>
       </c>
       <c r="K654" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L654" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M654" t="n">
-        <v>506</v>
+        <v>652</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>506</v>
+        <v>652</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>6900</v>
+        <v>11600</v>
       </c>
       <c r="K655" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L655" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M655" t="n">
-        <v>322</v>
+        <v>506</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>322</v>
+        <v>506</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="K656" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L656" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M656" t="n">
-        <v>844</v>
+        <v>322</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>844</v>
+        <v>322</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="K657" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L657" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M657" t="n">
-        <v>222</v>
+        <v>844</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>222</v>
+        <v>844</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="K658" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L658" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M658" t="n">
-        <v>607</v>
+        <v>222</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47751,11 +47751,11 @@
       </c>
       <c r="O658" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P658" t="n">
-        <v>607</v>
+        <v>222</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="K659" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L659" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M659" t="n">
-        <v>446</v>
+        <v>607</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>446</v>
+        <v>607</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="K660" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L660" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M660" t="n">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J661" t="n">
         <v>3800</v>
       </c>
       <c r="K661" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L661" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M661" t="n">
-        <v>553</v>
+        <v>745</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>553</v>
+        <v>745</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K662" t="n">
         <v>500</v>
@@ -48030,7 +48030,7 @@
         <v>600</v>
       </c>
       <c r="M662" t="n">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>6300</v>
+        <v>5700</v>
       </c>
       <c r="K663" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L663" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M663" t="n">
-        <v>423</v>
+        <v>539</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>423</v>
+        <v>539</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48165,7 +48165,7 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>7300</v>
+        <v>6300</v>
       </c>
       <c r="K664" t="n">
         <v>400</v>
@@ -48174,7 +48174,7 @@
         <v>450</v>
       </c>
       <c r="M664" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>3600</v>
+        <v>7300</v>
       </c>
       <c r="K665" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L665" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M665" t="n">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48309,16 +48309,16 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>6600</v>
+        <v>3600</v>
       </c>
       <c r="K666" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L666" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M666" t="n">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>4500</v>
+        <v>6600</v>
       </c>
       <c r="K667" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="L667" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M667" t="n">
-        <v>699</v>
+        <v>271</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>699</v>
+        <v>271</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K668" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L668" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M668" t="n">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>228</v>
+        <v>699</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="K669" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L669" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M669" t="n">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J670" t="n">
         <v>1500</v>
       </c>
       <c r="K670" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L670" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="M670" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K671" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L671" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M671" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K672" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L672" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M672" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K673" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L673" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M673" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K674" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L674" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="M674" t="n">
-        <v>723</v>
+        <v>200</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>723</v>
+        <v>200</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="K675" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L675" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M675" t="n">
-        <v>559</v>
+        <v>723</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>559</v>
+        <v>723</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="K676" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L676" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M676" t="n">
-        <v>382</v>
+        <v>559</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>382</v>
+        <v>559</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K677" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L677" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M677" t="n">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="K678" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L678" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M678" t="n">
-        <v>1045</v>
+        <v>300</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>1045</v>
+        <v>300</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>7100</v>
+        <v>3800</v>
       </c>
       <c r="K679" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L679" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M679" t="n">
-        <v>746</v>
+        <v>1045</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>746</v>
+        <v>1045</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="K680" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L680" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M680" t="n">
-        <v>578</v>
+        <v>746</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>578</v>
+        <v>746</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49385,38 +49385,110 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J681" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K681" t="n">
+        <v>500</v>
+      </c>
+      <c r="L681" t="n">
+        <v>650</v>
+      </c>
+      <c r="M681" t="n">
+        <v>578</v>
+      </c>
+      <c r="N681" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O681" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P681" t="n">
+        <v>578</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>1</v>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>6</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J681" t="n">
+      <c r="J682" t="n">
         <v>3600</v>
       </c>
-      <c r="K681" t="n">
+      <c r="K682" t="n">
         <v>400</v>
       </c>
-      <c r="L681" t="n">
+      <c r="L682" t="n">
         <v>400</v>
       </c>
-      <c r="M681" t="n">
+      <c r="M682" t="n">
         <v>400</v>
       </c>
-      <c r="N681" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O681" t="inlineStr">
+      <c r="N682" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O682" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P681" t="n">
+      <c r="P682" t="n">
         <v>400</v>
       </c>
-      <c r="Q681" t="n">
-        <v>1</v>
-      </c>
-      <c r="R681" t="inlineStr">
+      <c r="Q682" t="n">
+        <v>1</v>
+      </c>
+      <c r="R682" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R683"/>
+  <dimension ref="A1:R684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31380,41 +31380,41 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>3000</v>
+        <v>290</v>
       </c>
       <c r="K431" t="n">
-        <v>600</v>
+        <v>19000</v>
       </c>
       <c r="L431" t="n">
-        <v>650</v>
+        <v>20000</v>
       </c>
       <c r="M431" t="n">
-        <v>623</v>
+        <v>19586</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>623</v>
+        <v>816</v>
       </c>
       <c r="Q431" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="K432" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L432" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M432" t="n">
-        <v>443</v>
+        <v>623</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>443</v>
+        <v>623</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>4100</v>
+        <v>5400</v>
       </c>
       <c r="K433" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L433" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M433" t="n">
-        <v>746</v>
+        <v>443</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>746</v>
+        <v>443</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31596,25 +31596,25 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="K434" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L434" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M434" t="n">
-        <v>578</v>
+        <v>746</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>578</v>
+        <v>746</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K435" t="n">
+        <v>550</v>
+      </c>
+      <c r="L435" t="n">
         <v>600</v>
       </c>
-      <c r="L435" t="n">
-        <v>650</v>
-      </c>
       <c r="M435" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>7100</v>
+        <v>5100</v>
       </c>
       <c r="K436" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L436" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M436" t="n">
-        <v>425</v>
+        <v>622</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>425</v>
+        <v>622</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>8200</v>
+        <v>7100</v>
       </c>
       <c r="K437" t="n">
+        <v>400</v>
+      </c>
+      <c r="L437" t="n">
         <v>450</v>
       </c>
-      <c r="L437" t="n">
-        <v>500</v>
-      </c>
       <c r="M437" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>6200</v>
+        <v>8200</v>
       </c>
       <c r="K438" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L438" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M438" t="n">
-        <v>319</v>
+        <v>473</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>319</v>
+        <v>473</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="K439" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L439" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M439" t="n">
-        <v>713</v>
+        <v>319</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>713</v>
+        <v>319</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>6300</v>
+        <v>5200</v>
       </c>
       <c r="K440" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L440" t="n">
         <v>750</v>
       </c>
       <c r="M440" t="n">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="K441" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L441" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M441" t="n">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="K442" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L442" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M442" t="n">
-        <v>650</v>
+        <v>226</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>650</v>
+        <v>226</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="K443" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L443" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M443" t="n">
-        <v>478</v>
+        <v>650</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>478</v>
+        <v>650</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>4700</v>
+        <v>6200</v>
       </c>
       <c r="K444" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L444" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M444" t="n">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="K445" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L445" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M445" t="n">
-        <v>840</v>
+        <v>376</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>840</v>
+        <v>376</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="K446" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L446" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M446" t="n">
-        <v>265</v>
+        <v>840</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>265</v>
+        <v>840</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32532,25 +32532,25 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>480</v>
+        <v>4300</v>
       </c>
       <c r="K447" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L447" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M447" t="n">
-        <v>842</v>
+        <v>265</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>842</v>
+        <v>265</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>920</v>
+        <v>480</v>
       </c>
       <c r="K448" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L448" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M448" t="n">
-        <v>581</v>
+        <v>842</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>581</v>
+        <v>842</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>520</v>
+        <v>920</v>
       </c>
       <c r="K449" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L449" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M449" t="n">
-        <v>473</v>
+        <v>581</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>473</v>
+        <v>581</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K450" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L450" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M450" t="n">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32820,25 +32820,25 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K451" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L451" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M451" t="n">
-        <v>800</v>
+        <v>274</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>800</v>
+        <v>274</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>910</v>
+        <v>600</v>
       </c>
       <c r="K452" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L452" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M452" t="n">
-        <v>576</v>
+        <v>800</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>576</v>
+        <v>800</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>380</v>
+        <v>910</v>
       </c>
       <c r="K453" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L453" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M453" t="n">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K454" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L454" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M454" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>270</v>
+        <v>550</v>
       </c>
       <c r="K455" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L455" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="M455" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33180,25 +33180,25 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>2200</v>
+        <v>270</v>
       </c>
       <c r="K456" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L456" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M456" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="K457" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L457" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M457" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33396,25 +33396,25 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K459" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L459" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M459" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K460" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L460" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M460" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K461" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L461" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M461" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33624,13 +33624,13 @@
         <v>3300</v>
       </c>
       <c r="K462" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L462" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M462" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="K463" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L463" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M463" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="K464" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L464" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M464" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="K465" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L465" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M465" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K466" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L466" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M466" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="K467" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L467" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="M467" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34053,7 +34053,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K468" t="n">
         <v>200</v>
@@ -34071,7 +34071,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P468" t="n">
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34116,25 +34116,25 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>5100</v>
+        <v>2900</v>
       </c>
       <c r="K469" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L469" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M469" t="n">
-        <v>577</v>
+        <v>200</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>577</v>
+        <v>200</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>6300</v>
+        <v>5100</v>
       </c>
       <c r="K470" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L470" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M470" t="n">
-        <v>424</v>
+        <v>577</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>424</v>
+        <v>577</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>4200</v>
+        <v>6300</v>
       </c>
       <c r="K471" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L471" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M471" t="n">
-        <v>757</v>
+        <v>424</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>757</v>
+        <v>424</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34332,25 +34332,25 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="K472" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L472" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M472" t="n">
-        <v>652</v>
+        <v>757</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>652</v>
+        <v>757</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>8800</v>
+        <v>7500</v>
       </c>
       <c r="K473" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L473" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M473" t="n">
-        <v>448</v>
+        <v>652</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>448</v>
+        <v>652</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>2400</v>
+        <v>8800</v>
       </c>
       <c r="K474" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L474" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M474" t="n">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>6600</v>
+        <v>2400</v>
       </c>
       <c r="K475" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L475" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M475" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>825</v>
+        <v>350</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>2900</v>
+        <v>6600</v>
       </c>
       <c r="K476" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L476" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M476" t="n">
-        <v>250</v>
+        <v>825</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>250</v>
+        <v>825</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34692,25 +34692,25 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="K477" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L477" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M477" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K478" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L478" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M478" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K479" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L479" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M479" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34908,25 +34908,25 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K480" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L480" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M480" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K481" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L481" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M481" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="K482" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L482" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M482" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="K483" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L483" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M483" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35196,25 +35196,25 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="K484" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L484" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M484" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="K485" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L485" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M485" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="K486" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L486" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M486" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="K487" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L487" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M487" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="K488" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L488" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M488" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35556,25 +35556,25 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="K489" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="L489" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M489" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="K490" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L490" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M490" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="K491" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L491" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M491" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="K492" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L492" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M492" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>2400</v>
+        <v>4600</v>
       </c>
       <c r="K493" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L493" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M493" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K494" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L494" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M494" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="K495" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L495" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M495" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K496" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L496" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M496" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K497" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L497" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M497" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36213,7 +36213,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="K498" t="n">
         <v>200</v>
@@ -36231,7 +36231,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P498" t="n">
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K499" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L499" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="M499" t="n">
-        <v>1046</v>
+        <v>200</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1046</v>
+        <v>200</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>5800</v>
+        <v>2800</v>
       </c>
       <c r="K500" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L500" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M500" t="n">
-        <v>864</v>
+        <v>1046</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>864</v>
+        <v>1046</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>4808</v>
+        <v>5800</v>
       </c>
       <c r="K501" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L501" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M501" t="n">
-        <v>735</v>
+        <v>864</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>735</v>
+        <v>864</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>4300</v>
+        <v>4808</v>
       </c>
       <c r="K502" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L502" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M502" t="n">
-        <v>558</v>
+        <v>735</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>558</v>
+        <v>735</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36564,25 +36564,25 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="K503" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L503" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M503" t="n">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>7200</v>
+        <v>4700</v>
       </c>
       <c r="K504" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L504" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M504" t="n">
-        <v>447</v>
+        <v>597</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>447</v>
+        <v>597</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>4300</v>
+        <v>7200</v>
       </c>
       <c r="K505" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L505" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M505" t="n">
-        <v>322</v>
+        <v>447</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>322</v>
+        <v>447</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="K506" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L506" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M506" t="n">
-        <v>797</v>
+        <v>322</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>797</v>
+        <v>322</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>3700</v>
+        <v>5500</v>
       </c>
       <c r="K507" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L507" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M507" t="n">
-        <v>230</v>
+        <v>797</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>230</v>
+        <v>797</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36924,25 +36924,25 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="K508" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L508" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M508" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>7900</v>
+        <v>4800</v>
       </c>
       <c r="K509" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L509" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M509" t="n">
-        <v>447</v>
+        <v>650</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>447</v>
+        <v>650</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>6000</v>
+        <v>7900</v>
       </c>
       <c r="K510" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L510" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M510" t="n">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J511" t="n">
         <v>6000</v>
       </c>
       <c r="K511" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L511" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M511" t="n">
-        <v>855</v>
+        <v>326</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>855</v>
+        <v>326</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K512" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L512" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M512" t="n">
-        <v>222</v>
+        <v>855</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>222</v>
+        <v>855</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37284,25 +37284,25 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>580</v>
+        <v>6300</v>
       </c>
       <c r="K513" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L513" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M513" t="n">
-        <v>528</v>
+        <v>222</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>528</v>
+        <v>222</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>930</v>
+        <v>580</v>
       </c>
       <c r="K514" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L514" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M514" t="n">
-        <v>877</v>
+        <v>528</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>877</v>
+        <v>528</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>720</v>
+        <v>930</v>
       </c>
       <c r="K515" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L515" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M515" t="n">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>560</v>
+        <v>720</v>
       </c>
       <c r="K516" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="L516" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M516" t="n">
-        <v>677</v>
+        <v>778</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>677</v>
+        <v>778</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37572,25 +37572,25 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="K517" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L517" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M517" t="n">
-        <v>270</v>
+        <v>677</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>270</v>
+        <v>677</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>1080</v>
+        <v>380</v>
       </c>
       <c r="K518" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L518" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="M518" t="n">
-        <v>960</v>
+        <v>270</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>960</v>
+        <v>270</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="K519" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L519" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M519" t="n">
-        <v>738</v>
+        <v>960</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>738</v>
+        <v>960</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>710</v>
+        <v>1200</v>
       </c>
       <c r="K520" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L520" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M520" t="n">
-        <v>549</v>
+        <v>738</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>549</v>
+        <v>738</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>410</v>
+        <v>710</v>
       </c>
       <c r="K521" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L521" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M521" t="n">
-        <v>382</v>
+        <v>549</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>382</v>
+        <v>549</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>4500</v>
+        <v>410</v>
       </c>
       <c r="K522" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L522" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M522" t="n">
-        <v>599</v>
+        <v>382</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>599</v>
+        <v>382</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K523" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L523" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M523" t="n">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="K524" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L524" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M524" t="n">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>447</v>
+        <v>548</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="K525" t="n">
         <v>400</v>
       </c>
       <c r="L525" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M525" t="n">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>3800</v>
+        <v>6800</v>
       </c>
       <c r="K526" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L526" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M526" t="n">
-        <v>745</v>
+        <v>421</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>745</v>
+        <v>421</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="K527" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L527" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M527" t="n">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38364,25 +38364,25 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="K528" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L528" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M528" t="n">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K529" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L529" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M529" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="K530" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L530" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M530" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38580,25 +38580,25 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>4600</v>
+        <v>1500</v>
       </c>
       <c r="K531" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L531" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M531" t="n">
-        <v>559</v>
+        <v>750</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>559</v>
+        <v>750</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>5600</v>
+        <v>4600</v>
       </c>
       <c r="K532" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L532" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M532" t="n">
-        <v>429</v>
+        <v>559</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>429</v>
+        <v>559</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3500</v>
+        <v>5600</v>
       </c>
       <c r="K533" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L533" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M533" t="n">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K534" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L534" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M534" t="n">
-        <v>709</v>
+        <v>300</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>709</v>
+        <v>300</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K535" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L535" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="M535" t="n">
-        <v>200</v>
+        <v>709</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>200</v>
+        <v>709</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38940,25 +38940,25 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>5400</v>
+        <v>3800</v>
       </c>
       <c r="K536" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L536" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M536" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>6400</v>
+        <v>5400</v>
       </c>
       <c r="K537" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L537" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M537" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>2300</v>
+        <v>6400</v>
       </c>
       <c r="K538" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L538" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M538" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4600</v>
+        <v>2300</v>
       </c>
       <c r="K539" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L539" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M539" t="n">
-        <v>754</v>
+        <v>350</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>754</v>
+        <v>350</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1500</v>
+        <v>4600</v>
       </c>
       <c r="K540" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L540" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M540" t="n">
-        <v>200</v>
+        <v>754</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>200</v>
+        <v>754</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39300,25 +39300,25 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="K541" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L541" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M541" t="n">
-        <v>658</v>
+        <v>200</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>658</v>
+        <v>200</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>8200</v>
+        <v>4800</v>
       </c>
       <c r="K542" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L542" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M542" t="n">
-        <v>471</v>
+        <v>658</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>471</v>
+        <v>658</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>5700</v>
+        <v>8200</v>
       </c>
       <c r="K543" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L543" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M543" t="n">
-        <v>346</v>
+        <v>471</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>346</v>
+        <v>471</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="K544" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L544" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M544" t="n">
-        <v>796</v>
+        <v>346</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>796</v>
+        <v>346</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>4700</v>
+        <v>5400</v>
       </c>
       <c r="K545" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L545" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M545" t="n">
-        <v>226</v>
+        <v>796</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>226</v>
+        <v>796</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39660,25 +39660,25 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>570</v>
+        <v>4700</v>
       </c>
       <c r="K546" t="n">
         <v>200</v>
       </c>
       <c r="L546" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M546" t="n">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>1760</v>
+        <v>570</v>
       </c>
       <c r="K547" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L547" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="M547" t="n">
-        <v>745</v>
+        <v>200</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>745</v>
+        <v>200</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>2680</v>
+        <v>1760</v>
       </c>
       <c r="K548" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L548" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M548" t="n">
-        <v>568</v>
+        <v>745</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>568</v>
+        <v>745</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>1270</v>
+        <v>2680</v>
       </c>
       <c r="K549" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L549" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M549" t="n">
-        <v>400</v>
+        <v>568</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>400</v>
+        <v>568</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>850</v>
+        <v>1270</v>
       </c>
       <c r="K550" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L550" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M550" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40020,25 +40020,25 @@
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="K551" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L551" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M551" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>1500</v>
+        <v>780</v>
       </c>
       <c r="K552" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L552" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M552" t="n">
-        <v>724</v>
+        <v>250</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>724</v>
+        <v>250</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>2130</v>
+        <v>1500</v>
       </c>
       <c r="K553" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L553" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M553" t="n">
-        <v>553</v>
+        <v>724</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>553</v>
+        <v>724</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>1370</v>
+        <v>2130</v>
       </c>
       <c r="K554" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L554" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M554" t="n">
-        <v>423</v>
+        <v>553</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>423</v>
+        <v>553</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>1210</v>
+        <v>1370</v>
       </c>
       <c r="K555" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L555" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M555" t="n">
-        <v>852</v>
+        <v>423</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>852</v>
+        <v>423</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="K556" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L556" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M556" t="n">
-        <v>324</v>
+        <v>852</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>324</v>
+        <v>852</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40452,25 +40452,25 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>4300</v>
+        <v>1200</v>
       </c>
       <c r="K557" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L557" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M557" t="n">
-        <v>671</v>
+        <v>324</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>671</v>
+        <v>324</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>2900</v>
+        <v>4300</v>
       </c>
       <c r="K558" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L558" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M558" t="n">
-        <v>476</v>
+        <v>671</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>476</v>
+        <v>671</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="K559" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L559" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M559" t="n">
-        <v>367</v>
+        <v>476</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>367</v>
+        <v>476</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="K560" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L560" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M560" t="n">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>7100</v>
+        <v>3800</v>
       </c>
       <c r="K561" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L561" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M561" t="n">
-        <v>838</v>
+        <v>200</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>838</v>
+        <v>200</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="K562" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L562" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M562" t="n">
-        <v>645</v>
+        <v>838</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>645</v>
+        <v>838</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="K563" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L563" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M563" t="n">
-        <v>440</v>
+        <v>645</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>440</v>
+        <v>645</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>4700</v>
+        <v>6300</v>
       </c>
       <c r="K564" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L564" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M564" t="n">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>900</v>
+        <v>4700</v>
       </c>
       <c r="K565" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="L565" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M565" t="n">
-        <v>150</v>
+        <v>321</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>150</v>
+        <v>321</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K566" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="L566" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="M566" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K567" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L567" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M567" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K568" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L568" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M568" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K569" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L569" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M569" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J570" t="n">
         <v>1600</v>
       </c>
       <c r="K570" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L570" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M570" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K571" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L571" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M571" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="K572" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L572" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M572" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="K573" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L573" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M573" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="K574" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L574" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M574" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,25 +41748,25 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>4600</v>
+        <v>1900</v>
       </c>
       <c r="K575" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L575" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M575" t="n">
-        <v>609</v>
+        <v>350</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>609</v>
+        <v>350</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>5900</v>
+        <v>4600</v>
       </c>
       <c r="K576" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L576" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M576" t="n">
-        <v>454</v>
+        <v>609</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>454</v>
+        <v>609</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>4000</v>
+        <v>5900</v>
       </c>
       <c r="K577" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L577" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M577" t="n">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>321</v>
+        <v>454</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="K578" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L578" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M578" t="n">
-        <v>758</v>
+        <v>321</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>758</v>
+        <v>321</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>4600</v>
+        <v>3800</v>
       </c>
       <c r="K579" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L579" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M579" t="n">
-        <v>216</v>
+        <v>758</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>216</v>
+        <v>758</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42108,25 +42108,25 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K580" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L580" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M580" t="n">
-        <v>528</v>
+        <v>216</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>528</v>
+        <v>216</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>6400</v>
+        <v>5700</v>
       </c>
       <c r="K581" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L581" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M581" t="n">
-        <v>420</v>
+        <v>528</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>420</v>
+        <v>528</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>5600</v>
+        <v>6400</v>
       </c>
       <c r="K582" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L582" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M582" t="n">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>321</v>
+        <v>420</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="K583" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L583" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M583" t="n">
-        <v>685</v>
+        <v>321</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>685</v>
+        <v>321</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>6500</v>
+        <v>5200</v>
       </c>
       <c r="K584" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L584" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M584" t="n">
-        <v>222</v>
+        <v>685</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>222</v>
+        <v>685</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42468,25 +42468,25 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>800</v>
+        <v>6500</v>
       </c>
       <c r="K585" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L585" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M585" t="n">
-        <v>650</v>
+        <v>222</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>650</v>
+        <v>222</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K586" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L586" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M586" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K587" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L587" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M587" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
         <v>1900</v>
       </c>
       <c r="K588" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="L588" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="M588" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="K589" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="L589" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="M589" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="K590" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L590" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M590" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="K591" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L591" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M591" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="K592" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L592" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M592" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43053,16 +43053,16 @@
         </is>
       </c>
       <c r="J593" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K593" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L593" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M593" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K594" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L594" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M594" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="K595" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L595" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M595" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>4500</v>
+        <v>2900</v>
       </c>
       <c r="K596" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L596" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M596" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="K597" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L597" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M597" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43413,16 +43413,16 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K598" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L598" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M598" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>6800</v>
+        <v>4000</v>
       </c>
       <c r="K599" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L599" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M599" t="n">
-        <v>599</v>
+        <v>700</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>599</v>
+        <v>700</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="K600" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L600" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M600" t="n">
-        <v>448</v>
+        <v>599</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>448</v>
+        <v>599</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>5300</v>
+        <v>7900</v>
       </c>
       <c r="K601" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L601" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M601" t="n">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>333</v>
+        <v>448</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="K602" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L602" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M602" t="n">
-        <v>745</v>
+        <v>333</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>745</v>
+        <v>333</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>4600</v>
+        <v>5600</v>
       </c>
       <c r="K603" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L603" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M603" t="n">
-        <v>214</v>
+        <v>745</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>214</v>
+        <v>745</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>3300</v>
+        <v>4600</v>
       </c>
       <c r="K604" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L604" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M604" t="n">
-        <v>705</v>
+        <v>214</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43863,11 +43863,11 @@
       </c>
       <c r="O604" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P604" t="n">
-        <v>705</v>
+        <v>214</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="K605" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L605" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M605" t="n">
-        <v>555</v>
+        <v>705</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>555</v>
+        <v>705</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K606" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L606" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M606" t="n">
-        <v>837</v>
+        <v>555</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>837</v>
+        <v>555</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44052,25 +44052,25 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K607" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L607" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M607" t="n">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="K608" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L608" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M608" t="n">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K609" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L609" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M609" t="n">
-        <v>355</v>
+        <v>542</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>355</v>
+        <v>542</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="K610" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L610" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="M610" t="n">
-        <v>866</v>
+        <v>355</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>866</v>
+        <v>355</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>4500</v>
+        <v>5200</v>
       </c>
       <c r="K611" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L611" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="M611" t="n">
-        <v>224</v>
+        <v>866</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>224</v>
+        <v>866</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="K612" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L612" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M612" t="n">
-        <v>800</v>
+        <v>224</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>800</v>
+        <v>224</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="K613" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L613" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M613" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44556,25 +44556,25 @@
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="K614" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L614" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M614" t="n">
-        <v>555</v>
+        <v>1000</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>555</v>
+        <v>1000</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>6200</v>
+        <v>4400</v>
       </c>
       <c r="K615" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L615" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M615" t="n">
-        <v>428</v>
+        <v>555</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>428</v>
+        <v>555</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>4600</v>
+        <v>6200</v>
       </c>
       <c r="K616" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L616" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M616" t="n">
-        <v>709</v>
+        <v>428</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>709</v>
+        <v>428</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44772,25 +44772,25 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="K617" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L617" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M617" t="n">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44853,7 +44853,7 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K618" t="n">
         <v>550</v>
@@ -44862,7 +44862,7 @@
         <v>650</v>
       </c>
       <c r="M618" t="n">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="K619" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L619" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M619" t="n">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44997,7 +44997,7 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>9500</v>
+        <v>6700</v>
       </c>
       <c r="K620" t="n">
         <v>400</v>
@@ -45015,7 +45015,7 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P620" t="n">
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>4300</v>
+        <v>9500</v>
       </c>
       <c r="K621" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L621" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M621" t="n">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="K622" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L622" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M622" t="n">
-        <v>745</v>
+        <v>330</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>745</v>
+        <v>330</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45213,7 +45213,7 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>6900</v>
+        <v>5300</v>
       </c>
       <c r="K623" t="n">
         <v>700</v>
@@ -45222,7 +45222,7 @@
         <v>800</v>
       </c>
       <c r="M623" t="n">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>5800</v>
+        <v>6900</v>
       </c>
       <c r="K624" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L624" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M624" t="n">
-        <v>225</v>
+        <v>752</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>225</v>
+        <v>752</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="K625" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L625" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M625" t="n">
-        <v>695</v>
+        <v>225</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>695</v>
+        <v>225</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="K626" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L626" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M626" t="n">
-        <v>547</v>
+        <v>695</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>547</v>
+        <v>695</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="K627" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L627" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M627" t="n">
-        <v>407</v>
+        <v>547</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>407</v>
+        <v>547</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="K628" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L628" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M628" t="n">
-        <v>256</v>
+        <v>407</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>256</v>
+        <v>407</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="K629" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L629" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M629" t="n">
-        <v>698</v>
+        <v>256</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>698</v>
+        <v>256</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="K630" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L630" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M630" t="n">
-        <v>544</v>
+        <v>698</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>544</v>
+        <v>698</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>4400</v>
+        <v>7000</v>
       </c>
       <c r="K631" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L631" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M631" t="n">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>370</v>
+        <v>544</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K632" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L632" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M632" t="n">
-        <v>851</v>
+        <v>370</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>851</v>
+        <v>370</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="K633" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L633" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M633" t="n">
-        <v>253</v>
+        <v>851</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>253</v>
+        <v>851</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -45996,25 +45996,25 @@
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K634" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L634" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="M634" t="n">
-        <v>602</v>
+        <v>253</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>602</v>
+        <v>253</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>6100</v>
+        <v>4200</v>
       </c>
       <c r="K635" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L635" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M635" t="n">
-        <v>448</v>
+        <v>602</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>448</v>
+        <v>602</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>3200</v>
+        <v>6100</v>
       </c>
       <c r="K636" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L636" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M636" t="n">
-        <v>753</v>
+        <v>448</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>753</v>
+        <v>448</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>5100</v>
+        <v>3200</v>
       </c>
       <c r="K637" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L637" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M637" t="n">
-        <v>547</v>
+        <v>753</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>547</v>
+        <v>753</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="K638" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L638" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M638" t="n">
-        <v>423</v>
+        <v>547</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>423</v>
+        <v>547</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>4300</v>
+        <v>7000</v>
       </c>
       <c r="K639" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L639" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M639" t="n">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>328</v>
+        <v>423</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="K640" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L640" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M640" t="n">
-        <v>693</v>
+        <v>328</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>693</v>
+        <v>328</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="K641" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L641" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M641" t="n">
-        <v>227</v>
+        <v>693</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>227</v>
+        <v>693</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46577,36 +46577,36 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>150</v>
+        <v>5000</v>
       </c>
       <c r="K642" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="L642" t="n">
-        <v>20000</v>
+        <v>250</v>
       </c>
       <c r="M642" t="n">
-        <v>20000</v>
+        <v>227</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>1111</v>
+        <v>227</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,41 +46644,41 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>3600</v>
+        <v>150</v>
       </c>
       <c r="K643" t="n">
-        <v>700</v>
+        <v>20000</v>
       </c>
       <c r="L643" t="n">
-        <v>750</v>
+        <v>20000</v>
       </c>
       <c r="M643" t="n">
-        <v>731</v>
+        <v>20000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>731</v>
+        <v>1111</v>
       </c>
       <c r="Q643" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="K644" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L644" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M644" t="n">
-        <v>560</v>
+        <v>731</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>560</v>
+        <v>731</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="K645" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L645" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M645" t="n">
-        <v>331</v>
+        <v>560</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>331</v>
+        <v>560</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="K646" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L646" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M646" t="n">
-        <v>858</v>
+        <v>331</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>858</v>
+        <v>331</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K647" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L647" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M647" t="n">
-        <v>233</v>
+        <v>858</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>233</v>
+        <v>858</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>6000</v>
+        <v>2900</v>
       </c>
       <c r="K648" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L648" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M648" t="n">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>755</v>
+        <v>233</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="K649" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L649" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M649" t="n">
-        <v>563</v>
+        <v>755</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>563</v>
+        <v>755</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>5300</v>
+        <v>7000</v>
       </c>
       <c r="K650" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L650" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M650" t="n">
-        <v>353</v>
+        <v>563</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>353</v>
+        <v>563</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>4100</v>
+        <v>5300</v>
       </c>
       <c r="K651" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L651" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="M651" t="n">
-        <v>956</v>
+        <v>353</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>956</v>
+        <v>353</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="K652" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L652" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M652" t="n">
-        <v>227</v>
+        <v>956</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>227</v>
+        <v>956</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="K653" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L653" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M653" t="n">
-        <v>705</v>
+        <v>227</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>705</v>
+        <v>227</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>10100</v>
+        <v>5100</v>
       </c>
       <c r="K654" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L654" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M654" t="n">
-        <v>521</v>
+        <v>705</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>521</v>
+        <v>705</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>7100</v>
+        <v>10100</v>
       </c>
       <c r="K655" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L655" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M655" t="n">
-        <v>341</v>
+        <v>521</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>341</v>
+        <v>521</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>6400</v>
+        <v>7100</v>
       </c>
       <c r="K656" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L656" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M656" t="n">
-        <v>852</v>
+        <v>341</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>852</v>
+        <v>341</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="K657" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L657" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M657" t="n">
-        <v>220</v>
+        <v>852</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>220</v>
+        <v>852</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="K658" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L658" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M658" t="n">
-        <v>655</v>
+        <v>220</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>655</v>
+        <v>220</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>13500</v>
+        <v>4400</v>
       </c>
       <c r="K659" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L659" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M659" t="n">
-        <v>497</v>
+        <v>655</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>497</v>
+        <v>655</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>7400</v>
+        <v>13500</v>
       </c>
       <c r="K660" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L660" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M660" t="n">
-        <v>335</v>
+        <v>497</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>335</v>
+        <v>497</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="K661" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L661" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M661" t="n">
-        <v>851</v>
+        <v>335</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>851</v>
+        <v>335</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>6900</v>
+        <v>7700</v>
       </c>
       <c r="K662" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L662" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M662" t="n">
-        <v>223</v>
+        <v>851</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>223</v>
+        <v>851</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>1200</v>
+        <v>6900</v>
       </c>
       <c r="K663" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L663" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="M663" t="n">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K664" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L664" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M664" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K666" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L666" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M666" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K667" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L667" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M667" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K668" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="L668" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M668" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K669" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="L669" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="M669" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>2900</v>
+        <v>1600</v>
       </c>
       <c r="K670" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L670" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M670" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K671" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L671" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M671" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K672" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L672" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M672" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48809,36 +48809,36 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>340</v>
+        <v>2700</v>
       </c>
       <c r="K673" t="n">
-        <v>27000</v>
+        <v>300</v>
       </c>
       <c r="L673" t="n">
-        <v>28000</v>
+        <v>300</v>
       </c>
       <c r="M673" t="n">
-        <v>27559</v>
+        <v>300</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>1148</v>
+        <v>300</v>
       </c>
       <c r="Q673" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,41 +48876,41 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>4900</v>
+        <v>340</v>
       </c>
       <c r="K674" t="n">
-        <v>600</v>
+        <v>27000</v>
       </c>
       <c r="L674" t="n">
-        <v>700</v>
+        <v>28000</v>
       </c>
       <c r="M674" t="n">
-        <v>643</v>
+        <v>27559</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>643</v>
+        <v>1148</v>
       </c>
       <c r="Q674" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>7100</v>
+        <v>4900</v>
       </c>
       <c r="K675" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L675" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M675" t="n">
-        <v>523</v>
+        <v>643</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>523</v>
+        <v>643</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>4200</v>
+        <v>7100</v>
       </c>
       <c r="K676" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L676" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M676" t="n">
-        <v>360</v>
+        <v>523</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>360</v>
+        <v>523</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>5700</v>
+        <v>4200</v>
       </c>
       <c r="K677" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L677" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M677" t="n">
-        <v>792</v>
+        <v>360</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>792</v>
+        <v>360</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="K678" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L678" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="M678" t="n">
-        <v>225</v>
+        <v>792</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>225</v>
+        <v>792</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49236,25 +49236,25 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="K679" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L679" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M679" t="n">
-        <v>593</v>
+        <v>225</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>593</v>
+        <v>225</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>9000</v>
+        <v>6300</v>
       </c>
       <c r="K680" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L680" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M680" t="n">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="K681" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L681" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M681" t="n">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="K682" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L682" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M682" t="n">
-        <v>746</v>
+        <v>323</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>746</v>
+        <v>323</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49529,38 +49529,110 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J683" t="n">
+        <v>8400</v>
+      </c>
+      <c r="K683" t="n">
+        <v>700</v>
+      </c>
+      <c r="L683" t="n">
+        <v>800</v>
+      </c>
+      <c r="M683" t="n">
+        <v>746</v>
+      </c>
+      <c r="N683" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O683" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P683" t="n">
+        <v>746</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>1</v>
+      </c>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>6</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E684" t="n">
+        <v>13</v>
+      </c>
+      <c r="F684" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J683" t="n">
+      <c r="J684" t="n">
         <v>7100</v>
       </c>
-      <c r="K683" t="n">
+      <c r="K684" t="n">
         <v>200</v>
       </c>
-      <c r="L683" t="n">
+      <c r="L684" t="n">
         <v>250</v>
       </c>
-      <c r="M683" t="n">
+      <c r="M684" t="n">
         <v>223</v>
       </c>
-      <c r="N683" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O683" t="inlineStr">
+      <c r="N684" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O684" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P683" t="n">
+      <c r="P684" t="n">
         <v>223</v>
       </c>
-      <c r="Q683" t="n">
-        <v>1</v>
-      </c>
-      <c r="R683" t="inlineStr">
+      <c r="Q684" t="n">
+        <v>1</v>
+      </c>
+      <c r="R684" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R684"/>
+  <dimension ref="A1:R686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33252,41 +33252,41 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>2200</v>
+        <v>240</v>
       </c>
       <c r="K457" t="n">
-        <v>650</v>
+        <v>20000</v>
       </c>
       <c r="L457" t="n">
-        <v>650</v>
+        <v>21000</v>
       </c>
       <c r="M457" t="n">
-        <v>650</v>
+        <v>20458</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>650</v>
+        <v>1279</v>
       </c>
       <c r="Q457" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33324,41 +33324,41 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>2700</v>
+        <v>140</v>
       </c>
       <c r="K458" t="n">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="L458" t="n">
-        <v>500</v>
+        <v>19000</v>
       </c>
       <c r="M458" t="n">
-        <v>500</v>
+        <v>18643</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="Q458" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K459" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L459" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M459" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33468,25 +33468,25 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="K460" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L460" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M460" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33540,25 +33540,25 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="K461" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L461" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M461" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="K462" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L462" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M462" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K463" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L463" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M463" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="K464" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L464" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M464" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="K465" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L465" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M465" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K466" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L466" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M466" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="K467" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L467" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M467" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="K468" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L468" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M468" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="K469" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L469" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="M469" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34188,25 +34188,25 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>5100</v>
+        <v>2600</v>
       </c>
       <c r="K470" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L470" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M470" t="n">
-        <v>577</v>
+        <v>200</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>577</v>
+        <v>200</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34260,25 +34260,25 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>6300</v>
+        <v>2900</v>
       </c>
       <c r="K471" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L471" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M471" t="n">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>424</v>
+        <v>200</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="K472" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L472" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M472" t="n">
-        <v>757</v>
+        <v>577</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>757</v>
+        <v>577</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34404,25 +34404,25 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>7500</v>
+        <v>6300</v>
       </c>
       <c r="K473" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L473" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M473" t="n">
-        <v>652</v>
+        <v>424</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>652</v>
+        <v>424</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34476,25 +34476,25 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>8800</v>
+        <v>4200</v>
       </c>
       <c r="K474" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L474" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M474" t="n">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>448</v>
+        <v>757</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>2400</v>
+        <v>7500</v>
       </c>
       <c r="K475" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L475" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M475" t="n">
-        <v>350</v>
+        <v>652</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>350</v>
+        <v>652</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>6600</v>
+        <v>8800</v>
       </c>
       <c r="K476" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L476" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M476" t="n">
-        <v>825</v>
+        <v>448</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>825</v>
+        <v>448</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K477" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L477" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M477" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34764,25 +34764,25 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>1300</v>
+        <v>6600</v>
       </c>
       <c r="K478" t="n">
         <v>800</v>
       </c>
       <c r="L478" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M478" t="n">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34836,25 +34836,25 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1600</v>
+        <v>2900</v>
       </c>
       <c r="K479" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L479" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M479" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K480" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L480" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M480" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34980,25 +34980,25 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K481" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L481" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M481" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35052,25 +35052,25 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K482" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L482" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M482" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="K483" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L483" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M483" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K484" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L484" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M484" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35268,25 +35268,25 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K485" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L485" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M485" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35340,25 +35340,25 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="K486" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L486" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M486" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K487" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L487" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M487" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="K488" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L488" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M488" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K489" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L489" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M489" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35628,25 +35628,25 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="K490" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L490" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M490" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="K491" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L491" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M491" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="K492" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L492" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M492" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="K493" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L493" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M493" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>2400</v>
+        <v>4200</v>
       </c>
       <c r="K494" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L494" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M494" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>3200</v>
+        <v>4600</v>
       </c>
       <c r="K495" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L495" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M495" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K496" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="L496" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M496" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K497" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L497" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M497" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J498" t="n">
         <v>2900</v>
       </c>
       <c r="K498" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L498" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="M498" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="K499" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L499" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M499" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K500" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L500" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="M500" t="n">
-        <v>1046</v>
+        <v>200</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1046</v>
+        <v>200</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>5800</v>
+        <v>2700</v>
       </c>
       <c r="K501" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="L501" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="M501" t="n">
-        <v>864</v>
+        <v>200</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>864</v>
+        <v>200</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>4808</v>
+        <v>2800</v>
       </c>
       <c r="K502" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L502" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M502" t="n">
-        <v>735</v>
+        <v>1046</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>735</v>
+        <v>1046</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="K503" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L503" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M503" t="n">
-        <v>558</v>
+        <v>864</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>558</v>
+        <v>864</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36636,25 +36636,25 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>4700</v>
+        <v>4808</v>
       </c>
       <c r="K504" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L504" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M504" t="n">
-        <v>597</v>
+        <v>735</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>597</v>
+        <v>735</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36708,25 +36708,25 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>7200</v>
+        <v>4300</v>
       </c>
       <c r="K505" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L505" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M505" t="n">
-        <v>447</v>
+        <v>558</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>447</v>
+        <v>558</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="K506" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L506" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M506" t="n">
-        <v>322</v>
+        <v>597</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>322</v>
+        <v>597</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>5500</v>
+        <v>7200</v>
       </c>
       <c r="K507" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L507" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M507" t="n">
-        <v>797</v>
+        <v>447</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>797</v>
+        <v>447</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>3700</v>
+        <v>4300</v>
       </c>
       <c r="K508" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L508" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M508" t="n">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36996,25 +36996,25 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="K509" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L509" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M509" t="n">
-        <v>650</v>
+        <v>797</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>650</v>
+        <v>797</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37068,25 +37068,25 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>7900</v>
+        <v>3700</v>
       </c>
       <c r="K510" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L510" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M510" t="n">
-        <v>447</v>
+        <v>230</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>447</v>
+        <v>230</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="K511" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L511" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M511" t="n">
-        <v>326</v>
+        <v>650</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>326</v>
+        <v>650</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>6000</v>
+        <v>7900</v>
       </c>
       <c r="K512" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L512" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M512" t="n">
-        <v>855</v>
+        <v>447</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>855</v>
+        <v>447</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K513" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L513" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M513" t="n">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>222</v>
+        <v>326</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37356,25 +37356,25 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>580</v>
+        <v>6000</v>
       </c>
       <c r="K514" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L514" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="M514" t="n">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>528</v>
+        <v>855</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37428,25 +37428,25 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>930</v>
+        <v>6300</v>
       </c>
       <c r="K515" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="L515" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M515" t="n">
-        <v>877</v>
+        <v>222</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>877</v>
+        <v>222</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="K516" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L516" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M516" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>560</v>
+        <v>930</v>
       </c>
       <c r="K517" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L517" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M517" t="n">
-        <v>677</v>
+        <v>877</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>677</v>
+        <v>877</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37644,25 +37644,25 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="K518" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L518" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M518" t="n">
-        <v>270</v>
+        <v>778</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>270</v>
+        <v>778</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37716,25 +37716,25 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="K519" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L519" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M519" t="n">
-        <v>960</v>
+        <v>677</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>960</v>
+        <v>677</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="K520" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L520" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M520" t="n">
-        <v>738</v>
+        <v>270</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>738</v>
+        <v>270</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>710</v>
+        <v>1080</v>
       </c>
       <c r="K521" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L521" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M521" t="n">
-        <v>549</v>
+        <v>960</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>549</v>
+        <v>960</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="K522" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L522" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M522" t="n">
-        <v>382</v>
+        <v>738</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>382</v>
+        <v>738</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>4500</v>
+        <v>710</v>
       </c>
       <c r="K523" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L523" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M523" t="n">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>4600</v>
+        <v>410</v>
       </c>
       <c r="K524" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L524" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M524" t="n">
-        <v>548</v>
+        <v>382</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>548</v>
+        <v>382</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="K525" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L525" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M525" t="n">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>6800</v>
+        <v>4600</v>
       </c>
       <c r="K526" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L526" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M526" t="n">
-        <v>421</v>
+        <v>548</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>421</v>
+        <v>548</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>3800</v>
+        <v>5800</v>
       </c>
       <c r="K527" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L527" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M527" t="n">
-        <v>745</v>
+        <v>447</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>745</v>
+        <v>447</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>3300</v>
+        <v>6800</v>
       </c>
       <c r="K528" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L528" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M528" t="n">
-        <v>695</v>
+        <v>421</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>695</v>
+        <v>421</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38436,25 +38436,25 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="K529" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L529" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M529" t="n">
-        <v>600</v>
+        <v>745</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>600</v>
+        <v>745</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38508,25 +38508,25 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="K530" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L530" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M530" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K531" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L531" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M531" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>4600</v>
+        <v>3100</v>
       </c>
       <c r="K532" t="n">
         <v>500</v>
       </c>
       <c r="L532" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M532" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38724,25 +38724,25 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>5600</v>
+        <v>1500</v>
       </c>
       <c r="K533" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L533" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M533" t="n">
-        <v>429</v>
+        <v>750</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>429</v>
+        <v>750</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="K534" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L534" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M534" t="n">
-        <v>300</v>
+        <v>559</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>300</v>
+        <v>559</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="K535" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L535" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M535" t="n">
-        <v>709</v>
+        <v>429</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>709</v>
+        <v>429</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K536" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L536" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M536" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39012,25 +39012,25 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>5400</v>
+        <v>3700</v>
       </c>
       <c r="K537" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L537" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M537" t="n">
-        <v>600</v>
+        <v>709</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>600</v>
+        <v>709</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39084,25 +39084,25 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>6400</v>
+        <v>3800</v>
       </c>
       <c r="K538" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L538" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M538" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>2300</v>
+        <v>5400</v>
       </c>
       <c r="K539" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L539" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M539" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>4600</v>
+        <v>6400</v>
       </c>
       <c r="K540" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L540" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M540" t="n">
-        <v>754</v>
+        <v>425</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>754</v>
+        <v>425</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K541" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L541" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M541" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39372,25 +39372,25 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K542" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L542" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M542" t="n">
-        <v>658</v>
+        <v>754</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>658</v>
+        <v>754</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39444,25 +39444,25 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>8200</v>
+        <v>1500</v>
       </c>
       <c r="K543" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L543" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M543" t="n">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="K544" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L544" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M544" t="n">
-        <v>346</v>
+        <v>658</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>346</v>
+        <v>658</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="K545" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L545" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M545" t="n">
-        <v>796</v>
+        <v>471</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>796</v>
+        <v>471</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="K546" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L546" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M546" t="n">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39732,25 +39732,25 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>570</v>
+        <v>5400</v>
       </c>
       <c r="K547" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L547" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="M547" t="n">
-        <v>200</v>
+        <v>796</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>200</v>
+        <v>796</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39804,25 +39804,25 @@
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>1760</v>
+        <v>4700</v>
       </c>
       <c r="K548" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L548" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M548" t="n">
-        <v>745</v>
+        <v>226</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>745</v>
+        <v>226</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>2680</v>
+        <v>570</v>
       </c>
       <c r="K549" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L549" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M549" t="n">
-        <v>568</v>
+        <v>200</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>568</v>
+        <v>200</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>1270</v>
+        <v>1760</v>
       </c>
       <c r="K550" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L550" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M550" t="n">
-        <v>400</v>
+        <v>745</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>400</v>
+        <v>745</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>850</v>
+        <v>2680</v>
       </c>
       <c r="K551" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L551" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M551" t="n">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40092,25 +40092,25 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>780</v>
+        <v>1270</v>
       </c>
       <c r="K552" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L552" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M552" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40164,25 +40164,25 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="K553" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L553" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M553" t="n">
-        <v>724</v>
+        <v>300</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>724</v>
+        <v>300</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>2130</v>
+        <v>780</v>
       </c>
       <c r="K554" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L554" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M554" t="n">
-        <v>553</v>
+        <v>250</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>553</v>
+        <v>250</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>1370</v>
+        <v>1500</v>
       </c>
       <c r="K555" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L555" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M555" t="n">
-        <v>423</v>
+        <v>724</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>423</v>
+        <v>724</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>1210</v>
+        <v>2130</v>
       </c>
       <c r="K556" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L556" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M556" t="n">
-        <v>852</v>
+        <v>553</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>852</v>
+        <v>553</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="K557" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L557" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M557" t="n">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40524,25 +40524,25 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>4300</v>
+        <v>1210</v>
       </c>
       <c r="K558" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L558" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M558" t="n">
-        <v>671</v>
+        <v>852</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>671</v>
+        <v>852</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40596,25 +40596,25 @@
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="K559" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L559" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M559" t="n">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="K560" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L560" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M560" t="n">
-        <v>367</v>
+        <v>671</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>367</v>
+        <v>671</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="K561" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L561" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M561" t="n">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40812,25 +40812,25 @@
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>7100</v>
+        <v>3300</v>
       </c>
       <c r="K562" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L562" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M562" t="n">
-        <v>838</v>
+        <v>367</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>838</v>
+        <v>367</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>7500</v>
+        <v>3800</v>
       </c>
       <c r="K563" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L563" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M563" t="n">
-        <v>645</v>
+        <v>200</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>645</v>
+        <v>200</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="K564" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L564" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M564" t="n">
-        <v>440</v>
+        <v>838</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>440</v>
+        <v>838</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="K565" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L565" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M565" t="n">
-        <v>321</v>
+        <v>645</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>321</v>
+        <v>645</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>900</v>
+        <v>6300</v>
       </c>
       <c r="K566" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="L566" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M566" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>1100</v>
+        <v>4700</v>
       </c>
       <c r="K567" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L567" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M567" t="n">
-        <v>700</v>
+        <v>321</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>700</v>
+        <v>321</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K568" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L568" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="M568" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K569" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L569" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M569" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K570" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L570" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M570" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K571" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L571" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M571" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K572" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L572" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M572" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K573" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L573" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M573" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="K574" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L574" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M574" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="K575" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L575" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M575" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41820,25 +41820,25 @@
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="K576" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L576" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M576" t="n">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41892,25 +41892,25 @@
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>5900</v>
+        <v>1900</v>
       </c>
       <c r="K577" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L577" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M577" t="n">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="K578" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L578" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M578" t="n">
-        <v>321</v>
+        <v>609</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>321</v>
+        <v>609</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>3800</v>
+        <v>5900</v>
       </c>
       <c r="K579" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L579" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M579" t="n">
-        <v>758</v>
+        <v>454</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>758</v>
+        <v>454</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="K580" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L580" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M580" t="n">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42180,25 +42180,25 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K581" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L581" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M581" t="n">
-        <v>528</v>
+        <v>758</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>528</v>
+        <v>758</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42252,25 +42252,25 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>6400</v>
+        <v>4600</v>
       </c>
       <c r="K582" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L582" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M582" t="n">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K583" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L583" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M583" t="n">
-        <v>321</v>
+        <v>528</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>321</v>
+        <v>528</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="K584" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L584" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M584" t="n">
-        <v>685</v>
+        <v>420</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>685</v>
+        <v>420</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="K585" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L585" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M585" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42540,25 +42540,25 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>800</v>
+        <v>5200</v>
       </c>
       <c r="K586" t="n">
         <v>650</v>
       </c>
       <c r="L586" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M586" t="n">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42612,25 +42612,25 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="K587" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L587" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M587" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K588" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L588" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M588" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K589" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L589" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M589" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42828,25 +42828,25 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="K590" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L590" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M590" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K591" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L591" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M591" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K592" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L592" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="M592" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="K593" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L593" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M593" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="K594" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L594" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M594" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="K595" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L595" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M595" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="K596" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L596" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M596" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K597" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L597" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M597" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="K598" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L598" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M598" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="K599" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L599" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M599" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="K600" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L600" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M600" t="n">
-        <v>599</v>
+        <v>900</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>599</v>
+        <v>900</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="K601" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L601" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M601" t="n">
-        <v>448</v>
+        <v>700</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>448</v>
+        <v>700</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="K602" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L602" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M602" t="n">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="K603" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L603" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M603" t="n">
-        <v>745</v>
+        <v>448</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>745</v>
+        <v>448</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="K604" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L604" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M604" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43908,25 +43908,25 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>3300</v>
+        <v>5600</v>
       </c>
       <c r="K605" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L605" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M605" t="n">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K606" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L606" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M606" t="n">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K607" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L607" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M607" t="n">
-        <v>837</v>
+        <v>705</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>837</v>
+        <v>705</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="K608" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L608" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M608" t="n">
-        <v>697</v>
+        <v>555</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>697</v>
+        <v>555</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44196,25 +44196,25 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="K609" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L609" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M609" t="n">
-        <v>542</v>
+        <v>837</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>542</v>
+        <v>837</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="K610" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L610" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M610" t="n">
-        <v>355</v>
+        <v>697</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>355</v>
+        <v>697</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="K611" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L611" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M611" t="n">
-        <v>866</v>
+        <v>542</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>866</v>
+        <v>542</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K612" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L612" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M612" t="n">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>3300</v>
+        <v>5200</v>
       </c>
       <c r="K613" t="n">
         <v>800</v>
       </c>
       <c r="L613" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M613" t="n">
-        <v>800</v>
+        <v>866</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>800</v>
+        <v>866</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44565,16 +44565,16 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K614" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L614" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M614" t="n">
-        <v>1000</v>
+        <v>224</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>1000</v>
+        <v>224</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="K615" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L615" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M615" t="n">
-        <v>555</v>
+        <v>800</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>555</v>
+        <v>800</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>6200</v>
+        <v>2600</v>
       </c>
       <c r="K616" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L616" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M616" t="n">
-        <v>428</v>
+        <v>1000</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>428</v>
+        <v>1000</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K617" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L617" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M617" t="n">
-        <v>709</v>
+        <v>555</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>709</v>
+        <v>555</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>3800</v>
+        <v>6200</v>
       </c>
       <c r="K618" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L618" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="M618" t="n">
-        <v>608</v>
+        <v>428</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>608</v>
+        <v>428</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K619" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L619" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M619" t="n">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>6700</v>
+        <v>3800</v>
       </c>
       <c r="K620" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L620" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M620" t="n">
-        <v>446</v>
+        <v>608</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>446</v>
+        <v>608</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>9500</v>
+        <v>5700</v>
       </c>
       <c r="K621" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L621" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M621" t="n">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>4300</v>
+        <v>6700</v>
       </c>
       <c r="K622" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L622" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M622" t="n">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>5300</v>
+        <v>9500</v>
       </c>
       <c r="K623" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L623" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M623" t="n">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>6900</v>
+        <v>4300</v>
       </c>
       <c r="K624" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L624" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M624" t="n">
-        <v>752</v>
+        <v>330</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45307,7 +45307,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>752</v>
+        <v>330</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="K625" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L625" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M625" t="n">
-        <v>225</v>
+        <v>745</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>225</v>
+        <v>745</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45420,25 +45420,25 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>4200</v>
+        <v>6900</v>
       </c>
       <c r="K626" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L626" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M626" t="n">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45492,25 +45492,25 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="K627" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L627" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M627" t="n">
-        <v>547</v>
+        <v>225</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>547</v>
+        <v>225</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="K628" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L628" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M628" t="n">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="K629" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L629" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M629" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45708,25 +45708,25 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="K630" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L630" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M630" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45780,25 +45780,25 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="K631" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L631" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M631" t="n">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45857,20 +45857,20 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="K632" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L632" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M632" t="n">
-        <v>370</v>
+        <v>698</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>370</v>
+        <v>698</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="K633" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L633" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M633" t="n">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K634" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L634" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M634" t="n">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="K635" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L635" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M635" t="n">
-        <v>602</v>
+        <v>851</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>602</v>
+        <v>851</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>6100</v>
+        <v>4300</v>
       </c>
       <c r="K636" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L636" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M636" t="n">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="K637" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L637" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M637" t="n">
-        <v>753</v>
+        <v>602</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>753</v>
+        <v>602</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46284,25 +46284,25 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>5100</v>
+        <v>6100</v>
       </c>
       <c r="K638" t="n">
+        <v>400</v>
+      </c>
+      <c r="L638" t="n">
         <v>500</v>
       </c>
-      <c r="L638" t="n">
-        <v>600</v>
-      </c>
       <c r="M638" t="n">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46356,25 +46356,25 @@
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="K639" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L639" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M639" t="n">
-        <v>423</v>
+        <v>753</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>423</v>
+        <v>753</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="K640" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L640" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M640" t="n">
-        <v>328</v>
+        <v>547</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>328</v>
+        <v>547</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>3700</v>
+        <v>7000</v>
       </c>
       <c r="K641" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L641" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M641" t="n">
-        <v>693</v>
+        <v>423</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>693</v>
+        <v>423</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="K642" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L642" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M642" t="n">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46649,36 +46649,36 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>150</v>
+        <v>3700</v>
       </c>
       <c r="K643" t="n">
-        <v>20000</v>
+        <v>650</v>
       </c>
       <c r="L643" t="n">
-        <v>20000</v>
+        <v>750</v>
       </c>
       <c r="M643" t="n">
-        <v>20000</v>
+        <v>693</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>1111</v>
+        <v>693</v>
       </c>
       <c r="Q643" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46716,25 +46716,25 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="K644" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L644" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M644" t="n">
-        <v>731</v>
+        <v>227</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>731</v>
+        <v>227</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46788,41 +46788,41 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>4500</v>
+        <v>150</v>
       </c>
       <c r="K645" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="L645" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="M645" t="n">
-        <v>560</v>
+        <v>20000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>560</v>
+        <v>1111</v>
       </c>
       <c r="Q645" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K646" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L646" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M646" t="n">
-        <v>331</v>
+        <v>731</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>331</v>
+        <v>731</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K647" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L647" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M647" t="n">
-        <v>858</v>
+        <v>560</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>858</v>
+        <v>560</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="K648" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L648" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M648" t="n">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="K649" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L649" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M649" t="n">
-        <v>755</v>
+        <v>858</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>755</v>
+        <v>858</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47148,25 +47148,25 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="K650" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L650" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M650" t="n">
-        <v>563</v>
+        <v>233</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>563</v>
+        <v>233</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="K651" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L651" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M651" t="n">
-        <v>353</v>
+        <v>755</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>353</v>
+        <v>755</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47297,20 +47297,20 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>4100</v>
+        <v>7000</v>
       </c>
       <c r="K652" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L652" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M652" t="n">
-        <v>956</v>
+        <v>563</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>956</v>
+        <v>563</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>3500</v>
+        <v>5300</v>
       </c>
       <c r="K653" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L653" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M653" t="n">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47436,25 +47436,25 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="K654" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L654" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M654" t="n">
-        <v>705</v>
+        <v>956</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>705</v>
+        <v>956</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47508,25 +47508,25 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>10100</v>
+        <v>3500</v>
       </c>
       <c r="K655" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L655" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M655" t="n">
-        <v>521</v>
+        <v>227</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>521</v>
+        <v>227</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>7100</v>
+        <v>5100</v>
       </c>
       <c r="K656" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L656" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M656" t="n">
-        <v>341</v>
+        <v>705</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>341</v>
+        <v>705</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>6400</v>
+        <v>10100</v>
       </c>
       <c r="K657" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L657" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M657" t="n">
-        <v>852</v>
+        <v>521</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>852</v>
+        <v>521</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="K658" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L658" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M658" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47796,25 +47796,25 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>4400</v>
+        <v>6400</v>
       </c>
       <c r="K659" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L659" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M659" t="n">
-        <v>655</v>
+        <v>852</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>655</v>
+        <v>852</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47868,25 +47868,25 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="K660" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L660" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M660" t="n">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>7400</v>
+        <v>4400</v>
       </c>
       <c r="K661" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L661" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M661" t="n">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>7700</v>
+        <v>13500</v>
       </c>
       <c r="K662" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L662" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M662" t="n">
-        <v>851</v>
+        <v>497</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>851</v>
+        <v>497</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>6900</v>
+        <v>7400</v>
       </c>
       <c r="K663" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L663" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M663" t="n">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,25 +48156,25 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>1200</v>
+        <v>7700</v>
       </c>
       <c r="K664" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L664" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="M664" t="n">
-        <v>100</v>
+        <v>851</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>100</v>
+        <v>851</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>1500</v>
+        <v>6900</v>
       </c>
       <c r="K665" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L665" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M665" t="n">
-        <v>700</v>
+        <v>223</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>700</v>
+        <v>223</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K666" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L666" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M666" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K667" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L667" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M667" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K668" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L668" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M668" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K669" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="L669" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M669" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K670" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L670" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M670" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K671" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="L671" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M671" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K672" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L672" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M672" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="K673" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L673" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M673" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48885,32 +48885,32 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>340</v>
+        <v>2500</v>
       </c>
       <c r="K674" t="n">
-        <v>27000</v>
+        <v>400</v>
       </c>
       <c r="L674" t="n">
-        <v>28000</v>
+        <v>400</v>
       </c>
       <c r="M674" t="n">
-        <v>27559</v>
+        <v>400</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>1148</v>
+        <v>400</v>
       </c>
       <c r="Q674" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>4900</v>
+        <v>2700</v>
       </c>
       <c r="K675" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L675" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M675" t="n">
-        <v>643</v>
+        <v>300</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>643</v>
+        <v>300</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,41 +49020,41 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>7100</v>
+        <v>340</v>
       </c>
       <c r="K676" t="n">
-        <v>500</v>
+        <v>27000</v>
       </c>
       <c r="L676" t="n">
-        <v>550</v>
+        <v>28000</v>
       </c>
       <c r="M676" t="n">
-        <v>523</v>
+        <v>27559</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>523</v>
+        <v>1148</v>
       </c>
       <c r="Q676" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>4200</v>
+        <v>4900</v>
       </c>
       <c r="K677" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L677" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M677" t="n">
-        <v>360</v>
+        <v>643</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>360</v>
+        <v>643</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>5700</v>
+        <v>7100</v>
       </c>
       <c r="K678" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L678" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="M678" t="n">
-        <v>792</v>
+        <v>523</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>792</v>
+        <v>523</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="K679" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L679" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M679" t="n">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49308,25 +49308,25 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>6300</v>
+        <v>5700</v>
       </c>
       <c r="K680" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L680" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M680" t="n">
-        <v>593</v>
+        <v>792</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>593</v>
+        <v>792</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="K681" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L681" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M681" t="n">
-        <v>447</v>
+        <v>225</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>447</v>
+        <v>225</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="K682" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L682" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M682" t="n">
-        <v>323</v>
+        <v>593</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>323</v>
+        <v>593</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>8400</v>
+        <v>9000</v>
       </c>
       <c r="K683" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L683" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M683" t="n">
-        <v>746</v>
+        <v>447</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>746</v>
+        <v>447</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49601,38 +49601,182 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K684" t="n">
+        <v>300</v>
+      </c>
+      <c r="L684" t="n">
+        <v>350</v>
+      </c>
+      <c r="M684" t="n">
+        <v>323</v>
+      </c>
+      <c r="N684" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O684" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P684" t="n">
+        <v>323</v>
+      </c>
+      <c r="Q684" t="n">
+        <v>1</v>
+      </c>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>6</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E685" t="n">
+        <v>13</v>
+      </c>
+      <c r="F685" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J685" t="n">
+        <v>8400</v>
+      </c>
+      <c r="K685" t="n">
+        <v>700</v>
+      </c>
+      <c r="L685" t="n">
+        <v>800</v>
+      </c>
+      <c r="M685" t="n">
+        <v>746</v>
+      </c>
+      <c r="N685" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O685" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P685" t="n">
+        <v>746</v>
+      </c>
+      <c r="Q685" t="n">
+        <v>1</v>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>6</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E686" t="n">
+        <v>13</v>
+      </c>
+      <c r="F686" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J684" t="n">
+      <c r="J686" t="n">
         <v>7100</v>
       </c>
-      <c r="K684" t="n">
+      <c r="K686" t="n">
         <v>200</v>
       </c>
-      <c r="L684" t="n">
+      <c r="L686" t="n">
         <v>250</v>
       </c>
-      <c r="M684" t="n">
+      <c r="M686" t="n">
         <v>223</v>
       </c>
-      <c r="N684" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O684" t="inlineStr">
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O686" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P684" t="n">
+      <c r="P686" t="n">
         <v>223</v>
       </c>
-      <c r="Q684" t="n">
-        <v>1</v>
-      </c>
-      <c r="R684" t="inlineStr">
+      <c r="Q686" t="n">
+        <v>1</v>
+      </c>
+      <c r="R686" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R686"/>
+  <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37500,41 +37500,41 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="K516" t="n">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="L516" t="n">
-        <v>550</v>
+        <v>19000</v>
       </c>
       <c r="M516" t="n">
-        <v>528</v>
+        <v>18577</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>528</v>
+        <v>1032</v>
       </c>
       <c r="Q516" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37572,41 +37572,41 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>930</v>
+        <v>250</v>
       </c>
       <c r="K517" t="n">
-        <v>850</v>
+        <v>17000</v>
       </c>
       <c r="L517" t="n">
-        <v>900</v>
+        <v>18000</v>
       </c>
       <c r="M517" t="n">
-        <v>877</v>
+        <v>17400</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>877</v>
+        <v>725</v>
       </c>
       <c r="Q517" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="K518" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L518" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M518" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>778</v>
+        <v>528</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>560</v>
+        <v>930</v>
       </c>
       <c r="K519" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="L519" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M519" t="n">
-        <v>677</v>
+        <v>877</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>677</v>
+        <v>877</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37788,25 +37788,25 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="K520" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L520" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M520" t="n">
-        <v>270</v>
+        <v>778</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>270</v>
+        <v>778</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37860,25 +37860,25 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="K521" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="L521" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M521" t="n">
-        <v>960</v>
+        <v>677</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>960</v>
+        <v>677</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="K522" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L522" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M522" t="n">
-        <v>738</v>
+        <v>270</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>738</v>
+        <v>270</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>710</v>
+        <v>1080</v>
       </c>
       <c r="K523" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L523" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M523" t="n">
-        <v>549</v>
+        <v>960</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>549</v>
+        <v>960</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="K524" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L524" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M524" t="n">
-        <v>382</v>
+        <v>738</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>382</v>
+        <v>738</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>4500</v>
+        <v>710</v>
       </c>
       <c r="K525" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L525" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M525" t="n">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>4600</v>
+        <v>410</v>
       </c>
       <c r="K526" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L526" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M526" t="n">
-        <v>548</v>
+        <v>382</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>548</v>
+        <v>382</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="K527" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L527" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M527" t="n">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>6800</v>
+        <v>4600</v>
       </c>
       <c r="K528" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L528" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M528" t="n">
-        <v>421</v>
+        <v>548</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>421</v>
+        <v>548</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>3800</v>
+        <v>5800</v>
       </c>
       <c r="K529" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L529" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M529" t="n">
-        <v>745</v>
+        <v>447</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>745</v>
+        <v>447</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>3300</v>
+        <v>6800</v>
       </c>
       <c r="K530" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L530" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M530" t="n">
-        <v>695</v>
+        <v>421</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>695</v>
+        <v>421</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38580,25 +38580,25 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="K531" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L531" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M531" t="n">
-        <v>600</v>
+        <v>745</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>600</v>
+        <v>745</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38652,25 +38652,25 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="K532" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L532" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M532" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K533" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L533" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M533" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38796,25 +38796,25 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>4600</v>
+        <v>3100</v>
       </c>
       <c r="K534" t="n">
         <v>500</v>
       </c>
       <c r="L534" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M534" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38868,25 +38868,25 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>5600</v>
+        <v>1500</v>
       </c>
       <c r="K535" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L535" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M535" t="n">
-        <v>429</v>
+        <v>750</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>429</v>
+        <v>750</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="K536" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L536" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M536" t="n">
-        <v>300</v>
+        <v>559</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>300</v>
+        <v>559</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>3700</v>
+        <v>5600</v>
       </c>
       <c r="K537" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L537" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M537" t="n">
-        <v>709</v>
+        <v>429</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>709</v>
+        <v>429</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K538" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L538" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M538" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39156,25 +39156,25 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>5400</v>
+        <v>3700</v>
       </c>
       <c r="K539" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L539" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M539" t="n">
-        <v>600</v>
+        <v>709</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>600</v>
+        <v>709</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39228,25 +39228,25 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>6400</v>
+        <v>3800</v>
       </c>
       <c r="K540" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L540" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M540" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>425</v>
+        <v>200</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>2300</v>
+        <v>5400</v>
       </c>
       <c r="K541" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L541" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M541" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>4600</v>
+        <v>6400</v>
       </c>
       <c r="K542" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L542" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M542" t="n">
-        <v>754</v>
+        <v>425</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>754</v>
+        <v>425</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K543" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L543" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M543" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39516,25 +39516,25 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K544" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L544" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M544" t="n">
-        <v>658</v>
+        <v>754</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>658</v>
+        <v>754</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39588,25 +39588,25 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>8200</v>
+        <v>1500</v>
       </c>
       <c r="K545" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L545" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M545" t="n">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="K546" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L546" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M546" t="n">
-        <v>346</v>
+        <v>658</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>346</v>
+        <v>658</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="K547" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L547" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M547" t="n">
-        <v>796</v>
+        <v>471</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>796</v>
+        <v>471</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="K548" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L548" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M548" t="n">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39876,25 +39876,25 @@
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>570</v>
+        <v>5400</v>
       </c>
       <c r="K549" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L549" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="M549" t="n">
-        <v>200</v>
+        <v>796</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>200</v>
+        <v>796</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39948,25 +39948,25 @@
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>1760</v>
+        <v>4700</v>
       </c>
       <c r="K550" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L550" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M550" t="n">
-        <v>745</v>
+        <v>226</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>745</v>
+        <v>226</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>2680</v>
+        <v>570</v>
       </c>
       <c r="K551" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L551" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M551" t="n">
-        <v>568</v>
+        <v>200</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>568</v>
+        <v>200</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>1270</v>
+        <v>1760</v>
       </c>
       <c r="K552" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L552" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M552" t="n">
-        <v>400</v>
+        <v>745</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>400</v>
+        <v>745</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>850</v>
+        <v>2680</v>
       </c>
       <c r="K553" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L553" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M553" t="n">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40236,25 +40236,25 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>780</v>
+        <v>1270</v>
       </c>
       <c r="K554" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L554" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M554" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40308,25 +40308,25 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>1500</v>
+        <v>850</v>
       </c>
       <c r="K555" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L555" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M555" t="n">
-        <v>724</v>
+        <v>300</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>724</v>
+        <v>300</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>2130</v>
+        <v>780</v>
       </c>
       <c r="K556" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L556" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M556" t="n">
-        <v>553</v>
+        <v>250</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>553</v>
+        <v>250</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>1370</v>
+        <v>1500</v>
       </c>
       <c r="K557" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L557" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M557" t="n">
-        <v>423</v>
+        <v>724</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>423</v>
+        <v>724</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>1210</v>
+        <v>2130</v>
       </c>
       <c r="K558" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L558" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M558" t="n">
-        <v>852</v>
+        <v>553</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>852</v>
+        <v>553</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>1200</v>
+        <v>1370</v>
       </c>
       <c r="K559" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L559" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M559" t="n">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40668,25 +40668,25 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>4300</v>
+        <v>1210</v>
       </c>
       <c r="K560" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L560" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M560" t="n">
-        <v>671</v>
+        <v>852</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>671</v>
+        <v>852</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40740,25 +40740,25 @@
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="K561" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L561" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M561" t="n">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>476</v>
+        <v>324</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="K562" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L562" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M562" t="n">
-        <v>367</v>
+        <v>671</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>367</v>
+        <v>671</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40884,25 +40884,25 @@
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="K563" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L563" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M563" t="n">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40956,25 +40956,25 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>7100</v>
+        <v>3300</v>
       </c>
       <c r="K564" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L564" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M564" t="n">
-        <v>838</v>
+        <v>367</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>838</v>
+        <v>367</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>7500</v>
+        <v>3800</v>
       </c>
       <c r="K565" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L565" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M565" t="n">
-        <v>645</v>
+        <v>200</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>645</v>
+        <v>200</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="K566" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L566" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M566" t="n">
-        <v>440</v>
+        <v>838</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>440</v>
+        <v>838</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="K567" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L567" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M567" t="n">
-        <v>321</v>
+        <v>645</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>321</v>
+        <v>645</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>900</v>
+        <v>6300</v>
       </c>
       <c r="K568" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="L568" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="M568" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>1100</v>
+        <v>4700</v>
       </c>
       <c r="K569" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L569" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M569" t="n">
-        <v>700</v>
+        <v>321</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>700</v>
+        <v>321</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K570" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="L570" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="M570" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K571" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L571" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M571" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K572" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L572" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M572" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K573" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L573" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="M573" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K574" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L574" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M574" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="K575" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L575" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M575" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="K576" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L576" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M576" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="K577" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L577" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M577" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41964,25 +41964,25 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>4600</v>
+        <v>3000</v>
       </c>
       <c r="K578" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L578" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M578" t="n">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>609</v>
+        <v>500</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42036,25 +42036,25 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>5900</v>
+        <v>1900</v>
       </c>
       <c r="K579" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L579" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M579" t="n">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="K580" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L580" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M580" t="n">
-        <v>321</v>
+        <v>609</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>321</v>
+        <v>609</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>3800</v>
+        <v>5900</v>
       </c>
       <c r="K581" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L581" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M581" t="n">
-        <v>758</v>
+        <v>454</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>758</v>
+        <v>454</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="K582" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L582" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M582" t="n">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42324,25 +42324,25 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="K583" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L583" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M583" t="n">
-        <v>528</v>
+        <v>758</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>528</v>
+        <v>758</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>6400</v>
+        <v>4600</v>
       </c>
       <c r="K584" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L584" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M584" t="n">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K585" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L585" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M585" t="n">
-        <v>321</v>
+        <v>528</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>321</v>
+        <v>528</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="K586" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L586" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M586" t="n">
-        <v>685</v>
+        <v>420</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>685</v>
+        <v>420</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>6500</v>
+        <v>5600</v>
       </c>
       <c r="K587" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L587" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M587" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>800</v>
+        <v>5200</v>
       </c>
       <c r="K588" t="n">
         <v>650</v>
       </c>
       <c r="L588" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M588" t="n">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="K589" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L589" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M589" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="K590" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L590" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M590" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42900,25 +42900,25 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K591" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L591" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M591" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="K592" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L592" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M592" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K593" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L593" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M593" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K594" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L594" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="M594" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="K595" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L595" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M595" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="K596" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L596" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M596" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="K597" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L597" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M597" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="K598" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L598" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M598" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K599" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L599" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M599" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="K600" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="L600" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="M600" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="K601" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L601" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M601" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43651,7 +43651,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="K602" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="L602" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M602" t="n">
-        <v>599</v>
+        <v>900</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>599</v>
+        <v>900</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="K603" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L603" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M603" t="n">
-        <v>448</v>
+        <v>700</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>448</v>
+        <v>700</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="K604" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L604" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M604" t="n">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="K605" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L605" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M605" t="n">
-        <v>745</v>
+        <v>448</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>745</v>
+        <v>448</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="K606" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L606" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M606" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44052,25 +44052,25 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>3300</v>
+        <v>5600</v>
       </c>
       <c r="K607" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L607" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M607" t="n">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K608" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L608" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M608" t="n">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>555</v>
+        <v>214</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K609" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L609" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M609" t="n">
-        <v>837</v>
+        <v>705</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>837</v>
+        <v>705</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="K610" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L610" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M610" t="n">
-        <v>697</v>
+        <v>555</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>697</v>
+        <v>555</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="K611" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L611" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M611" t="n">
-        <v>542</v>
+        <v>837</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>542</v>
+        <v>837</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="K612" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L612" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M612" t="n">
-        <v>355</v>
+        <v>697</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>355</v>
+        <v>697</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="K613" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L613" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="M613" t="n">
-        <v>866</v>
+        <v>542</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>866</v>
+        <v>542</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="K614" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L614" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M614" t="n">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>3300</v>
+        <v>5200</v>
       </c>
       <c r="K615" t="n">
         <v>800</v>
       </c>
       <c r="L615" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M615" t="n">
-        <v>800</v>
+        <v>866</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>800</v>
+        <v>866</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K616" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L616" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M616" t="n">
-        <v>1000</v>
+        <v>224</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>1000</v>
+        <v>224</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44772,25 +44772,25 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="K617" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L617" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M617" t="n">
-        <v>555</v>
+        <v>800</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>555</v>
+        <v>800</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>6200</v>
+        <v>2600</v>
       </c>
       <c r="K618" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L618" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M618" t="n">
-        <v>428</v>
+        <v>1000</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>428</v>
+        <v>1000</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K619" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L619" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M619" t="n">
-        <v>709</v>
+        <v>555</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>709</v>
+        <v>555</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44988,25 +44988,25 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>3800</v>
+        <v>6200</v>
       </c>
       <c r="K620" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L620" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="M620" t="n">
-        <v>608</v>
+        <v>428</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>608</v>
+        <v>428</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45060,25 +45060,25 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K621" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L621" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M621" t="n">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>599</v>
+        <v>709</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>6700</v>
+        <v>3800</v>
       </c>
       <c r="K622" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L622" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M622" t="n">
-        <v>446</v>
+        <v>608</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>446</v>
+        <v>608</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>9500</v>
+        <v>5700</v>
       </c>
       <c r="K623" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L623" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M623" t="n">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>446</v>
+        <v>599</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>4300</v>
+        <v>6700</v>
       </c>
       <c r="K624" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L624" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M624" t="n">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>5300</v>
+        <v>9500</v>
       </c>
       <c r="K625" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L625" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M625" t="n">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>6900</v>
+        <v>4300</v>
       </c>
       <c r="K626" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L626" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M626" t="n">
-        <v>752</v>
+        <v>330</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45451,7 +45451,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>752</v>
+        <v>330</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>5800</v>
+        <v>5300</v>
       </c>
       <c r="K627" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L627" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M627" t="n">
-        <v>225</v>
+        <v>745</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>225</v>
+        <v>745</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,25 +45564,25 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>4200</v>
+        <v>6900</v>
       </c>
       <c r="K628" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L628" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M628" t="n">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,25 +45636,25 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="K629" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L629" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M629" t="n">
-        <v>547</v>
+        <v>225</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>547</v>
+        <v>225</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="K630" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L630" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M630" t="n">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="K631" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L631" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M631" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45852,25 +45852,25 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="K632" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L632" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M632" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45879,11 +45879,11 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="K633" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L633" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M633" t="n">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="K634" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L634" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M634" t="n">
-        <v>370</v>
+        <v>698</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>370</v>
+        <v>698</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="K635" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L635" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M635" t="n">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K636" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L636" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M636" t="n">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46212,25 +46212,25 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="K637" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L637" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M637" t="n">
-        <v>602</v>
+        <v>851</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>602</v>
+        <v>851</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46284,25 +46284,25 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>6100</v>
+        <v>4300</v>
       </c>
       <c r="K638" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L638" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M638" t="n">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>448</v>
+        <v>253</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="K639" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L639" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M639" t="n">
-        <v>753</v>
+        <v>602</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>753</v>
+        <v>602</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>5100</v>
+        <v>6100</v>
       </c>
       <c r="K640" t="n">
+        <v>400</v>
+      </c>
+      <c r="L640" t="n">
         <v>500</v>
       </c>
-      <c r="L640" t="n">
-        <v>600</v>
-      </c>
       <c r="M640" t="n">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46500,25 +46500,25 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>7000</v>
+        <v>3200</v>
       </c>
       <c r="K641" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L641" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M641" t="n">
-        <v>423</v>
+        <v>753</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46527,11 +46527,11 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>423</v>
+        <v>753</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="K642" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L642" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M642" t="n">
-        <v>328</v>
+        <v>547</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>328</v>
+        <v>547</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>3700</v>
+        <v>7000</v>
       </c>
       <c r="K643" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L643" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M643" t="n">
-        <v>693</v>
+        <v>423</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>693</v>
+        <v>423</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="K644" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L644" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M644" t="n">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,36 +46793,36 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>150</v>
+        <v>3700</v>
       </c>
       <c r="K645" t="n">
-        <v>20000</v>
+        <v>650</v>
       </c>
       <c r="L645" t="n">
-        <v>20000</v>
+        <v>750</v>
       </c>
       <c r="M645" t="n">
-        <v>20000</v>
+        <v>693</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1111</v>
+        <v>693</v>
       </c>
       <c r="Q645" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R645" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="K646" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L646" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M646" t="n">
-        <v>731</v>
+        <v>227</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>731</v>
+        <v>227</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,41 +46932,41 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>4500</v>
+        <v>150</v>
       </c>
       <c r="K647" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="L647" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="M647" t="n">
-        <v>560</v>
+        <v>20000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 18 unidades</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>560</v>
+        <v>1111</v>
       </c>
       <c r="Q647" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K648" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L648" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M648" t="n">
-        <v>331</v>
+        <v>731</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>331</v>
+        <v>731</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K649" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L649" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M649" t="n">
-        <v>858</v>
+        <v>560</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>858</v>
+        <v>560</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="K650" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L650" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M650" t="n">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47220,25 +47220,25 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="K651" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L651" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M651" t="n">
-        <v>755</v>
+        <v>858</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>755</v>
+        <v>858</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>7000</v>
+        <v>2900</v>
       </c>
       <c r="K652" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L652" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M652" t="n">
-        <v>563</v>
+        <v>233</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>563</v>
+        <v>233</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="K653" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L653" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M653" t="n">
-        <v>353</v>
+        <v>755</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>353</v>
+        <v>755</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>4100</v>
+        <v>7000</v>
       </c>
       <c r="K654" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L654" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M654" t="n">
-        <v>956</v>
+        <v>563</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>956</v>
+        <v>563</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>3500</v>
+        <v>5300</v>
       </c>
       <c r="K655" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L655" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M655" t="n">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,25 +47580,25 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="K656" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L656" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M656" t="n">
-        <v>705</v>
+        <v>956</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>705</v>
+        <v>956</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>10100</v>
+        <v>3500</v>
       </c>
       <c r="K657" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L657" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M657" t="n">
-        <v>521</v>
+        <v>227</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>521</v>
+        <v>227</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>7100</v>
+        <v>5100</v>
       </c>
       <c r="K658" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L658" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M658" t="n">
-        <v>341</v>
+        <v>705</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>341</v>
+        <v>705</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>6400</v>
+        <v>10100</v>
       </c>
       <c r="K659" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L659" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M659" t="n">
-        <v>852</v>
+        <v>521</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>852</v>
+        <v>521</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>6000</v>
+        <v>7100</v>
       </c>
       <c r="K660" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L660" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M660" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>4400</v>
+        <v>6400</v>
       </c>
       <c r="K661" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L661" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M661" t="n">
-        <v>655</v>
+        <v>852</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>655</v>
+        <v>852</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="K662" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L662" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M662" t="n">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>7400</v>
+        <v>4400</v>
       </c>
       <c r="K663" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L663" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M663" t="n">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>335</v>
+        <v>655</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>7700</v>
+        <v>13500</v>
       </c>
       <c r="K664" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L664" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="M664" t="n">
-        <v>851</v>
+        <v>497</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>851</v>
+        <v>497</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>6900</v>
+        <v>7400</v>
       </c>
       <c r="K665" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L665" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M665" t="n">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>1200</v>
+        <v>7700</v>
       </c>
       <c r="K666" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L666" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="M666" t="n">
-        <v>100</v>
+        <v>851</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>100</v>
+        <v>851</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>1500</v>
+        <v>6900</v>
       </c>
       <c r="K667" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L667" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M667" t="n">
-        <v>700</v>
+        <v>223</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>700</v>
+        <v>223</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="K668" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L668" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="M668" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K669" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L669" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M669" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K670" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L670" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M670" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K671" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="L671" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="M671" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="K672" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L672" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M672" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K673" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="L673" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="M673" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K674" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L674" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M674" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="K675" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L675" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M675" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49029,32 +49029,32 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>340</v>
+        <v>2500</v>
       </c>
       <c r="K676" t="n">
-        <v>27000</v>
+        <v>400</v>
       </c>
       <c r="L676" t="n">
-        <v>28000</v>
+        <v>400</v>
       </c>
       <c r="M676" t="n">
-        <v>27559</v>
+        <v>400</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>1148</v>
+        <v>400</v>
       </c>
       <c r="Q676" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,25 +49092,25 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>4900</v>
+        <v>2700</v>
       </c>
       <c r="K677" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L677" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M677" t="n">
-        <v>643</v>
+        <v>300</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>643</v>
+        <v>300</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>7100</v>
+        <v>340</v>
       </c>
       <c r="K678" t="n">
-        <v>500</v>
+        <v>27000</v>
       </c>
       <c r="L678" t="n">
-        <v>550</v>
+        <v>28000</v>
       </c>
       <c r="M678" t="n">
-        <v>523</v>
+        <v>27559</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>523</v>
+        <v>1148</v>
       </c>
       <c r="Q678" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>4200</v>
+        <v>4900</v>
       </c>
       <c r="K679" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L679" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M679" t="n">
-        <v>360</v>
+        <v>643</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>360</v>
+        <v>643</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>5700</v>
+        <v>7100</v>
       </c>
       <c r="K680" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L680" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="M680" t="n">
-        <v>792</v>
+        <v>523</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>792</v>
+        <v>523</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="K681" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L681" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M681" t="n">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>6300</v>
+        <v>5700</v>
       </c>
       <c r="K682" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L682" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="M682" t="n">
-        <v>593</v>
+        <v>792</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>593</v>
+        <v>792</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="K683" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L683" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M683" t="n">
-        <v>447</v>
+        <v>225</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>447</v>
+        <v>225</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>8000</v>
+        <v>6300</v>
       </c>
       <c r="K684" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L684" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M684" t="n">
-        <v>323</v>
+        <v>593</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>323</v>
+        <v>593</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>8400</v>
+        <v>9000</v>
       </c>
       <c r="K685" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L685" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M685" t="n">
-        <v>746</v>
+        <v>447</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>746</v>
+        <v>447</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49745,38 +49745,182 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J686" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K686" t="n">
+        <v>300</v>
+      </c>
+      <c r="L686" t="n">
+        <v>350</v>
+      </c>
+      <c r="M686" t="n">
+        <v>323</v>
+      </c>
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P686" t="n">
+        <v>323</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>1</v>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>6</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E687" t="n">
+        <v>13</v>
+      </c>
+      <c r="F687" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J687" t="n">
+        <v>8400</v>
+      </c>
+      <c r="K687" t="n">
+        <v>700</v>
+      </c>
+      <c r="L687" t="n">
+        <v>800</v>
+      </c>
+      <c r="M687" t="n">
+        <v>746</v>
+      </c>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P687" t="n">
+        <v>746</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>1</v>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>6</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J686" t="n">
+      <c r="J688" t="n">
         <v>7100</v>
       </c>
-      <c r="K686" t="n">
+      <c r="K688" t="n">
         <v>200</v>
       </c>
-      <c r="L686" t="n">
+      <c r="L688" t="n">
         <v>250</v>
       </c>
-      <c r="M686" t="n">
+      <c r="M688" t="n">
         <v>223</v>
       </c>
-      <c r="N686" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O686" t="inlineStr">
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O688" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P686" t="n">
+      <c r="P688" t="n">
         <v>223</v>
       </c>
-      <c r="Q686" t="n">
-        <v>1</v>
-      </c>
-      <c r="R686" t="inlineStr">
+      <c r="Q688" t="n">
+        <v>1</v>
+      </c>
+      <c r="R688" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R726"/>
+  <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="K572" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="L572" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M572" t="n">
-        <v>800</v>
+        <v>1274</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>800</v>
+        <v>1274</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41613,16 +41613,16 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="K573" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L573" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M573" t="n">
-        <v>600</v>
+        <v>1056</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>600</v>
+        <v>1056</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K574" t="n">
         <v>800</v>
       </c>
-      <c r="K574" t="n">
-        <v>400</v>
-      </c>
       <c r="L574" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M574" t="n">
-        <v>400</v>
+        <v>827</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>400</v>
+        <v>827</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41748,25 +41748,25 @@
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="K575" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="L575" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="M575" t="n">
-        <v>150</v>
+        <v>561</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>150</v>
+        <v>561</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>1900</v>
+        <v>6500</v>
       </c>
       <c r="K576" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="L576" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="M576" t="n">
-        <v>850</v>
+        <v>1254</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>850</v>
+        <v>1254</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>2800</v>
+        <v>9400</v>
       </c>
       <c r="K577" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L577" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M577" t="n">
-        <v>600</v>
+        <v>841</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>600</v>
+        <v>841</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41973,16 +41973,16 @@
         </is>
       </c>
       <c r="J578" t="n">
-        <v>2500</v>
+        <v>9900</v>
       </c>
       <c r="K578" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L578" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M578" t="n">
-        <v>450</v>
+        <v>546</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>450</v>
+        <v>546</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42045,16 +42045,16 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>2000</v>
+        <v>4900</v>
       </c>
       <c r="K579" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L579" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M579" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42117,16 +42117,16 @@
         </is>
       </c>
       <c r="J580" t="n">
-        <v>4300</v>
+        <v>1200</v>
       </c>
       <c r="K580" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L580" t="n">
         <v>800</v>
       </c>
       <c r="M580" t="n">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42189,16 +42189,16 @@
         </is>
       </c>
       <c r="J581" t="n">
-        <v>6600</v>
+        <v>1500</v>
       </c>
       <c r="K581" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L581" t="n">
         <v>600</v>
       </c>
       <c r="M581" t="n">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42261,7 +42261,7 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="K582" t="n">
         <v>400</v>
@@ -42279,7 +42279,7 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42324,25 +42324,25 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>4900</v>
+        <v>1200</v>
       </c>
       <c r="K583" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="L583" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="M583" t="n">
-        <v>953</v>
+        <v>150</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>953</v>
+        <v>150</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42396,25 +42396,25 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="K584" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L584" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="M584" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="K585" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L585" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M585" t="n">
-        <v>771</v>
+        <v>600</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>771</v>
+        <v>600</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>12200</v>
+        <v>2500</v>
       </c>
       <c r="K586" t="n">
         <v>450</v>
       </c>
       <c r="L586" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="M586" t="n">
-        <v>535</v>
+        <v>450</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>535</v>
+        <v>450</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>7900</v>
+        <v>2000</v>
       </c>
       <c r="K587" t="n">
         <v>300</v>
       </c>
       <c r="L587" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M587" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42684,25 +42684,25 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>6000</v>
+        <v>4300</v>
       </c>
       <c r="K588" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L588" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="M588" t="n">
-        <v>1047</v>
+        <v>758</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>1047</v>
+        <v>758</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42756,25 +42756,25 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>6100</v>
+        <v>6600</v>
       </c>
       <c r="K589" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L589" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M589" t="n">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42828,41 +42828,41 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>330</v>
+        <v>2500</v>
       </c>
       <c r="K590" t="n">
-        <v>12000</v>
+        <v>400</v>
       </c>
       <c r="L590" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="M590" t="n">
-        <v>12455</v>
+        <v>400</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>1038</v>
+        <v>400</v>
       </c>
       <c r="Q590" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R590" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42900,41 +42900,41 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>470</v>
+        <v>4900</v>
       </c>
       <c r="K591" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="L591" t="n">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="M591" t="n">
-        <v>12596</v>
+        <v>953</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>787</v>
+        <v>953</v>
       </c>
       <c r="Q591" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R591" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42972,25 +42972,25 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="K592" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="L592" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="M592" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,36 +43049,36 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>410</v>
+        <v>7800</v>
       </c>
       <c r="K593" t="n">
-        <v>11000</v>
+        <v>750</v>
       </c>
       <c r="L593" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="M593" t="n">
-        <v>11537</v>
+        <v>771</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>481</v>
+        <v>771</v>
       </c>
       <c r="Q593" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R593" t="inlineStr">
         <is>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>2900</v>
+        <v>12200</v>
       </c>
       <c r="K594" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L594" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M594" t="n">
-        <v>900</v>
+        <v>535</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>900</v>
+        <v>535</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>3500</v>
+        <v>7900</v>
       </c>
       <c r="K595" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L595" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M595" t="n">
-        <v>650</v>
+        <v>342</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>650</v>
+        <v>342</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43260,25 +43260,25 @@
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="K596" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L596" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M596" t="n">
-        <v>555</v>
+        <v>1047</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>555</v>
+        <v>1047</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43332,25 +43332,25 @@
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="K597" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L597" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M597" t="n">
-        <v>428</v>
+        <v>224</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>428</v>
+        <v>224</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43404,41 +43404,41 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>4600</v>
+        <v>330</v>
       </c>
       <c r="K598" t="n">
-        <v>650</v>
+        <v>12000</v>
       </c>
       <c r="L598" t="n">
-        <v>750</v>
+        <v>13000</v>
       </c>
       <c r="M598" t="n">
-        <v>709</v>
+        <v>12455</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>709</v>
+        <v>1038</v>
       </c>
       <c r="Q598" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R598" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,36 +43481,36 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>3800</v>
+        <v>470</v>
       </c>
       <c r="K599" t="n">
-        <v>550</v>
+        <v>12000</v>
       </c>
       <c r="L599" t="n">
-        <v>650</v>
+        <v>13000</v>
       </c>
       <c r="M599" t="n">
-        <v>608</v>
+        <v>12596</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>608</v>
+        <v>787</v>
       </c>
       <c r="Q599" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R599" t="inlineStr">
         <is>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>5700</v>
+        <v>1300</v>
       </c>
       <c r="K600" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="L600" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="M600" t="n">
-        <v>599</v>
+        <v>1200</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>599</v>
+        <v>1200</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,36 +43625,36 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>6700</v>
+        <v>410</v>
       </c>
       <c r="K601" t="n">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="L601" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="M601" t="n">
-        <v>446</v>
+        <v>11537</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="Q601" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R601" t="inlineStr">
         <is>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>9500</v>
+        <v>2900</v>
       </c>
       <c r="K602" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L602" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M602" t="n">
-        <v>446</v>
+        <v>900</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>446</v>
+        <v>900</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="K603" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L603" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M603" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43795,7 +43795,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43836,25 +43836,25 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="K604" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L604" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M604" t="n">
-        <v>745</v>
+        <v>555</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>745</v>
+        <v>555</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43908,25 +43908,25 @@
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>6900</v>
+        <v>6200</v>
       </c>
       <c r="K605" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L605" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M605" t="n">
-        <v>752</v>
+        <v>428</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>752</v>
+        <v>428</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43980,25 +43980,25 @@
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>5800</v>
+        <v>4600</v>
       </c>
       <c r="K606" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L606" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M606" t="n">
-        <v>225</v>
+        <v>709</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44007,11 +44007,11 @@
       </c>
       <c r="O606" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P606" t="n">
-        <v>225</v>
+        <v>709</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44052,7 +44052,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -44061,16 +44061,16 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="K607" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L607" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M607" t="n">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44124,25 +44124,25 @@
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="K608" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L608" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M608" t="n">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44196,25 +44196,25 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>2200</v>
+        <v>6700</v>
       </c>
       <c r="K609" t="n">
         <v>400</v>
       </c>
       <c r="L609" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M609" t="n">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44268,25 +44268,25 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>2600</v>
+        <v>9500</v>
       </c>
       <c r="K610" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L610" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M610" t="n">
-        <v>800</v>
+        <v>446</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>800</v>
+        <v>446</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44340,25 +44340,25 @@
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="K611" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L611" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M611" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>3200</v>
+        <v>5300</v>
       </c>
       <c r="K612" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L612" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M612" t="n">
-        <v>650</v>
+        <v>745</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>650</v>
+        <v>745</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>3500</v>
+        <v>6900</v>
       </c>
       <c r="K613" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L613" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M613" t="n">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>600</v>
+        <v>752</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="K614" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L614" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M614" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>500</v>
+        <v>225</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44628,25 +44628,25 @@
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>4600</v>
+        <v>2900</v>
       </c>
       <c r="K615" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L615" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M615" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44700,25 +44700,25 @@
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="K616" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L616" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M616" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44772,7 +44772,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="K617" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L617" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M617" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44844,7 +44844,7 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K618" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L618" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M618" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="K619" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L619" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M619" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="K620" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L620" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="M620" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K621" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L621" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M621" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K622" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="L622" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M622" t="n">
-        <v>873</v>
+        <v>500</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>873</v>
+        <v>500</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,7 +45204,7 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="K623" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L623" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M623" t="n">
-        <v>727</v>
+        <v>450</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>727</v>
+        <v>450</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,7 +45276,7 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="K624" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L624" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M624" t="n">
-        <v>582</v>
+        <v>350</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>582</v>
+        <v>350</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45348,25 +45348,25 @@
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K625" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L625" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M625" t="n">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>6200</v>
+        <v>2900</v>
       </c>
       <c r="K626" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L626" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M626" t="n">
-        <v>222</v>
+        <v>750</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>222</v>
+        <v>750</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>6900</v>
+        <v>2400</v>
       </c>
       <c r="K627" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L627" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M627" t="n">
-        <v>870</v>
+        <v>700</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>870</v>
+        <v>700</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>6400</v>
+        <v>2900</v>
       </c>
       <c r="K628" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L628" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="M628" t="n">
-        <v>626</v>
+        <v>200</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>626</v>
+        <v>200</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>7200</v>
+        <v>2700</v>
       </c>
       <c r="K629" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L629" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M629" t="n">
-        <v>476</v>
+        <v>200</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>476</v>
+        <v>200</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45708,25 +45708,25 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>6300</v>
+        <v>2800</v>
       </c>
       <c r="K630" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="L630" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M630" t="n">
-        <v>378</v>
+        <v>873</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>378</v>
+        <v>873</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>4700</v>
+        <v>4100</v>
       </c>
       <c r="K631" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L631" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M631" t="n">
-        <v>453</v>
+        <v>727</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>453</v>
+        <v>727</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K632" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L632" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M632" t="n">
-        <v>328</v>
+        <v>582</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>328</v>
+        <v>582</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>4300</v>
+        <v>2800</v>
       </c>
       <c r="K633" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L633" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M633" t="n">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>4000</v>
+        <v>6200</v>
       </c>
       <c r="K634" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L634" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M634" t="n">
-        <v>648</v>
+        <v>222</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>648</v>
+        <v>222</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="K635" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="L635" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M635" t="n">
-        <v>442</v>
+        <v>870</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>442</v>
+        <v>870</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K636" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L636" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M636" t="n">
-        <v>326</v>
+        <v>626</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>326</v>
+        <v>626</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>4700</v>
+        <v>7200</v>
       </c>
       <c r="K637" t="n">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="L637" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M637" t="n">
-        <v>202</v>
+        <v>476</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>202</v>
+        <v>476</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46284,25 +46284,25 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>1950</v>
+        <v>6300</v>
       </c>
       <c r="K638" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L638" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M638" t="n">
-        <v>738</v>
+        <v>378</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>738</v>
+        <v>378</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46365,16 +46365,16 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>2530</v>
+        <v>4700</v>
       </c>
       <c r="K639" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L639" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M639" t="n">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46437,16 +46437,16 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>1120</v>
+        <v>4300</v>
       </c>
       <c r="K640" t="n">
+        <v>300</v>
+      </c>
+      <c r="L640" t="n">
         <v>350</v>
       </c>
-      <c r="L640" t="n">
-        <v>400</v>
-      </c>
       <c r="M640" t="n">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>1630</v>
+        <v>4300</v>
       </c>
       <c r="K641" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L641" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="M641" t="n">
-        <v>946</v>
+        <v>234</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>946</v>
+        <v>234</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>620</v>
+        <v>4000</v>
       </c>
       <c r="K642" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L642" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M642" t="n">
-        <v>281</v>
+        <v>648</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>281</v>
+        <v>648</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>560</v>
+        <v>6400</v>
       </c>
       <c r="K643" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L643" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M643" t="n">
-        <v>218</v>
+        <v>442</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>218</v>
+        <v>442</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>1280</v>
+        <v>6300</v>
       </c>
       <c r="K644" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L644" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M644" t="n">
-        <v>738</v>
+        <v>326</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>738</v>
+        <v>326</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>2450</v>
+        <v>4700</v>
       </c>
       <c r="K645" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="L645" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M645" t="n">
-        <v>570</v>
+        <v>202</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>570</v>
+        <v>202</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46860,25 +46860,25 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>1530</v>
+        <v>1950</v>
       </c>
       <c r="K646" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L646" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M646" t="n">
-        <v>458</v>
+        <v>738</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>458</v>
+        <v>738</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46932,25 +46932,25 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>1150</v>
+        <v>2530</v>
       </c>
       <c r="K647" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L647" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="M647" t="n">
-        <v>942</v>
+        <v>503</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>942</v>
+        <v>503</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>780</v>
+        <v>1120</v>
       </c>
       <c r="K648" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L648" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M648" t="n">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>5900</v>
+        <v>1630</v>
       </c>
       <c r="K649" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L649" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M649" t="n">
-        <v>849</v>
+        <v>946</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>849</v>
+        <v>946</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>7000</v>
+        <v>620</v>
       </c>
       <c r="K650" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L650" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M650" t="n">
-        <v>647</v>
+        <v>281</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>647</v>
+        <v>281</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,25 +47220,25 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>4900</v>
+        <v>560</v>
       </c>
       <c r="K651" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L651" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M651" t="n">
-        <v>455</v>
+        <v>218</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>455</v>
+        <v>218</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,25 +47292,25 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>5200</v>
+        <v>1280</v>
       </c>
       <c r="K652" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L652" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M652" t="n">
-        <v>1146</v>
+        <v>738</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>1146</v>
+        <v>738</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47364,25 +47364,25 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>3800</v>
+        <v>2450</v>
       </c>
       <c r="K653" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L653" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M653" t="n">
-        <v>311</v>
+        <v>570</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>311</v>
+        <v>570</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>7600</v>
+        <v>1530</v>
       </c>
       <c r="K654" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L654" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M654" t="n">
-        <v>854</v>
+        <v>458</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>854</v>
+        <v>458</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>14300</v>
+        <v>1150</v>
       </c>
       <c r="K655" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L655" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M655" t="n">
-        <v>568</v>
+        <v>942</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>568</v>
+        <v>942</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>10100</v>
+        <v>780</v>
       </c>
       <c r="K656" t="n">
         <v>300</v>
       </c>
       <c r="L656" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M656" t="n">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>8200</v>
+        <v>5900</v>
       </c>
       <c r="K657" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L657" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M657" t="n">
-        <v>1046</v>
+        <v>849</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47683,7 +47683,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>1046</v>
+        <v>849</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47724,25 +47724,25 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="K658" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L658" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="M658" t="n">
-        <v>228</v>
+        <v>647</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>228</v>
+        <v>647</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>1900</v>
+        <v>4900</v>
       </c>
       <c r="K659" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L659" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M659" t="n">
-        <v>650</v>
+        <v>455</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>650</v>
+        <v>455</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47873,20 +47873,20 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J660" t="n">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="K660" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="L660" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M660" t="n">
-        <v>500</v>
+        <v>1146</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>500</v>
+        <v>1146</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="K661" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L661" t="n">
         <v>350</v>
       </c>
       <c r="M661" t="n">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48012,25 +48012,25 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>1400</v>
+        <v>7600</v>
       </c>
       <c r="K662" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L662" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="M662" t="n">
-        <v>750</v>
+        <v>854</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>750</v>
+        <v>854</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>2200</v>
+        <v>14300</v>
       </c>
       <c r="K663" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L663" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="M663" t="n">
-        <v>200</v>
+        <v>568</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>200</v>
+        <v>568</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>2200</v>
+        <v>10100</v>
       </c>
       <c r="K664" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L664" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M664" t="n">
-        <v>650</v>
+        <v>349</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>650</v>
+        <v>349</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>2400</v>
+        <v>8200</v>
       </c>
       <c r="K665" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L665" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M665" t="n">
-        <v>600</v>
+        <v>1046</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>600</v>
+        <v>1046</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="K666" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L666" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M666" t="n">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>500</v>
+        <v>228</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="K667" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L667" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M667" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K668" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L668" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M668" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48516,25 +48516,25 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K669" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L669" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M669" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K670" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L670" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="M670" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,16 +48669,16 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="K671" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L671" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M671" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,7 +48732,7 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -48741,16 +48741,16 @@
         </is>
       </c>
       <c r="J672" t="n">
-        <v>5100</v>
+        <v>2200</v>
       </c>
       <c r="K672" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="L672" t="n">
         <v>650</v>
       </c>
       <c r="M672" t="n">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,25 +48804,25 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>6100</v>
+        <v>2400</v>
       </c>
       <c r="K673" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L673" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M673" t="n">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K674" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L674" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M674" t="n">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="K675" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L675" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M675" t="n">
-        <v>647</v>
+        <v>450</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>647</v>
+        <v>450</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="K676" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L676" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M676" t="n">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>6100</v>
+        <v>1700</v>
       </c>
       <c r="K677" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L677" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M677" t="n">
-        <v>356</v>
+        <v>800</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>356</v>
+        <v>800</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>5400</v>
+        <v>1800</v>
       </c>
       <c r="K678" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L678" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M678" t="n">
-        <v>843</v>
+        <v>700</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>843</v>
+        <v>700</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>5700</v>
+        <v>2900</v>
       </c>
       <c r="K679" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L679" t="n">
         <v>250</v>
       </c>
       <c r="M679" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>1300</v>
+        <v>5100</v>
       </c>
       <c r="K680" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L680" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M680" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>1600</v>
+        <v>6100</v>
       </c>
       <c r="K681" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L681" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M681" t="n">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49457,20 +49457,20 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="K682" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L682" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M682" t="n">
-        <v>450</v>
+        <v>759</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>450</v>
+        <v>759</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K683" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L683" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M683" t="n">
-        <v>800</v>
+        <v>647</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>800</v>
+        <v>647</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="K684" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L684" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M684" t="n">
-        <v>600</v>
+        <v>492</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>600</v>
+        <v>492</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>2700</v>
+        <v>6100</v>
       </c>
       <c r="K685" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L685" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M685" t="n">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="K686" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L686" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M686" t="n">
-        <v>300</v>
+        <v>843</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>300</v>
+        <v>843</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,25 +49812,25 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="K687" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="L687" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M687" t="n">
-        <v>597</v>
+        <v>225</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>597</v>
+        <v>225</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>7200</v>
+        <v>1300</v>
       </c>
       <c r="K688" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L688" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M688" t="n">
-        <v>447</v>
+        <v>800</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>447</v>
+        <v>800</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>4300</v>
+        <v>1600</v>
       </c>
       <c r="K689" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L689" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M689" t="n">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="K690" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L690" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M690" t="n">
-        <v>797</v>
+        <v>450</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>797</v>
+        <v>450</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>3700</v>
+        <v>1500</v>
       </c>
       <c r="K691" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L691" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M691" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="K692" t="n">
         <v>600</v>
       </c>
       <c r="L692" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M692" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50199,11 +50199,11 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>7900</v>
+        <v>2700</v>
       </c>
       <c r="K693" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L693" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M693" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>6000</v>
+        <v>1900</v>
       </c>
       <c r="K694" t="n">
         <v>300</v>
       </c>
       <c r="L694" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M694" t="n">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="K695" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L695" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="M695" t="n">
-        <v>855</v>
+        <v>597</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>855</v>
+        <v>597</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="K696" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L696" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M696" t="n">
-        <v>222</v>
+        <v>447</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>222</v>
+        <v>447</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,25 +50532,25 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>12100</v>
+        <v>4300</v>
       </c>
       <c r="K697" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L697" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M697" t="n">
-        <v>823</v>
+        <v>322</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>823</v>
+        <v>322</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>11600</v>
+        <v>5500</v>
       </c>
       <c r="K698" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L698" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M698" t="n">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,16 +50685,16 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>8000</v>
+        <v>3700</v>
       </c>
       <c r="K699" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L699" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M699" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,7 +50748,7 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -50757,16 +50757,16 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>2200</v>
+        <v>4800</v>
       </c>
       <c r="K700" t="n">
         <v>600</v>
       </c>
       <c r="L700" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M700" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,7 +50820,7 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -50829,16 +50829,16 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>3100</v>
+        <v>7900</v>
       </c>
       <c r="K701" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L701" t="n">
         <v>500</v>
       </c>
       <c r="M701" t="n">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,25 +50892,25 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K702" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L702" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M702" t="n">
-        <v>750</v>
+        <v>326</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>750</v>
+        <v>326</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="K703" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L703" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M703" t="n">
-        <v>559</v>
+        <v>855</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>559</v>
+        <v>855</v>
       </c>
       <c r="Q703" t="n">
         <v>1</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,20 +51041,20 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="K704" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L704" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M704" t="n">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>3500</v>
+        <v>12100</v>
       </c>
       <c r="K705" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L705" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="M705" t="n">
-        <v>300</v>
+        <v>823</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>300</v>
+        <v>823</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>3700</v>
+        <v>11600</v>
       </c>
       <c r="K706" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L706" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M706" t="n">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="K707" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L707" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="M707" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>5100</v>
+        <v>2200</v>
       </c>
       <c r="K708" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L708" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M708" t="n">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51405,16 +51405,16 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>10100</v>
+        <v>3100</v>
       </c>
       <c r="K709" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L709" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M709" t="n">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="Q709" t="n">
         <v>1</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,20 +51473,20 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>7100</v>
+        <v>1500</v>
       </c>
       <c r="K710" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L710" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M710" t="n">
-        <v>341</v>
+        <v>750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>341</v>
+        <v>750</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>6400</v>
+        <v>4600</v>
       </c>
       <c r="K711" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L711" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M711" t="n">
-        <v>852</v>
+        <v>559</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>852</v>
+        <v>559</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K712" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L712" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M712" t="n">
-        <v>220</v>
+        <v>429</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>220</v>
+        <v>429</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="K713" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L713" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M713" t="n">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>13500</v>
+        <v>3700</v>
       </c>
       <c r="K714" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L714" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M714" t="n">
-        <v>497</v>
+        <v>709</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>497</v>
+        <v>709</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>7400</v>
+        <v>3800</v>
       </c>
       <c r="K715" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L715" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M715" t="n">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51900,25 +51900,25 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>7700</v>
+        <v>5100</v>
       </c>
       <c r="K716" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L716" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="M716" t="n">
-        <v>851</v>
+        <v>705</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>851</v>
+        <v>705</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>6900</v>
+        <v>10100</v>
       </c>
       <c r="K717" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L717" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M717" t="n">
-        <v>223</v>
+        <v>521</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>223</v>
+        <v>521</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>270</v>
+        <v>7100</v>
       </c>
       <c r="K718" t="n">
-        <v>21000</v>
+        <v>300</v>
       </c>
       <c r="L718" t="n">
-        <v>22000</v>
+        <v>400</v>
       </c>
       <c r="M718" t="n">
-        <v>21407</v>
+        <v>341</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>1338</v>
+        <v>341</v>
       </c>
       <c r="Q718" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52116,41 +52116,41 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>290</v>
+        <v>6400</v>
       </c>
       <c r="K719" t="n">
-        <v>19000</v>
+        <v>800</v>
       </c>
       <c r="L719" t="n">
-        <v>20000</v>
+        <v>900</v>
       </c>
       <c r="M719" t="n">
-        <v>19586</v>
+        <v>852</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="Q719" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="K720" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L720" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M720" t="n">
-        <v>650</v>
+        <v>220</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>650</v>
+        <v>220</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>1500</v>
+        <v>4400</v>
       </c>
       <c r="K721" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L721" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M721" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>500</v>
+        <v>655</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>1900</v>
+        <v>13500</v>
       </c>
       <c r="K722" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L722" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M722" t="n">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>350</v>
+        <v>497</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>1900</v>
+        <v>7400</v>
       </c>
       <c r="K723" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L723" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M723" t="n">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>3500</v>
+        <v>7700</v>
       </c>
       <c r="K724" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L724" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="M724" t="n">
-        <v>450</v>
+        <v>851</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>450</v>
+        <v>851</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>2800</v>
+        <v>6900</v>
       </c>
       <c r="K725" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L725" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M725" t="n">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="Q725" t="n">
         <v>1</v>
@@ -52605,58 +52605,634 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E726" t="n">
+        <v>13</v>
+      </c>
+      <c r="F726" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
+        <v>270</v>
+      </c>
+      <c r="K726" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L726" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M726" t="n">
+        <v>21407</v>
+      </c>
+      <c r="N726" t="inlineStr">
+        <is>
+          <t>$/caja 16 unidades</t>
+        </is>
+      </c>
+      <c r="O726" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P726" t="n">
+        <v>1338</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>16</v>
+      </c>
+      <c r="R726" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>6</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D727" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E727" t="n">
+        <v>13</v>
+      </c>
+      <c r="F727" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J727" t="n">
+        <v>290</v>
+      </c>
+      <c r="K727" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L727" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M727" t="n">
+        <v>19586</v>
+      </c>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O727" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P727" t="n">
+        <v>816</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>24</v>
+      </c>
+      <c r="R727" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>6</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D728" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E726" t="n">
-        <v>13</v>
-      </c>
-      <c r="F726" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H726" t="inlineStr">
+      <c r="E728" t="n">
+        <v>13</v>
+      </c>
+      <c r="F728" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J728" t="n">
+        <v>800</v>
+      </c>
+      <c r="K728" t="n">
+        <v>650</v>
+      </c>
+      <c r="L728" t="n">
+        <v>650</v>
+      </c>
+      <c r="M728" t="n">
+        <v>650</v>
+      </c>
+      <c r="N728" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O728" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P728" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>1</v>
+      </c>
+      <c r="R728" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>6</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D729" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E729" t="n">
+        <v>13</v>
+      </c>
+      <c r="F729" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J729" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K729" t="n">
+        <v>500</v>
+      </c>
+      <c r="L729" t="n">
+        <v>500</v>
+      </c>
+      <c r="M729" t="n">
+        <v>500</v>
+      </c>
+      <c r="N729" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O729" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P729" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>1</v>
+      </c>
+      <c r="R729" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>6</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D730" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E730" t="n">
+        <v>13</v>
+      </c>
+      <c r="F730" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J730" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K730" t="n">
+        <v>350</v>
+      </c>
+      <c r="L730" t="n">
+        <v>350</v>
+      </c>
+      <c r="M730" t="n">
+        <v>350</v>
+      </c>
+      <c r="N730" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O730" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P730" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>1</v>
+      </c>
+      <c r="R730" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>6</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D731" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E731" t="n">
+        <v>13</v>
+      </c>
+      <c r="F731" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I726" t="inlineStr">
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J731" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K731" t="n">
+        <v>100</v>
+      </c>
+      <c r="L731" t="n">
+        <v>100</v>
+      </c>
+      <c r="M731" t="n">
+        <v>100</v>
+      </c>
+      <c r="N731" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P731" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>1</v>
+      </c>
+      <c r="R731" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>6</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D732" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E732" t="n">
+        <v>13</v>
+      </c>
+      <c r="F732" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J732" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K732" t="n">
+        <v>450</v>
+      </c>
+      <c r="L732" t="n">
+        <v>450</v>
+      </c>
+      <c r="M732" t="n">
+        <v>450</v>
+      </c>
+      <c r="N732" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O732" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P732" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>1</v>
+      </c>
+      <c r="R732" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>6</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D733" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E733" t="n">
+        <v>13</v>
+      </c>
+      <c r="F733" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J733" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K733" t="n">
+        <v>300</v>
+      </c>
+      <c r="L733" t="n">
+        <v>300</v>
+      </c>
+      <c r="M733" t="n">
+        <v>300</v>
+      </c>
+      <c r="N733" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O733" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P733" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>1</v>
+      </c>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>6</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D734" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E734" t="n">
+        <v>13</v>
+      </c>
+      <c r="F734" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J726" t="n">
+      <c r="J734" t="n">
         <v>2500</v>
       </c>
-      <c r="K726" t="n">
+      <c r="K734" t="n">
         <v>200</v>
       </c>
-      <c r="L726" t="n">
+      <c r="L734" t="n">
         <v>200</v>
       </c>
-      <c r="M726" t="n">
+      <c r="M734" t="n">
         <v>200</v>
       </c>
-      <c r="N726" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O726" t="inlineStr">
+      <c r="N734" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O734" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P726" t="n">
+      <c r="P734" t="n">
         <v>200</v>
       </c>
-      <c r="Q726" t="n">
-        <v>1</v>
-      </c>
-      <c r="R726" t="inlineStr">
+      <c r="Q734" t="n">
+        <v>1</v>
+      </c>
+      <c r="R734" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R776"/>
+  <dimension ref="A1:R788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="K614" t="n">
-        <v>1250</v>
+        <v>150</v>
       </c>
       <c r="L614" t="n">
-        <v>1300</v>
+        <v>150</v>
       </c>
       <c r="M614" t="n">
-        <v>1274</v>
+        <v>150</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>1274</v>
+        <v>150</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="K615" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="L615" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="M615" t="n">
-        <v>1056</v>
+        <v>811</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>1056</v>
+        <v>811</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>5300</v>
+        <v>10700</v>
       </c>
       <c r="K616" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L616" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M616" t="n">
-        <v>827</v>
+        <v>695</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>827</v>
+        <v>695</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>3300</v>
+        <v>8600</v>
       </c>
       <c r="K617" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L617" t="n">
         <v>600</v>
       </c>
       <c r="M617" t="n">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44844,25 +44844,25 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>6500</v>
+        <v>5300</v>
       </c>
       <c r="K618" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L618" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="M618" t="n">
-        <v>1254</v>
+        <v>1043</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44875,7 +44875,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>1254</v>
+        <v>1043</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44916,25 +44916,25 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>9400</v>
+        <v>4700</v>
       </c>
       <c r="K619" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L619" t="n">
-        <v>900</v>
+        <v>330</v>
       </c>
       <c r="M619" t="n">
-        <v>841</v>
+        <v>313</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>841</v>
+        <v>313</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>9900</v>
+        <v>7700</v>
       </c>
       <c r="K620" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L620" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="M620" t="n">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>4900</v>
+        <v>8100</v>
       </c>
       <c r="K621" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L621" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M621" t="n">
-        <v>350</v>
+        <v>841</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>350</v>
+        <v>841</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45132,25 +45132,25 @@
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>1200</v>
+        <v>14600</v>
       </c>
       <c r="K622" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L622" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M622" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>800</v>
+        <v>670</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45204,25 +45204,25 @@
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>1500</v>
+        <v>14600</v>
       </c>
       <c r="K623" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L623" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="M623" t="n">
-        <v>600</v>
+        <v>503</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>600</v>
+        <v>503</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45276,25 +45276,25 @@
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>800</v>
+        <v>6800</v>
       </c>
       <c r="K624" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L624" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="M624" t="n">
-        <v>400</v>
+        <v>1038</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>400</v>
+        <v>1038</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="K625" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="L625" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M625" t="n">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -45429,16 +45429,16 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>1900</v>
+        <v>5100</v>
       </c>
       <c r="K626" t="n">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="L626" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="M626" t="n">
-        <v>850</v>
+        <v>1274</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>850</v>
+        <v>1274</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45492,7 +45492,7 @@
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="K627" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L627" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M627" t="n">
-        <v>600</v>
+        <v>1056</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45519,11 +45519,11 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>600</v>
+        <v>1056</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="K628" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L628" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M628" t="n">
-        <v>450</v>
+        <v>827</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>450</v>
+        <v>827</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45636,7 +45636,7 @@
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -45645,16 +45645,16 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K629" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L629" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M629" t="n">
-        <v>300</v>
+        <v>561</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>300</v>
+        <v>561</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45708,7 +45708,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -45717,16 +45717,16 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="K630" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L630" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M630" t="n">
-        <v>758</v>
+        <v>1254</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>758</v>
+        <v>1254</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -45789,16 +45789,16 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>6600</v>
+        <v>9400</v>
       </c>
       <c r="K631" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L631" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M631" t="n">
-        <v>547</v>
+        <v>841</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45811,7 +45811,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>547</v>
+        <v>841</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>2500</v>
+        <v>9900</v>
       </c>
       <c r="K632" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L632" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M632" t="n">
-        <v>400</v>
+        <v>546</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>400</v>
+        <v>546</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45924,25 +45924,25 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J633" t="n">
         <v>4900</v>
       </c>
       <c r="K633" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L633" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M633" t="n">
-        <v>953</v>
+        <v>350</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>953</v>
+        <v>350</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="K634" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="L634" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M634" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,25 +46068,25 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>7800</v>
+        <v>1500</v>
       </c>
       <c r="K635" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L635" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M635" t="n">
-        <v>771</v>
+        <v>600</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>771</v>
+        <v>600</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46140,25 +46140,25 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>12200</v>
+        <v>800</v>
       </c>
       <c r="K636" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L636" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M636" t="n">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46167,11 +46167,11 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>535</v>
+        <v>400</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>7900</v>
+        <v>1200</v>
       </c>
       <c r="K637" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L637" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="M637" t="n">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>6000</v>
+        <v>1900</v>
       </c>
       <c r="K638" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L638" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="M638" t="n">
-        <v>1047</v>
+        <v>850</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>1047</v>
+        <v>850</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>6100</v>
+        <v>2800</v>
       </c>
       <c r="K639" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L639" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M639" t="n">
-        <v>224</v>
+        <v>600</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46383,11 +46383,11 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>224</v>
+        <v>600</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44529</v>
+        <v>44278</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,36 +46433,36 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>330</v>
+        <v>2500</v>
       </c>
       <c r="K640" t="n">
-        <v>12000</v>
+        <v>450</v>
       </c>
       <c r="L640" t="n">
-        <v>13000</v>
+        <v>450</v>
       </c>
       <c r="M640" t="n">
-        <v>12455</v>
+        <v>450</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>1038</v>
+        <v>450</v>
       </c>
       <c r="Q640" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R640" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44529</v>
+        <v>44278</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46505,36 +46505,36 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>470</v>
+        <v>2000</v>
       </c>
       <c r="K641" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="L641" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M641" t="n">
-        <v>12596</v>
+        <v>300</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>787</v>
+        <v>300</v>
       </c>
       <c r="Q641" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46572,25 +46572,25 @@
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>1300</v>
+        <v>4300</v>
       </c>
       <c r="K642" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L642" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M642" t="n">
-        <v>1200</v>
+        <v>758</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>1200</v>
+        <v>758</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46644,41 +46644,41 @@
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>410</v>
+        <v>6600</v>
       </c>
       <c r="K643" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="L643" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="M643" t="n">
-        <v>11537</v>
+        <v>547</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="Q643" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R643" t="inlineStr">
         <is>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46716,7 +46716,7 @@
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="K644" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L644" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M644" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46788,25 +46788,25 @@
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>3500</v>
+        <v>4900</v>
       </c>
       <c r="K645" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L645" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M645" t="n">
-        <v>650</v>
+        <v>953</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>650</v>
+        <v>953</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>4400</v>
+        <v>2900</v>
       </c>
       <c r="K646" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L646" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M646" t="n">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>555</v>
+        <v>300</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,25 +46932,25 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>6200</v>
+        <v>7800</v>
       </c>
       <c r="K647" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L647" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M647" t="n">
-        <v>428</v>
+        <v>771</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46959,11 +46959,11 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>428</v>
+        <v>771</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47004,25 +47004,25 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>4600</v>
+        <v>12200</v>
       </c>
       <c r="K648" t="n">
+        <v>450</v>
+      </c>
+      <c r="L648" t="n">
         <v>650</v>
       </c>
-      <c r="L648" t="n">
-        <v>750</v>
-      </c>
       <c r="M648" t="n">
-        <v>709</v>
+        <v>535</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>709</v>
+        <v>535</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>3800</v>
+        <v>7900</v>
       </c>
       <c r="K649" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L649" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M649" t="n">
-        <v>608</v>
+        <v>342</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>608</v>
+        <v>342</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="K650" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L650" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="M650" t="n">
-        <v>599</v>
+        <v>1047</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>599</v>
+        <v>1047</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="K651" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L651" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M651" t="n">
-        <v>446</v>
+        <v>224</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>446</v>
+        <v>224</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47297,36 +47297,36 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>9500</v>
+        <v>330</v>
       </c>
       <c r="K652" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="L652" t="n">
-        <v>500</v>
+        <v>13000</v>
       </c>
       <c r="M652" t="n">
-        <v>446</v>
+        <v>12455</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>446</v>
+        <v>1038</v>
       </c>
       <c r="Q652" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47369,36 +47369,36 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>4300</v>
+        <v>470</v>
       </c>
       <c r="K653" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L653" t="n">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="M653" t="n">
-        <v>330</v>
+        <v>12596</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>330</v>
+        <v>787</v>
       </c>
       <c r="Q653" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R653" t="inlineStr">
         <is>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>5300</v>
+        <v>1300</v>
       </c>
       <c r="K654" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L654" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M654" t="n">
-        <v>745</v>
+        <v>1200</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>745</v>
+        <v>1200</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,36 +47513,36 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>6900</v>
+        <v>410</v>
       </c>
       <c r="K655" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="L655" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="M655" t="n">
-        <v>752</v>
+        <v>11537</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>752</v>
+        <v>481</v>
       </c>
       <c r="Q655" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R655" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>5800</v>
+        <v>2900</v>
       </c>
       <c r="K656" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L656" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M656" t="n">
-        <v>225</v>
+        <v>900</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>225</v>
+        <v>900</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="K657" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="L657" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M657" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="K658" t="n">
         <v>500</v>
       </c>
       <c r="L658" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M658" t="n">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>2200</v>
+        <v>6200</v>
       </c>
       <c r="K659" t="n">
         <v>400</v>
       </c>
       <c r="L659" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M659" t="n">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>2600</v>
+        <v>4600</v>
       </c>
       <c r="K660" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L660" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M660" t="n">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47940,25 +47940,25 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J661" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="K661" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L661" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="M661" t="n">
-        <v>250</v>
+        <v>608</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>250</v>
+        <v>608</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="K662" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L662" t="n">
         <v>650</v>
       </c>
       <c r="M662" t="n">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>3500</v>
+        <v>6700</v>
       </c>
       <c r="K663" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L663" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M663" t="n">
-        <v>600</v>
+        <v>446</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48111,11 +48111,11 @@
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>600</v>
+        <v>446</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>4200</v>
+        <v>9500</v>
       </c>
       <c r="K664" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L664" t="n">
         <v>500</v>
       </c>
       <c r="M664" t="n">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="K665" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L665" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M665" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>2400</v>
+        <v>5300</v>
       </c>
       <c r="K666" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L666" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M666" t="n">
-        <v>350</v>
+        <v>745</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>350</v>
+        <v>745</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>3200</v>
+        <v>6900</v>
       </c>
       <c r="K667" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L667" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M667" t="n">
-        <v>300</v>
+        <v>752</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>300</v>
+        <v>752</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>2900</v>
+        <v>5800</v>
       </c>
       <c r="K668" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L668" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M668" t="n">
-        <v>750</v>
+        <v>225</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>750</v>
+        <v>225</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48516,16 +48516,16 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="K669" t="n">
         <v>700</v>
@@ -48543,7 +48543,7 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P669" t="n">
@@ -48588,25 +48588,25 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="K670" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L670" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M670" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="K671" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L671" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M671" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K672" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L672" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M672" t="n">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>873</v>
+        <v>800</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>4100</v>
+        <v>1500</v>
       </c>
       <c r="K673" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L673" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M673" t="n">
-        <v>727</v>
+        <v>250</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>727</v>
+        <v>250</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="K674" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="L674" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M674" t="n">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="K675" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L675" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M675" t="n">
-        <v>377</v>
+        <v>600</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>377</v>
+        <v>600</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>6200</v>
+        <v>4200</v>
       </c>
       <c r="K676" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L676" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M676" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>6900</v>
+        <v>4600</v>
       </c>
       <c r="K677" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L677" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M677" t="n">
-        <v>870</v>
+        <v>450</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>870</v>
+        <v>450</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>6400</v>
+        <v>2400</v>
       </c>
       <c r="K678" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L678" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M678" t="n">
-        <v>626</v>
+        <v>350</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>626</v>
+        <v>350</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>7200</v>
+        <v>3200</v>
       </c>
       <c r="K679" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L679" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M679" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>6300</v>
+        <v>2900</v>
       </c>
       <c r="K680" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L680" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M680" t="n">
-        <v>378</v>
+        <v>750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>378</v>
+        <v>750</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,25 +49380,25 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>4700</v>
+        <v>2400</v>
       </c>
       <c r="K681" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L681" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M681" t="n">
-        <v>453</v>
+        <v>700</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>453</v>
+        <v>700</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="K682" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L682" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="M682" t="n">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,7 +49524,7 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
@@ -49533,16 +49533,16 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="K683" t="n">
         <v>200</v>
       </c>
       <c r="L683" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M683" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,7 +49596,7 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="K684" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L684" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M684" t="n">
-        <v>648</v>
+        <v>873</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>648</v>
+        <v>873</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>6400</v>
+        <v>4100</v>
       </c>
       <c r="K685" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L685" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M685" t="n">
-        <v>442</v>
+        <v>727</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>442</v>
+        <v>727</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49740,7 +49740,7 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>6300</v>
+        <v>4200</v>
       </c>
       <c r="K686" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L686" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M686" t="n">
-        <v>326</v>
+        <v>582</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>326</v>
+        <v>582</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49812,7 +49812,7 @@
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -49821,16 +49821,16 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>4700</v>
+        <v>2800</v>
       </c>
       <c r="K687" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="L687" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M687" t="n">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,25 +49884,25 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>1950</v>
+        <v>6200</v>
       </c>
       <c r="K688" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L688" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M688" t="n">
-        <v>738</v>
+        <v>222</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>738</v>
+        <v>222</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,25 +49956,25 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>2530</v>
+        <v>6900</v>
       </c>
       <c r="K689" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="L689" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="M689" t="n">
-        <v>503</v>
+        <v>870</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>503</v>
+        <v>870</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,25 +50028,25 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>1120</v>
+        <v>6400</v>
       </c>
       <c r="K690" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L690" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M690" t="n">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>1630</v>
+        <v>7200</v>
       </c>
       <c r="K691" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="L691" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M691" t="n">
-        <v>946</v>
+        <v>476</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>946</v>
+        <v>476</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,16 +50181,16 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>620</v>
+        <v>6300</v>
       </c>
       <c r="K692" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L692" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M692" t="n">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,25 +50244,25 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>560</v>
+        <v>4700</v>
       </c>
       <c r="K693" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L693" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M693" t="n">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,25 +50316,25 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>1280</v>
+        <v>4300</v>
       </c>
       <c r="K694" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L694" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M694" t="n">
-        <v>738</v>
+        <v>328</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>738</v>
+        <v>328</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>2450</v>
+        <v>4300</v>
       </c>
       <c r="K695" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L695" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M695" t="n">
-        <v>570</v>
+        <v>234</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>570</v>
+        <v>234</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>1530</v>
+        <v>4000</v>
       </c>
       <c r="K696" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L696" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M696" t="n">
-        <v>458</v>
+        <v>648</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>458</v>
+        <v>648</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>1150</v>
+        <v>6400</v>
       </c>
       <c r="K697" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L697" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="M697" t="n">
-        <v>942</v>
+        <v>442</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>942</v>
+        <v>442</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,11 +50609,11 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>780</v>
+        <v>6300</v>
       </c>
       <c r="K698" t="n">
         <v>300</v>
@@ -50622,7 +50622,7 @@
         <v>350</v>
       </c>
       <c r="M698" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,25 +50676,25 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>5900</v>
+        <v>4700</v>
       </c>
       <c r="K699" t="n">
-        <v>800</v>
+        <v>170</v>
       </c>
       <c r="L699" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M699" t="n">
-        <v>849</v>
+        <v>202</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50707,7 +50707,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>849</v>
+        <v>202</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>7000</v>
+        <v>1950</v>
       </c>
       <c r="K700" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L700" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M700" t="n">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>4900</v>
+        <v>2530</v>
       </c>
       <c r="K701" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L701" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M701" t="n">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>5200</v>
+        <v>1120</v>
       </c>
       <c r="K702" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="L702" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M702" t="n">
-        <v>1146</v>
+        <v>371</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>1146</v>
+        <v>371</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50969,20 +50969,20 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>3800</v>
+        <v>1630</v>
       </c>
       <c r="K703" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L703" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="M703" t="n">
-        <v>311</v>
+        <v>946</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>311</v>
+        <v>946</v>
       </c>
       <c r="Q703" t="n">
         <v>1</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>7600</v>
+        <v>620</v>
       </c>
       <c r="K704" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L704" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M704" t="n">
-        <v>854</v>
+        <v>281</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>854</v>
+        <v>281</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>14300</v>
+        <v>560</v>
       </c>
       <c r="K705" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L705" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M705" t="n">
-        <v>568</v>
+        <v>218</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>568</v>
+        <v>218</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>10100</v>
+        <v>1280</v>
       </c>
       <c r="K706" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L706" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M706" t="n">
-        <v>349</v>
+        <v>738</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>349</v>
+        <v>738</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>8200</v>
+        <v>2450</v>
       </c>
       <c r="K707" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L707" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M707" t="n">
-        <v>1046</v>
+        <v>570</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>1046</v>
+        <v>570</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>8000</v>
+        <v>1530</v>
       </c>
       <c r="K708" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L708" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M708" t="n">
-        <v>228</v>
+        <v>458</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>228</v>
+        <v>458</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51396,25 +51396,25 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>1900</v>
+        <v>1150</v>
       </c>
       <c r="K709" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="L709" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M709" t="n">
-        <v>650</v>
+        <v>942</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51423,11 +51423,11 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>650</v>
+        <v>942</v>
       </c>
       <c r="Q709" t="n">
         <v>1</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,25 +51468,25 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>3200</v>
+        <v>780</v>
       </c>
       <c r="K710" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L710" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M710" t="n">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>1600</v>
+        <v>5900</v>
       </c>
       <c r="K711" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L711" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M711" t="n">
-        <v>350</v>
+        <v>849</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>350</v>
+        <v>849</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>1400</v>
+        <v>7000</v>
       </c>
       <c r="K712" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L712" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M712" t="n">
-        <v>750</v>
+        <v>647</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>750</v>
+        <v>647</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="K713" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L713" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M713" t="n">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,25 +51756,25 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="K714" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="L714" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="M714" t="n">
-        <v>650</v>
+        <v>1146</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>650</v>
+        <v>1146</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="K715" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L715" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M715" t="n">
-        <v>600</v>
+        <v>311</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>600</v>
+        <v>311</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>3500</v>
+        <v>7600</v>
       </c>
       <c r="K716" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L716" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M716" t="n">
-        <v>500</v>
+        <v>854</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>500</v>
+        <v>854</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>3500</v>
+        <v>14300</v>
       </c>
       <c r="K717" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L717" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M717" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52053,16 +52053,16 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>2200</v>
+        <v>10100</v>
       </c>
       <c r="K718" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L718" t="n">
         <v>400</v>
       </c>
       <c r="M718" t="n">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52125,16 +52125,16 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>1700</v>
+        <v>8200</v>
       </c>
       <c r="K719" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L719" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M719" t="n">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="K720" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L720" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M720" t="n">
-        <v>700</v>
+        <v>228</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>700</v>
+        <v>228</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52260,25 +52260,25 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="K721" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L721" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="M721" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>5100</v>
+        <v>3200</v>
       </c>
       <c r="K722" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L722" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M722" t="n">
-        <v>626</v>
+        <v>500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>626</v>
+        <v>500</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>6100</v>
+        <v>1600</v>
       </c>
       <c r="K723" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L723" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M723" t="n">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>3700</v>
+        <v>1400</v>
       </c>
       <c r="K724" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L724" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M724" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52548,25 +52548,25 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="K725" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L725" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M725" t="n">
-        <v>647</v>
+        <v>200</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>647</v>
+        <v>200</v>
       </c>
       <c r="Q725" t="n">
         <v>1</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>8000</v>
+        <v>2200</v>
       </c>
       <c r="K726" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L726" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M726" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Q726" t="n">
         <v>1</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>6100</v>
+        <v>2400</v>
       </c>
       <c r="K727" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L727" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M727" t="n">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>356</v>
+        <v>600</v>
       </c>
       <c r="Q727" t="n">
         <v>1</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="K728" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L728" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M728" t="n">
-        <v>843</v>
+        <v>500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>843</v>
+        <v>500</v>
       </c>
       <c r="Q728" t="n">
         <v>1</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>5700</v>
+        <v>3500</v>
       </c>
       <c r="K729" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="L729" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="M729" t="n">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52867,7 +52867,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="Q729" t="n">
         <v>1</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K730" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L730" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M730" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q730" t="n">
         <v>1</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K731" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L731" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M731" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q731" t="n">
         <v>1</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53052,25 +53052,25 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K732" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L732" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M732" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q732" t="n">
         <v>1</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="K733" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="L733" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="M733" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="Q733" t="n">
         <v>1</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53196,25 +53196,25 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="K734" t="n">
         <v>600</v>
       </c>
       <c r="L734" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="M734" t="n">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="Q734" t="n">
         <v>1</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53268,25 +53268,25 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>2700</v>
+        <v>6100</v>
       </c>
       <c r="K735" t="n">
         <v>450</v>
       </c>
       <c r="L735" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M735" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="Q735" t="n">
         <v>1</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="K736" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L736" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M736" t="n">
-        <v>300</v>
+        <v>759</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>300</v>
+        <v>759</v>
       </c>
       <c r="Q736" t="n">
         <v>1</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>4700</v>
+        <v>6000</v>
       </c>
       <c r="K737" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L737" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M737" t="n">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>597</v>
+        <v>647</v>
       </c>
       <c r="Q737" t="n">
         <v>1</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53484,7 +53484,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="K738" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L738" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M738" t="n">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="Q738" t="n">
         <v>1</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53556,7 +53556,7 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>4300</v>
+        <v>6100</v>
       </c>
       <c r="K739" t="n">
         <v>300</v>
       </c>
       <c r="L739" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M739" t="n">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="Q739" t="n">
         <v>1</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K740" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L740" t="n">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="M740" t="n">
-        <v>797</v>
+        <v>843</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>797</v>
+        <v>843</v>
       </c>
       <c r="Q740" t="n">
         <v>1</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,7 +53709,7 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>3700</v>
+        <v>5700</v>
       </c>
       <c r="K741" t="n">
         <v>200</v>
@@ -53718,7 +53718,7 @@
         <v>250</v>
       </c>
       <c r="M741" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q741" t="n">
         <v>1</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>4800</v>
+        <v>1300</v>
       </c>
       <c r="K742" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L742" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M742" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q742" t="n">
         <v>1</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>7900</v>
+        <v>1600</v>
       </c>
       <c r="K743" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L743" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M743" t="n">
-        <v>447</v>
+        <v>600</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>447</v>
+        <v>600</v>
       </c>
       <c r="Q743" t="n">
         <v>1</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>6000</v>
+        <v>1900</v>
       </c>
       <c r="K744" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L744" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M744" t="n">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="Q744" t="n">
         <v>1</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="K745" t="n">
         <v>800</v>
       </c>
       <c r="L745" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M745" t="n">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="Q745" t="n">
         <v>1</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="K746" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L746" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M746" t="n">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>222</v>
+        <v>600</v>
       </c>
       <c r="Q746" t="n">
         <v>1</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>12100</v>
+        <v>2700</v>
       </c>
       <c r="K747" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L747" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M747" t="n">
-        <v>823</v>
+        <v>450</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>823</v>
+        <v>450</v>
       </c>
       <c r="Q747" t="n">
         <v>1</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>11600</v>
+        <v>1900</v>
       </c>
       <c r="K748" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L748" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M748" t="n">
-        <v>658</v>
+        <v>300</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>658</v>
+        <v>300</v>
       </c>
       <c r="Q748" t="n">
         <v>1</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,25 +54276,25 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>8000</v>
+        <v>4700</v>
       </c>
       <c r="K749" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L749" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M749" t="n">
-        <v>430</v>
+        <v>597</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>430</v>
+        <v>597</v>
       </c>
       <c r="Q749" t="n">
         <v>1</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>2200</v>
+        <v>7200</v>
       </c>
       <c r="K750" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L750" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M750" t="n">
-        <v>600</v>
+        <v>447</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>600</v>
+        <v>447</v>
       </c>
       <c r="Q750" t="n">
         <v>1</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>3100</v>
+        <v>4300</v>
       </c>
       <c r="K751" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L751" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M751" t="n">
-        <v>500</v>
+        <v>322</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>500</v>
+        <v>322</v>
       </c>
       <c r="Q751" t="n">
         <v>1</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="K752" t="n">
         <v>750</v>
       </c>
       <c r="L752" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="M752" t="n">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54519,11 +54519,11 @@
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>750</v>
+        <v>797</v>
       </c>
       <c r="Q752" t="n">
         <v>1</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="K753" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L753" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M753" t="n">
-        <v>559</v>
+        <v>230</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>559</v>
+        <v>230</v>
       </c>
       <c r="Q753" t="n">
         <v>1</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="K754" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L754" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M754" t="n">
-        <v>429</v>
+        <v>650</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>429</v>
+        <v>650</v>
       </c>
       <c r="Q754" t="n">
         <v>1</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>3500</v>
+        <v>7900</v>
       </c>
       <c r="K755" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L755" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q755" t="n">
         <v>1</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>3700</v>
+        <v>6000</v>
       </c>
       <c r="K756" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="L756" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M756" t="n">
-        <v>709</v>
+        <v>326</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>709</v>
+        <v>326</v>
       </c>
       <c r="Q756" t="n">
         <v>1</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="K757" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L757" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M757" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="Q757" t="n">
         <v>1</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44194</v>
+        <v>44195</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,25 +54924,25 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>5100</v>
+        <v>6300</v>
       </c>
       <c r="K758" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="L758" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="M758" t="n">
-        <v>705</v>
+        <v>222</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>705</v>
+        <v>222</v>
       </c>
       <c r="Q758" t="n">
         <v>1</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -54996,7 +54996,7 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -55005,16 +55005,16 @@
         </is>
       </c>
       <c r="J759" t="n">
-        <v>10100</v>
+        <v>12100</v>
       </c>
       <c r="K759" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L759" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M759" t="n">
-        <v>521</v>
+        <v>823</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>521</v>
+        <v>823</v>
       </c>
       <c r="Q759" t="n">
         <v>1</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55068,7 +55068,7 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -55077,16 +55077,16 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>7100</v>
+        <v>11600</v>
       </c>
       <c r="K760" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L760" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M760" t="n">
-        <v>341</v>
+        <v>658</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>341</v>
+        <v>658</v>
       </c>
       <c r="Q760" t="n">
         <v>1</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55140,25 +55140,25 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="K761" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L761" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M761" t="n">
-        <v>852</v>
+        <v>430</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>852</v>
+        <v>430</v>
       </c>
       <c r="Q761" t="n">
         <v>1</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>6000</v>
+        <v>2200</v>
       </c>
       <c r="K762" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L762" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M762" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="Q762" t="n">
         <v>1</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>4400</v>
+        <v>3100</v>
       </c>
       <c r="K763" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L763" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M763" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="Q763" t="n">
         <v>1</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55356,25 +55356,25 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>13500</v>
+        <v>1500</v>
       </c>
       <c r="K764" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L764" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M764" t="n">
-        <v>497</v>
+        <v>750</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>497</v>
+        <v>750</v>
       </c>
       <c r="Q764" t="n">
         <v>1</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>7400</v>
+        <v>4600</v>
       </c>
       <c r="K765" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L765" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M765" t="n">
-        <v>335</v>
+        <v>559</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>335</v>
+        <v>559</v>
       </c>
       <c r="Q765" t="n">
         <v>1</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>7700</v>
+        <v>5600</v>
       </c>
       <c r="K766" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L766" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M766" t="n">
-        <v>851</v>
+        <v>429</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>851</v>
+        <v>429</v>
       </c>
       <c r="Q766" t="n">
         <v>1</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>6900</v>
+        <v>3500</v>
       </c>
       <c r="K767" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L767" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M767" t="n">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="Q767" t="n">
         <v>1</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44518</v>
+        <v>44239</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,36 +55649,36 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>270</v>
+        <v>3700</v>
       </c>
       <c r="K768" t="n">
-        <v>21000</v>
+        <v>650</v>
       </c>
       <c r="L768" t="n">
-        <v>22000</v>
+        <v>750</v>
       </c>
       <c r="M768" t="n">
-        <v>21407</v>
+        <v>709</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>1338</v>
+        <v>709</v>
       </c>
       <c r="Q768" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44518</v>
+        <v>44239</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55725,32 +55725,32 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>290</v>
+        <v>3800</v>
       </c>
       <c r="K769" t="n">
-        <v>19000</v>
+        <v>200</v>
       </c>
       <c r="L769" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="M769" t="n">
-        <v>19586</v>
+        <v>200</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>816</v>
+        <v>200</v>
       </c>
       <c r="Q769" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>800</v>
+        <v>5100</v>
       </c>
       <c r="K770" t="n">
         <v>650</v>
       </c>
       <c r="L770" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M770" t="n">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="Q770" t="n">
         <v>1</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>1500</v>
+        <v>10100</v>
       </c>
       <c r="K771" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L771" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M771" t="n">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="Q771" t="n">
         <v>1</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>1900</v>
+        <v>7100</v>
       </c>
       <c r="K772" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L772" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M772" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q772" t="n">
         <v>1</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,25 +56004,25 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>1900</v>
+        <v>6400</v>
       </c>
       <c r="K773" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L773" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="M773" t="n">
-        <v>100</v>
+        <v>852</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>100</v>
+        <v>852</v>
       </c>
       <c r="Q773" t="n">
         <v>1</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="K774" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="L774" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M774" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="Q774" t="n">
         <v>1</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="K775" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L775" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M775" t="n">
-        <v>300</v>
+        <v>655</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>300</v>
+        <v>655</v>
       </c>
       <c r="Q775" t="n">
         <v>1</v>
@@ -56205,58 +56205,922 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E776" t="n">
+        <v>13</v>
+      </c>
+      <c r="F776" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J776" t="n">
+        <v>13500</v>
+      </c>
+      <c r="K776" t="n">
+        <v>450</v>
+      </c>
+      <c r="L776" t="n">
+        <v>550</v>
+      </c>
+      <c r="M776" t="n">
+        <v>497</v>
+      </c>
+      <c r="N776" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O776" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P776" t="n">
+        <v>497</v>
+      </c>
+      <c r="Q776" t="n">
+        <v>1</v>
+      </c>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>6</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D777" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E777" t="n">
+        <v>13</v>
+      </c>
+      <c r="F777" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J777" t="n">
+        <v>7400</v>
+      </c>
+      <c r="K777" t="n">
+        <v>300</v>
+      </c>
+      <c r="L777" t="n">
+        <v>400</v>
+      </c>
+      <c r="M777" t="n">
+        <v>335</v>
+      </c>
+      <c r="N777" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O777" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P777" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q777" t="n">
+        <v>1</v>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>6</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D778" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E778" t="n">
+        <v>13</v>
+      </c>
+      <c r="F778" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J778" t="n">
+        <v>7700</v>
+      </c>
+      <c r="K778" t="n">
+        <v>800</v>
+      </c>
+      <c r="L778" t="n">
+        <v>900</v>
+      </c>
+      <c r="M778" t="n">
+        <v>851</v>
+      </c>
+      <c r="N778" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O778" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P778" t="n">
+        <v>851</v>
+      </c>
+      <c r="Q778" t="n">
+        <v>1</v>
+      </c>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>6</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D779" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E779" t="n">
+        <v>13</v>
+      </c>
+      <c r="F779" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J779" t="n">
+        <v>6900</v>
+      </c>
+      <c r="K779" t="n">
+        <v>200</v>
+      </c>
+      <c r="L779" t="n">
+        <v>250</v>
+      </c>
+      <c r="M779" t="n">
+        <v>223</v>
+      </c>
+      <c r="N779" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O779" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P779" t="n">
+        <v>223</v>
+      </c>
+      <c r="Q779" t="n">
+        <v>1</v>
+      </c>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>6</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D780" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E780" t="n">
+        <v>13</v>
+      </c>
+      <c r="F780" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J780" t="n">
+        <v>270</v>
+      </c>
+      <c r="K780" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L780" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M780" t="n">
+        <v>21407</v>
+      </c>
+      <c r="N780" t="inlineStr">
+        <is>
+          <t>$/caja 16 unidades</t>
+        </is>
+      </c>
+      <c r="O780" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P780" t="n">
+        <v>1338</v>
+      </c>
+      <c r="Q780" t="n">
+        <v>16</v>
+      </c>
+      <c r="R780" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>6</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D781" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E781" t="n">
+        <v>13</v>
+      </c>
+      <c r="F781" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J781" t="n">
+        <v>290</v>
+      </c>
+      <c r="K781" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L781" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M781" t="n">
+        <v>19586</v>
+      </c>
+      <c r="N781" t="inlineStr">
+        <is>
+          <t>$/caja 24 unidades</t>
+        </is>
+      </c>
+      <c r="O781" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P781" t="n">
+        <v>816</v>
+      </c>
+      <c r="Q781" t="n">
+        <v>24</v>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>6</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E776" t="n">
-        <v>13</v>
-      </c>
-      <c r="F776" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H776" t="inlineStr">
+      <c r="E782" t="n">
+        <v>13</v>
+      </c>
+      <c r="F782" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J782" t="n">
+        <v>800</v>
+      </c>
+      <c r="K782" t="n">
+        <v>650</v>
+      </c>
+      <c r="L782" t="n">
+        <v>650</v>
+      </c>
+      <c r="M782" t="n">
+        <v>650</v>
+      </c>
+      <c r="N782" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O782" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P782" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q782" t="n">
+        <v>1</v>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>6</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E783" t="n">
+        <v>13</v>
+      </c>
+      <c r="F783" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J783" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K783" t="n">
+        <v>500</v>
+      </c>
+      <c r="L783" t="n">
+        <v>500</v>
+      </c>
+      <c r="M783" t="n">
+        <v>500</v>
+      </c>
+      <c r="N783" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O783" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P783" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q783" t="n">
+        <v>1</v>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>6</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E784" t="n">
+        <v>13</v>
+      </c>
+      <c r="F784" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J784" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K784" t="n">
+        <v>350</v>
+      </c>
+      <c r="L784" t="n">
+        <v>350</v>
+      </c>
+      <c r="M784" t="n">
+        <v>350</v>
+      </c>
+      <c r="N784" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P784" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q784" t="n">
+        <v>1</v>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>6</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E785" t="n">
+        <v>13</v>
+      </c>
+      <c r="F785" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I776" t="inlineStr">
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K785" t="n">
+        <v>100</v>
+      </c>
+      <c r="L785" t="n">
+        <v>100</v>
+      </c>
+      <c r="M785" t="n">
+        <v>100</v>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P785" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q785" t="n">
+        <v>1</v>
+      </c>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>6</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D786" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E786" t="n">
+        <v>13</v>
+      </c>
+      <c r="F786" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J786" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K786" t="n">
+        <v>450</v>
+      </c>
+      <c r="L786" t="n">
+        <v>450</v>
+      </c>
+      <c r="M786" t="n">
+        <v>450</v>
+      </c>
+      <c r="N786" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P786" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q786" t="n">
+        <v>1</v>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>6</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D787" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E787" t="n">
+        <v>13</v>
+      </c>
+      <c r="F787" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J787" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K787" t="n">
+        <v>300</v>
+      </c>
+      <c r="L787" t="n">
+        <v>300</v>
+      </c>
+      <c r="M787" t="n">
+        <v>300</v>
+      </c>
+      <c r="N787" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O787" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P787" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q787" t="n">
+        <v>1</v>
+      </c>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>6</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D788" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E788" t="n">
+        <v>13</v>
+      </c>
+      <c r="F788" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I788" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J776" t="n">
+      <c r="J788" t="n">
         <v>2500</v>
       </c>
-      <c r="K776" t="n">
+      <c r="K788" t="n">
         <v>200</v>
       </c>
-      <c r="L776" t="n">
+      <c r="L788" t="n">
         <v>200</v>
       </c>
-      <c r="M776" t="n">
+      <c r="M788" t="n">
         <v>200</v>
       </c>
-      <c r="N776" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O776" t="inlineStr">
+      <c r="N788" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O788" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P776" t="n">
+      <c r="P788" t="n">
         <v>200</v>
       </c>
-      <c r="Q776" t="n">
-        <v>1</v>
-      </c>
-      <c r="R776" t="inlineStr">
+      <c r="Q788" t="n">
+        <v>1</v>
+      </c>
+      <c r="R788" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R943"/>
+  <dimension ref="A1:R952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="K902" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L902" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M902" t="n">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="Q902" t="n">
         <v>1</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>1900</v>
+        <v>4300</v>
       </c>
       <c r="K903" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L903" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M903" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>500</v>
+        <v>640</v>
       </c>
       <c r="Q903" t="n">
         <v>1</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="K904" t="n">
         <v>400</v>
       </c>
       <c r="L904" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M904" t="n">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="Q904" t="n">
         <v>1</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
+        <v>3100</v>
+      </c>
+      <c r="K905" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L905" t="n">
         <v>1100</v>
       </c>
-      <c r="K905" t="n">
-        <v>900</v>
-      </c>
-      <c r="L905" t="n">
-        <v>900</v>
-      </c>
       <c r="M905" t="n">
-        <v>900</v>
+        <v>1042</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>900</v>
+        <v>1042</v>
       </c>
       <c r="Q905" t="n">
         <v>1</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>1900</v>
+        <v>5100</v>
       </c>
       <c r="K906" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="L906" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="M906" t="n">
-        <v>250</v>
+        <v>772</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>250</v>
+        <v>772</v>
       </c>
       <c r="Q906" t="n">
         <v>1</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>2200</v>
+        <v>7900</v>
       </c>
       <c r="K907" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L907" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="M907" t="n">
-        <v>750</v>
+        <v>644</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>750</v>
+        <v>644</v>
       </c>
       <c r="Q907" t="n">
         <v>1</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>2700</v>
+        <v>7500</v>
       </c>
       <c r="K908" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L908" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M908" t="n">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="Q908" t="n">
         <v>1</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>2300</v>
+        <v>4600</v>
       </c>
       <c r="K909" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L909" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="M909" t="n">
-        <v>450</v>
+        <v>941</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>450</v>
+        <v>941</v>
       </c>
       <c r="Q909" t="n">
         <v>1</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44266</v>
+        <v>44578</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1300</v>
+        <v>5900</v>
       </c>
       <c r="K910" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L910" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M910" t="n">
-        <v>900</v>
+        <v>244</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>900</v>
+        <v>244</v>
       </c>
       <c r="Q910" t="n">
         <v>1</v>
@@ -65940,25 +65940,25 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K911" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L911" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M911" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q911" t="n">
         <v>1</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="K912" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L912" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="M912" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q912" t="n">
         <v>1</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>4700</v>
+        <v>1400</v>
       </c>
       <c r="K913" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="L913" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="M913" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="Q913" t="n">
         <v>1</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66156,25 +66156,25 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>5200</v>
+        <v>1100</v>
       </c>
       <c r="K914" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L914" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M914" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Q914" t="n">
         <v>1</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="K915" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="L915" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M915" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="Q915" t="n">
         <v>1</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66300,25 +66300,25 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K916" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L916" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M916" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q916" t="n">
         <v>1</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66372,25 +66372,25 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="K917" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L917" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M917" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q917" t="n">
         <v>1</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66444,25 +66444,25 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="K918" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L918" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M918" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="Q918" t="n">
         <v>1</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66516,25 +66516,25 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K919" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L919" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M919" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="Q919" t="n">
         <v>1</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K920" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L920" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M920" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q920" t="n">
         <v>1</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="K921" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="L921" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="M921" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="Q921" t="n">
         <v>1</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>1400</v>
+        <v>4700</v>
       </c>
       <c r="K922" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="L922" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="M922" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="Q922" t="n">
         <v>1</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>1300</v>
+        <v>5200</v>
       </c>
       <c r="K923" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L923" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M923" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q923" t="n">
         <v>1</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K924" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L924" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="M924" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="Q924" t="n">
         <v>1</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="K925" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L925" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M925" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="Q925" t="n">
         <v>1</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>4900</v>
+        <v>1300</v>
       </c>
       <c r="K926" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L926" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M926" t="n">
-        <v>455</v>
+        <v>350</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>455</v>
+        <v>350</v>
       </c>
       <c r="Q926" t="n">
         <v>1</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>4300</v>
+        <v>900</v>
       </c>
       <c r="K927" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L927" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="M927" t="n">
-        <v>242</v>
+        <v>800</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>242</v>
+        <v>800</v>
       </c>
       <c r="Q927" t="n">
         <v>1</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67164,25 +67164,25 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>6900</v>
+        <v>1100</v>
       </c>
       <c r="K928" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L928" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="M928" t="n">
-        <v>939</v>
+        <v>200</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>939</v>
+        <v>200</v>
       </c>
       <c r="Q928" t="n">
         <v>1</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>8500</v>
+        <v>1600</v>
       </c>
       <c r="K929" t="n">
         <v>700</v>
       </c>
       <c r="L929" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M929" t="n">
-        <v>739</v>
+        <v>700</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>739</v>
+        <v>700</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>11100</v>
+        <v>2200</v>
       </c>
       <c r="K930" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L930" t="n">
         <v>500</v>
       </c>
       <c r="M930" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="Q930" t="n">
         <v>1</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>7800</v>
+        <v>1400</v>
       </c>
       <c r="K931" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L931" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M931" t="n">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K932" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L932" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M932" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K933" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L933" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="M933" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="K934" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L934" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M934" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>3000</v>
+        <v>4900</v>
       </c>
       <c r="K935" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L935" t="n">
         <v>500</v>
       </c>
       <c r="M935" t="n">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1900</v>
+        <v>4300</v>
       </c>
       <c r="K936" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L936" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M936" t="n">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1600</v>
+        <v>6900</v>
       </c>
       <c r="K937" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="L937" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M937" t="n">
-        <v>100</v>
+        <v>939</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>100</v>
+        <v>939</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>1100</v>
+        <v>8500</v>
       </c>
       <c r="K938" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L938" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M938" t="n">
-        <v>600</v>
+        <v>739</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>600</v>
+        <v>739</v>
       </c>
       <c r="Q938" t="n">
         <v>1</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>2400</v>
+        <v>11100</v>
       </c>
       <c r="K939" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L939" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M939" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>2000</v>
+        <v>7800</v>
       </c>
       <c r="K940" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L940" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M940" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68105,11 +68105,11 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="K941" t="n">
         <v>200</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,36 +68177,36 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>480</v>
+        <v>1800</v>
       </c>
       <c r="K942" t="n">
-        <v>17000</v>
+        <v>900</v>
       </c>
       <c r="L942" t="n">
-        <v>18000</v>
+        <v>900</v>
       </c>
       <c r="M942" t="n">
-        <v>17458</v>
+        <v>900</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 18 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="Q942" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,58 +68229,706 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E943" t="n">
+        <v>13</v>
+      </c>
+      <c r="F943" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J943" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K943" t="n">
+        <v>700</v>
+      </c>
+      <c r="L943" t="n">
+        <v>700</v>
+      </c>
+      <c r="M943" t="n">
+        <v>700</v>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P943" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>1</v>
+      </c>
+      <c r="R943" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>6</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E944" t="n">
+        <v>13</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K944" t="n">
+        <v>500</v>
+      </c>
+      <c r="L944" t="n">
+        <v>500</v>
+      </c>
+      <c r="M944" t="n">
+        <v>500</v>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O944" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P944" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>1</v>
+      </c>
+      <c r="R944" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>6</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D945" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="E945" t="n">
+        <v>13</v>
+      </c>
+      <c r="F945" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J945" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K945" t="n">
+        <v>350</v>
+      </c>
+      <c r="L945" t="n">
+        <v>350</v>
+      </c>
+      <c r="M945" t="n">
+        <v>350</v>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O945" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P945" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>1</v>
+      </c>
+      <c r="R945" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>6</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D946" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E946" t="n">
+        <v>13</v>
+      </c>
+      <c r="F946" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J946" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K946" t="n">
+        <v>100</v>
+      </c>
+      <c r="L946" t="n">
+        <v>100</v>
+      </c>
+      <c r="M946" t="n">
+        <v>100</v>
+      </c>
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O946" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P946" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>1</v>
+      </c>
+      <c r="R946" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>6</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D947" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E947" t="n">
+        <v>13</v>
+      </c>
+      <c r="F947" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J947" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K947" t="n">
+        <v>600</v>
+      </c>
+      <c r="L947" t="n">
+        <v>600</v>
+      </c>
+      <c r="M947" t="n">
+        <v>600</v>
+      </c>
+      <c r="N947" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O947" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P947" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>1</v>
+      </c>
+      <c r="R947" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>6</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D948" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E948" t="n">
+        <v>13</v>
+      </c>
+      <c r="F948" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J948" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K948" t="n">
+        <v>450</v>
+      </c>
+      <c r="L948" t="n">
+        <v>450</v>
+      </c>
+      <c r="M948" t="n">
+        <v>450</v>
+      </c>
+      <c r="N948" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O948" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P948" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>1</v>
+      </c>
+      <c r="R948" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>6</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D949" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E949" t="n">
+        <v>13</v>
+      </c>
+      <c r="F949" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J949" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K949" t="n">
+        <v>300</v>
+      </c>
+      <c r="L949" t="n">
+        <v>300</v>
+      </c>
+      <c r="M949" t="n">
+        <v>300</v>
+      </c>
+      <c r="N949" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O949" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P949" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>1</v>
+      </c>
+      <c r="R949" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>6</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D950" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="E950" t="n">
+        <v>13</v>
+      </c>
+      <c r="F950" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J950" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K950" t="n">
+        <v>200</v>
+      </c>
+      <c r="L950" t="n">
+        <v>200</v>
+      </c>
+      <c r="M950" t="n">
+        <v>200</v>
+      </c>
+      <c r="N950" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O950" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P950" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>1</v>
+      </c>
+      <c r="R950" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>6</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D951" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="E943" t="n">
-        <v>13</v>
-      </c>
-      <c r="F943" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H943" t="inlineStr">
+      <c r="E951" t="n">
+        <v>13</v>
+      </c>
+      <c r="F951" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H951" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I943" t="inlineStr">
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J951" t="n">
+        <v>480</v>
+      </c>
+      <c r="K951" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L951" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M951" t="n">
+        <v>17458</v>
+      </c>
+      <c r="N951" t="inlineStr">
+        <is>
+          <t>$/caja 18 unidades</t>
+        </is>
+      </c>
+      <c r="O951" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="P951" t="n">
+        <v>970</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>18</v>
+      </c>
+      <c r="R951" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>6</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D952" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="E952" t="n">
+        <v>13</v>
+      </c>
+      <c r="F952" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I952" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J943" t="n">
+      <c r="J952" t="n">
         <v>350</v>
       </c>
-      <c r="K943" t="n">
+      <c r="K952" t="n">
         <v>15000</v>
       </c>
-      <c r="L943" t="n">
+      <c r="L952" t="n">
         <v>16000</v>
       </c>
-      <c r="M943" t="n">
+      <c r="M952" t="n">
         <v>15429</v>
       </c>
-      <c r="N943" t="inlineStr">
+      <c r="N952" t="inlineStr">
         <is>
           <t>$/caja 24 unidades</t>
         </is>
       </c>
-      <c r="O943" t="inlineStr">
+      <c r="O952" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="P943" t="n">
+      <c r="P952" t="n">
         <v>643</v>
       </c>
-      <c r="Q943" t="n">
+      <c r="Q952" t="n">
         <v>24</v>
       </c>
-      <c r="R943" t="inlineStr">
+      <c r="R952" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R990"/>
+  <dimension ref="A1:R995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,7 +67245,7 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="K929" t="n">
         <v>700</v>
@@ -67254,7 +67254,7 @@
         <v>800</v>
       </c>
       <c r="M929" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="Q929" t="n">
         <v>1</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>8600</v>
+        <v>6700</v>
       </c>
       <c r="K930" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L930" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M930" t="n">
-        <v>445</v>
+        <v>543</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>445</v>
+        <v>543</v>
       </c>
       <c r="Q930" t="n">
         <v>1</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>5200</v>
+        <v>6200</v>
       </c>
       <c r="K931" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L931" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M931" t="n">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="Q931" t="n">
         <v>1</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,7 +67461,7 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="K932" t="n">
         <v>900</v>
@@ -67470,7 +67470,7 @@
         <v>1000</v>
       </c>
       <c r="M932" t="n">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="Q932" t="n">
         <v>1</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>4200</v>
+        <v>4900</v>
       </c>
       <c r="K933" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L933" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M933" t="n">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="Q933" t="n">
         <v>1</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>8200</v>
+        <v>5600</v>
       </c>
       <c r="K934" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L934" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M934" t="n">
-        <v>640</v>
+        <v>743</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>640</v>
+        <v>743</v>
       </c>
       <c r="Q934" t="n">
         <v>1</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,7 +67677,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>12300</v>
+        <v>8600</v>
       </c>
       <c r="K935" t="n">
         <v>400</v>
@@ -67686,7 +67686,7 @@
         <v>500</v>
       </c>
       <c r="M935" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q935" t="n">
         <v>1</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>12800</v>
+        <v>5200</v>
       </c>
       <c r="K936" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L936" t="n">
         <v>350</v>
       </c>
       <c r="M936" t="n">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="Q936" t="n">
         <v>1</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>6700</v>
+        <v>4200</v>
       </c>
       <c r="K937" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L937" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M937" t="n">
-        <v>843</v>
+        <v>936</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>843</v>
+        <v>936</v>
       </c>
       <c r="Q937" t="n">
         <v>1</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,7 +67893,7 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>11200</v>
+        <v>4200</v>
       </c>
       <c r="K938" t="n">
         <v>150</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>800</v>
+        <v>8200</v>
       </c>
       <c r="K939" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L939" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M939" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67983,11 +67983,11 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="Q939" t="n">
         <v>1</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1500</v>
+        <v>12300</v>
       </c>
       <c r="K940" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L940" t="n">
         <v>500</v>
       </c>
       <c r="M940" t="n">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="Q940" t="n">
         <v>1</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1900</v>
+        <v>12800</v>
       </c>
       <c r="K941" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L941" t="n">
         <v>350</v>
       </c>
       <c r="M941" t="n">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="Q941" t="n">
         <v>1</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1900</v>
+        <v>6700</v>
       </c>
       <c r="K942" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="L942" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="M942" t="n">
-        <v>100</v>
+        <v>843</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>100</v>
+        <v>843</v>
       </c>
       <c r="Q942" t="n">
         <v>1</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>3500</v>
+        <v>11200</v>
       </c>
       <c r="K943" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="L943" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M943" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="Q943" t="n">
         <v>1</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="K944" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="L944" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M944" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="Q944" t="n">
         <v>1</v>
@@ -68388,25 +68388,25 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="K945" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L945" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M945" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q945" t="n">
         <v>1</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68460,25 +68460,25 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
       <c r="K946" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L946" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M946" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q946" t="n">
         <v>1</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K947" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="L947" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="M947" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="Q947" t="n">
         <v>1</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44162</v>
+        <v>44272</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="K948" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="L948" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M948" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="Q948" t="n">
         <v>1</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44529</v>
+        <v>44272</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,36 +68681,36 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>330</v>
+        <v>2800</v>
       </c>
       <c r="K949" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="L949" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M949" t="n">
-        <v>12455</v>
+        <v>300</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 12 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1038</v>
+        <v>300</v>
       </c>
       <c r="Q949" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44529</v>
+        <v>44272</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,36 +68753,36 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>470</v>
+        <v>2500</v>
       </c>
       <c r="K950" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L950" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M950" t="n">
-        <v>12596</v>
+        <v>200</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 16 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>787</v>
+        <v>200</v>
       </c>
       <c r="Q950" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>1300</v>
+        <v>4500</v>
       </c>
       <c r="K951" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="L951" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M951" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="Q951" t="n">
         <v>1</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,32 +68901,32 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>410</v>
+        <v>2200</v>
       </c>
       <c r="K952" t="n">
-        <v>11000</v>
+        <v>1200</v>
       </c>
       <c r="L952" t="n">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="M952" t="n">
-        <v>11537</v>
+        <v>1200</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 24 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>481</v>
+        <v>1200</v>
       </c>
       <c r="Q952" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="K953" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L953" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M953" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q953" t="n">
         <v>1</v>
@@ -69041,36 +69041,36 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>3500</v>
+        <v>330</v>
       </c>
       <c r="K954" t="n">
-        <v>650</v>
+        <v>12000</v>
       </c>
       <c r="L954" t="n">
-        <v>650</v>
+        <v>13000</v>
       </c>
       <c r="M954" t="n">
-        <v>650</v>
+        <v>12455</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 12 unidades</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>650</v>
+        <v>1038</v>
       </c>
       <c r="Q954" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69108,41 +69108,41 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>5100</v>
+        <v>470</v>
       </c>
       <c r="K955" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="L955" t="n">
-        <v>600</v>
+        <v>13000</v>
       </c>
       <c r="M955" t="n">
-        <v>549</v>
+        <v>12596</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 16 unidades</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>549</v>
+        <v>787</v>
       </c>
       <c r="Q955" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>5900</v>
+        <v>1300</v>
       </c>
       <c r="K956" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L956" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="M956" t="n">
-        <v>426</v>
+        <v>1200</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>426</v>
+        <v>1200</v>
       </c>
       <c r="Q956" t="n">
         <v>1</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,32 +69261,32 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>1900</v>
+        <v>410</v>
       </c>
       <c r="K957" t="n">
-        <v>350</v>
+        <v>11000</v>
       </c>
       <c r="L957" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="M957" t="n">
-        <v>350</v>
+        <v>11537</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 24 unidades</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>350</v>
+        <v>481</v>
       </c>
       <c r="Q957" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69324,25 +69324,25 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="K958" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L958" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M958" t="n">
-        <v>761</v>
+        <v>900</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>761</v>
+        <v>900</v>
       </c>
       <c r="Q958" t="n">
         <v>1</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44189</v>
+        <v>44529</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="K959" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L959" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="M959" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="Q959" t="n">
         <v>1</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K960" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L960" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M960" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>700</v>
+        <v>549</v>
       </c>
       <c r="Q960" t="n">
         <v>1</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>7200</v>
+        <v>5900</v>
       </c>
       <c r="K961" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L961" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M961" t="n">
-        <v>549</v>
+        <v>426</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>549</v>
+        <v>426</v>
       </c>
       <c r="Q961" t="n">
         <v>1</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>3900</v>
+        <v>1900</v>
       </c>
       <c r="K962" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L962" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M962" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q962" t="n">
         <v>1</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="K963" t="n">
+        <v>700</v>
+      </c>
+      <c r="L963" t="n">
         <v>800</v>
       </c>
-      <c r="L963" t="n">
-        <v>900</v>
-      </c>
       <c r="M963" t="n">
-        <v>862</v>
+        <v>761</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>862</v>
+        <v>761</v>
       </c>
       <c r="Q963" t="n">
         <v>1</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="K964" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L964" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="M964" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Q964" t="n">
         <v>1</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>1050</v>
+        <v>4800</v>
       </c>
       <c r="K965" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="L965" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M965" t="n">
-        <v>233</v>
+        <v>700</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>233</v>
+        <v>700</v>
       </c>
       <c r="Q965" t="n">
         <v>1</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>950</v>
+        <v>7200</v>
       </c>
       <c r="K966" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="L966" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M966" t="n">
-        <v>182</v>
+        <v>549</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>182</v>
+        <v>549</v>
       </c>
       <c r="Q966" t="n">
         <v>1</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>1250</v>
+        <v>3900</v>
       </c>
       <c r="K967" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L967" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M967" t="n">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>622</v>
+        <v>400</v>
       </c>
       <c r="Q967" t="n">
         <v>1</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>1850</v>
+        <v>4700</v>
       </c>
       <c r="K968" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L968" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M968" t="n">
-        <v>626</v>
+        <v>862</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>626</v>
+        <v>862</v>
       </c>
       <c r="Q968" t="n">
         <v>1</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>950</v>
+        <v>3300</v>
       </c>
       <c r="K969" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L969" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M969" t="n">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="Q969" t="n">
         <v>1</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>820</v>
+        <v>1050</v>
       </c>
       <c r="K970" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L970" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M970" t="n">
-        <v>520</v>
+        <v>233</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>520</v>
+        <v>233</v>
       </c>
       <c r="Q970" t="n">
         <v>1</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>1450</v>
+        <v>950</v>
       </c>
       <c r="K971" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="L971" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="M971" t="n">
-        <v>428</v>
+        <v>182</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>428</v>
+        <v>182</v>
       </c>
       <c r="Q971" t="n">
         <v>1</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="K972" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L972" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M972" t="n">
-        <v>377</v>
+        <v>622</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>377</v>
+        <v>622</v>
       </c>
       <c r="Q972" t="n">
         <v>1</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1550</v>
+        <v>1850</v>
       </c>
       <c r="K973" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L973" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="M973" t="n">
-        <v>721</v>
+        <v>626</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>721</v>
+        <v>626</v>
       </c>
       <c r="Q973" t="n">
         <v>1</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>1850</v>
+        <v>950</v>
       </c>
       <c r="K974" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L974" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M974" t="n">
-        <v>718</v>
+        <v>524</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>718</v>
+        <v>524</v>
       </c>
       <c r="Q974" t="n">
         <v>1</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>1650</v>
+        <v>820</v>
       </c>
       <c r="K975" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L975" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M975" t="n">
-        <v>336</v>
+        <v>520</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>336</v>
+        <v>520</v>
       </c>
       <c r="Q975" t="n">
         <v>1</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="K976" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L976" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M976" t="n">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="Q976" t="n">
         <v>1</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="K977" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="L977" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M977" t="n">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="Q977" t="n">
         <v>1</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>1300</v>
+        <v>1550</v>
       </c>
       <c r="K978" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L978" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="M978" t="n">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="Q978" t="n">
         <v>1</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>4300</v>
+        <v>1850</v>
       </c>
       <c r="K979" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L979" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M979" t="n">
-        <v>444</v>
+        <v>718</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>444</v>
+        <v>718</v>
       </c>
       <c r="Q979" t="n">
         <v>1</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>2500</v>
+        <v>1650</v>
       </c>
       <c r="K980" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L980" t="n">
         <v>350</v>
       </c>
       <c r="M980" t="n">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="Q980" t="n">
         <v>1</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>2700</v>
+        <v>1550</v>
       </c>
       <c r="K981" t="n">
         <v>250</v>
       </c>
       <c r="L981" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M981" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Q981" t="n">
         <v>1</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71052,25 +71052,25 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>6600</v>
+        <v>2000</v>
       </c>
       <c r="K982" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="L982" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="M982" t="n">
-        <v>628</v>
+        <v>100</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>628</v>
+        <v>100</v>
       </c>
       <c r="Q982" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71124,25 +71124,25 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>7200</v>
+        <v>1300</v>
       </c>
       <c r="K983" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L983" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M983" t="n">
-        <v>423</v>
+        <v>650</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>423</v>
+        <v>650</v>
       </c>
       <c r="Q983" t="n">
         <v>1</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71196,25 +71196,25 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>5500</v>
+        <v>4300</v>
       </c>
       <c r="K984" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L984" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M984" t="n">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="Q984" t="n">
         <v>1</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>5700</v>
+        <v>2500</v>
       </c>
       <c r="K985" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L985" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M985" t="n">
-        <v>739</v>
+        <v>350</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>739</v>
+        <v>350</v>
       </c>
       <c r="Q985" t="n">
         <v>1</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="K986" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L986" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="M986" t="n">
-        <v>621</v>
+        <v>250</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>621</v>
+        <v>250</v>
       </c>
       <c r="Q986" t="n">
         <v>1</v>
@@ -71412,25 +71412,25 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>10200</v>
+        <v>6600</v>
       </c>
       <c r="K987" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L987" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M987" t="n">
-        <v>423</v>
+        <v>628</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>423</v>
+        <v>628</v>
       </c>
       <c r="Q987" t="n">
         <v>1</v>
@@ -71484,25 +71484,25 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="K988" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L988" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M988" t="n">
-        <v>273</v>
+        <v>423</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>273</v>
+        <v>423</v>
       </c>
       <c r="Q988" t="n">
         <v>1</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="K989" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L989" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="M989" t="n">
-        <v>823</v>
+        <v>323</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>823</v>
+        <v>323</v>
       </c>
       <c r="Q989" t="n">
         <v>1</v>
@@ -71628,43 +71628,403 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J990" t="n">
+        <v>5700</v>
+      </c>
+      <c r="K990" t="n">
+        <v>700</v>
+      </c>
+      <c r="L990" t="n">
+        <v>800</v>
+      </c>
+      <c r="M990" t="n">
+        <v>739</v>
+      </c>
+      <c r="N990" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O990" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P990" t="n">
+        <v>739</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>1</v>
+      </c>
+      <c r="R990" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>6</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D991" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E991" t="n">
+        <v>13</v>
+      </c>
+      <c r="F991" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G991" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I990" t="inlineStr">
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J991" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K991" t="n">
+        <v>600</v>
+      </c>
+      <c r="L991" t="n">
+        <v>650</v>
+      </c>
+      <c r="M991" t="n">
+        <v>621</v>
+      </c>
+      <c r="N991" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O991" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P991" t="n">
+        <v>621</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>1</v>
+      </c>
+      <c r="R991" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>6</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D992" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E992" t="n">
+        <v>13</v>
+      </c>
+      <c r="F992" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G992" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J992" t="n">
+        <v>10200</v>
+      </c>
+      <c r="K992" t="n">
+        <v>400</v>
+      </c>
+      <c r="L992" t="n">
+        <v>450</v>
+      </c>
+      <c r="M992" t="n">
+        <v>423</v>
+      </c>
+      <c r="N992" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O992" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P992" t="n">
+        <v>423</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>1</v>
+      </c>
+      <c r="R992" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>6</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D993" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E993" t="n">
+        <v>13</v>
+      </c>
+      <c r="F993" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G993" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J993" t="n">
+        <v>8400</v>
+      </c>
+      <c r="K993" t="n">
+        <v>250</v>
+      </c>
+      <c r="L993" t="n">
+        <v>300</v>
+      </c>
+      <c r="M993" t="n">
+        <v>273</v>
+      </c>
+      <c r="N993" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O993" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P993" t="n">
+        <v>273</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>1</v>
+      </c>
+      <c r="R993" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>6</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D994" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E994" t="n">
+        <v>13</v>
+      </c>
+      <c r="F994" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G994" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J994" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K994" t="n">
+        <v>800</v>
+      </c>
+      <c r="L994" t="n">
+        <v>850</v>
+      </c>
+      <c r="M994" t="n">
+        <v>823</v>
+      </c>
+      <c r="N994" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O994" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P994" t="n">
+        <v>823</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>1</v>
+      </c>
+      <c r="R994" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>6</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D995" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E995" t="n">
+        <v>13</v>
+      </c>
+      <c r="F995" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J990" t="n">
+      <c r="J995" t="n">
         <v>3300</v>
       </c>
-      <c r="K990" t="n">
+      <c r="K995" t="n">
         <v>450</v>
       </c>
-      <c r="L990" t="n">
+      <c r="L995" t="n">
         <v>450</v>
       </c>
-      <c r="M990" t="n">
+      <c r="M995" t="n">
         <v>450</v>
       </c>
-      <c r="N990" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O990" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="P990" t="n">
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O995" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P995" t="n">
         <v>450</v>
       </c>
-      <c r="Q990" t="n">
-        <v>1</v>
-      </c>
-      <c r="R990" t="inlineStr">
+      <c r="Q995" t="n">
+        <v>1</v>
+      </c>
+      <c r="R995" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1037"/>
+  <dimension ref="A1:R1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>5700</v>
+        <v>3500</v>
       </c>
       <c r="K1016" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1016" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="M1016" t="n">
-        <v>796</v>
+        <v>743</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>796</v>
+        <v>743</v>
       </c>
       <c r="Q1016" t="n">
         <v>1</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="K1017" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1017" t="n">
         <v>600</v>
       </c>
-      <c r="L1017" t="n">
-        <v>700</v>
-      </c>
       <c r="M1017" t="n">
-        <v>648</v>
+        <v>542</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>648</v>
+        <v>542</v>
       </c>
       <c r="Q1017" t="n">
         <v>1</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>8300</v>
+        <v>2900</v>
       </c>
       <c r="K1018" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="L1018" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="M1018" t="n">
-        <v>496</v>
+        <v>945</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>496</v>
+        <v>945</v>
       </c>
       <c r="Q1018" t="n">
         <v>1</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73716,25 +73716,25 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>6100</v>
+        <v>4200</v>
       </c>
       <c r="K1019" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="L1019" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M1019" t="n">
-        <v>303</v>
+        <v>740</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>303</v>
+        <v>740</v>
       </c>
       <c r="Q1019" t="n">
         <v>1</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>7200</v>
+        <v>7800</v>
       </c>
       <c r="K1020" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="L1020" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="M1020" t="n">
-        <v>173</v>
+        <v>545</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>173</v>
+        <v>545</v>
       </c>
       <c r="Q1020" t="n">
         <v>1</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>9500</v>
+        <v>5300</v>
       </c>
       <c r="K1021" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L1021" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M1021" t="n">
-        <v>847</v>
+        <v>395</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>847</v>
+        <v>395</v>
       </c>
       <c r="Q1021" t="n">
         <v>1</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>10400</v>
+        <v>4700</v>
       </c>
       <c r="K1022" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L1022" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1022" t="n">
-        <v>635</v>
+        <v>947</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>635</v>
+        <v>947</v>
       </c>
       <c r="Q1022" t="n">
         <v>1</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>10600</v>
+        <v>4300</v>
       </c>
       <c r="K1023" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L1023" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M1023" t="n">
-        <v>447</v>
+        <v>240</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>447</v>
+        <v>240</v>
       </c>
       <c r="Q1023" t="n">
         <v>1</v>
@@ -74076,25 +74076,25 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="K1024" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="L1024" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="M1024" t="n">
-        <v>1011</v>
+        <v>796</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>1011</v>
+        <v>796</v>
       </c>
       <c r="Q1024" t="n">
         <v>1</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K1025" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L1025" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="M1025" t="n">
-        <v>224</v>
+        <v>648</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>224</v>
+        <v>648</v>
       </c>
       <c r="Q1025" t="n">
         <v>1</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>5400</v>
+        <v>8300</v>
       </c>
       <c r="K1026" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L1026" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="M1026" t="n">
-        <v>1154</v>
+        <v>496</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1154</v>
+        <v>496</v>
       </c>
       <c r="Q1026" t="n">
         <v>1</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K1027" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="L1027" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="M1027" t="n">
-        <v>921</v>
+        <v>303</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>921</v>
+        <v>303</v>
       </c>
       <c r="Q1027" t="n">
         <v>1</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74364,25 +74364,25 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>6300</v>
+        <v>7200</v>
       </c>
       <c r="K1028" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="L1028" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="M1028" t="n">
-        <v>702</v>
+        <v>173</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>702</v>
+        <v>173</v>
       </c>
       <c r="Q1028" t="n">
         <v>1</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74436,25 +74436,25 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>4300</v>
+        <v>9500</v>
       </c>
       <c r="K1029" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L1029" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M1029" t="n">
-        <v>435</v>
+        <v>847</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>435</v>
+        <v>847</v>
       </c>
       <c r="Q1029" t="n">
         <v>1</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>8100</v>
+        <v>10400</v>
       </c>
       <c r="K1030" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="L1030" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="M1030" t="n">
-        <v>1006</v>
+        <v>635</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>1006</v>
+        <v>635</v>
       </c>
       <c r="Q1030" t="n">
         <v>1</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="K1031" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L1031" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M1031" t="n">
-        <v>778</v>
+        <v>447</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>778</v>
+        <v>447</v>
       </c>
       <c r="Q1031" t="n">
         <v>1</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>10200</v>
+        <v>6100</v>
       </c>
       <c r="K1032" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L1032" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1032" t="n">
-        <v>554</v>
+        <v>1011</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>554</v>
+        <v>1011</v>
       </c>
       <c r="Q1032" t="n">
         <v>1</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>10100</v>
+        <v>9300</v>
       </c>
       <c r="K1033" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1033" t="n">
         <v>250</v>
       </c>
-      <c r="L1033" t="n">
-        <v>300</v>
-      </c>
       <c r="M1033" t="n">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="Q1033" t="n">
         <v>1</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="K1034" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L1034" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M1034" t="n">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>800</v>
+        <v>1154</v>
       </c>
       <c r="Q1034" t="n">
         <v>1</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>2100</v>
+        <v>6300</v>
       </c>
       <c r="K1035" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L1035" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M1035" t="n">
-        <v>1000</v>
+        <v>921</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>1000</v>
+        <v>921</v>
       </c>
       <c r="Q1035" t="n">
         <v>1</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74940,25 +74940,25 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="K1036" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L1036" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M1036" t="n">
-        <v>1000</v>
+        <v>702</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>1000</v>
+        <v>702</v>
       </c>
       <c r="Q1036" t="n">
         <v>1</v>
@@ -74997,58 +74997,634 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1037" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1037" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1037" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>435</v>
+      </c>
+      <c r="N1037" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1037" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1037" t="n">
+        <v>435</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1037" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1038" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1038" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1038" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1038" t="n">
+        <v>8100</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>950</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>1006</v>
+      </c>
+      <c r="N1038" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1038" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1038" t="n">
+        <v>1006</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1038" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1039" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1039" t="n">
+        <v>10800</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>850</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>778</v>
+      </c>
+      <c r="N1039" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1039" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1039" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1039" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1040" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1040" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1040" t="n">
+        <v>10200</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>554</v>
+      </c>
+      <c r="N1040" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1040" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1040" t="n">
+        <v>554</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1040" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1041" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1041" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>272</v>
+      </c>
+      <c r="N1041" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1041" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1041" t="n">
+        <v>272</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1041" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1042" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1037" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G1037" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H1037" t="inlineStr">
+      <c r="E1042" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J1042" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>800</v>
+      </c>
+      <c r="N1042" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1042" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1042" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1042" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1043" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1043" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N1043" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1043" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1043" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1043" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1044" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I1037" t="inlineStr">
+      <c r="I1044" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J1044" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N1044" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1044" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1044" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1044" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1045" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1045" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1037" t="n">
+      <c r="J1045" t="n">
         <v>1800</v>
       </c>
-      <c r="K1037" t="n">
+      <c r="K1045" t="n">
         <v>1200</v>
       </c>
-      <c r="L1037" t="n">
+      <c r="L1045" t="n">
         <v>1200</v>
       </c>
-      <c r="M1037" t="n">
+      <c r="M1045" t="n">
         <v>1200</v>
       </c>
-      <c r="N1037" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1037" t="inlineStr">
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1045" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1037" t="n">
+      <c r="P1045" t="n">
         <v>1200</v>
       </c>
-      <c r="Q1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1037" t="inlineStr">
+      <c r="Q1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1045" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1130"/>
+  <dimension ref="A1:R1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44543</v>
+        <v>44610</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76884,7 +76884,7 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>5100</v>
+        <v>1900</v>
       </c>
       <c r="K1063" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="L1063" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="M1063" t="n">
-        <v>1274</v>
+        <v>729</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>1274</v>
+        <v>729</v>
       </c>
       <c r="Q1063" t="n">
         <v>1</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44543</v>
+        <v>44610</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76968,13 +76968,13 @@
         <v>4300</v>
       </c>
       <c r="K1064" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L1064" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M1064" t="n">
-        <v>1056</v>
+        <v>542</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>1056</v>
+        <v>542</v>
       </c>
       <c r="Q1064" t="n">
         <v>1</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44543</v>
+        <v>44610</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>5300</v>
+        <v>3300</v>
       </c>
       <c r="K1065" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L1065" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="M1065" t="n">
-        <v>827</v>
+        <v>421</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77055,11 +77055,11 @@
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>827</v>
+        <v>421</v>
       </c>
       <c r="Q1065" t="n">
         <v>1</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44543</v>
+        <v>44610</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77100,25 +77100,25 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K1066" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L1066" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M1066" t="n">
-        <v>561</v>
+        <v>846</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>561</v>
+        <v>846</v>
       </c>
       <c r="Q1066" t="n">
         <v>1</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44543</v>
+        <v>44610</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>6500</v>
+        <v>3400</v>
       </c>
       <c r="K1067" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="L1067" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="M1067" t="n">
-        <v>1254</v>
+        <v>232</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77199,11 +77199,11 @@
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>1254</v>
+        <v>232</v>
       </c>
       <c r="Q1067" t="n">
         <v>1</v>
@@ -77244,25 +77244,25 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>9400</v>
+        <v>5100</v>
       </c>
       <c r="K1068" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="L1068" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="M1068" t="n">
-        <v>841</v>
+        <v>1274</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>841</v>
+        <v>1274</v>
       </c>
       <c r="Q1068" t="n">
         <v>1</v>
@@ -77316,25 +77316,25 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>9900</v>
+        <v>4300</v>
       </c>
       <c r="K1069" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L1069" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1069" t="n">
-        <v>546</v>
+        <v>1056</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>546</v>
+        <v>1056</v>
       </c>
       <c r="Q1069" t="n">
         <v>1</v>
@@ -77388,25 +77388,25 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="K1070" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L1070" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="M1070" t="n">
-        <v>350</v>
+        <v>827</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>350</v>
+        <v>827</v>
       </c>
       <c r="Q1070" t="n">
         <v>1</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77460,25 +77460,25 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K1071" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1071" t="n">
         <v>600</v>
       </c>
       <c r="M1071" t="n">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="Q1071" t="n">
         <v>1</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="K1072" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L1072" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="M1072" t="n">
-        <v>1100</v>
+        <v>1254</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>1100</v>
+        <v>1254</v>
       </c>
       <c r="Q1072" t="n">
         <v>1</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>3300</v>
+        <v>9400</v>
       </c>
       <c r="K1073" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L1073" t="n">
         <v>900</v>
       </c>
       <c r="M1073" t="n">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="Q1073" t="n">
         <v>1</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>4000</v>
+        <v>9900</v>
       </c>
       <c r="K1074" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L1074" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1074" t="n">
-        <v>800</v>
+        <v>546</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>800</v>
+        <v>546</v>
       </c>
       <c r="Q1074" t="n">
         <v>1</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>1600</v>
+        <v>4900</v>
       </c>
       <c r="K1075" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="L1075" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="M1075" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="Q1075" t="n">
         <v>1</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,11 +77825,11 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="K1076" t="n">
         <v>600</v>
@@ -77847,7 +77847,7 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1076" t="n">
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K1077" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="L1077" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="M1077" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="Q1077" t="n">
         <v>1</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="K1078" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L1078" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M1078" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="Q1078" t="n">
         <v>1</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="K1079" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L1079" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="M1079" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78063,11 +78063,11 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="Q1079" t="n">
         <v>1</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78108,25 +78108,25 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K1080" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="L1080" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="M1080" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="Q1080" t="n">
         <v>1</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78180,25 +78180,25 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="K1081" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L1081" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M1081" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q1081" t="n">
         <v>1</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78252,25 +78252,25 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K1082" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L1082" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M1082" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q1082" t="n">
         <v>1</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78324,25 +78324,25 @@
       </c>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K1083" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L1083" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M1083" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q1083" t="n">
         <v>1</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78396,7 +78396,7 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -78405,7 +78405,7 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K1084" t="n">
         <v>200</v>
@@ -78468,7 +78468,7 @@
       </c>
       <c r="H1085" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1085" t="inlineStr">
@@ -78477,7 +78477,7 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K1085" t="n">
         <v>650</v>
@@ -78540,25 +78540,25 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="K1086" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L1086" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M1086" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q1086" t="n">
         <v>1</v>
@@ -78612,25 +78612,25 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="K1087" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L1087" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M1087" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q1087" t="n">
         <v>1</v>
@@ -78684,25 +78684,25 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="K1088" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1088" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M1088" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="Q1088" t="n">
         <v>1</v>
@@ -78756,25 +78756,25 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1089" t="n">
         <v>2200</v>
       </c>
       <c r="K1089" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L1089" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M1089" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q1089" t="n">
         <v>1</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="K1090" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L1090" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1090" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="Q1090" t="n">
         <v>1</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="K1091" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L1091" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M1091" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q1091" t="n">
         <v>1</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="K1092" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L1092" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M1092" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q1092" t="n">
         <v>1</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="K1093" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L1093" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M1093" t="n">
-        <v>723</v>
+        <v>450</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>723</v>
+        <v>450</v>
       </c>
       <c r="Q1093" t="n">
         <v>1</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="K1094" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L1094" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M1094" t="n">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="Q1094" t="n">
         <v>1</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79188,25 +79188,25 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="K1095" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L1095" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M1095" t="n">
-        <v>382</v>
+        <v>800</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79215,11 +79215,11 @@
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>382</v>
+        <v>800</v>
       </c>
       <c r="Q1095" t="n">
         <v>1</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="K1096" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L1096" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M1096" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q1096" t="n">
         <v>1</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44179</v>
+        <v>44258</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="K1097" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="L1097" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="M1097" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79359,11 +79359,11 @@
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="Q1097" t="n">
         <v>1</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>7100</v>
+        <v>3200</v>
       </c>
       <c r="K1098" t="n">
         <v>700</v>
       </c>
       <c r="L1098" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M1098" t="n">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="Q1098" t="n">
         <v>1</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="K1099" t="n">
         <v>500</v>
       </c>
       <c r="L1099" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="M1099" t="n">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="Q1099" t="n">
         <v>1</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="K1100" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L1100" t="n">
         <v>400</v>
       </c>
       <c r="M1100" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="Q1100" t="n">
         <v>1</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79620,25 +79620,25 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="K1101" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L1101" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M1101" t="n">
-        <v>743</v>
+        <v>300</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79647,11 +79647,11 @@
       </c>
       <c r="O1101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>743</v>
+        <v>300</v>
       </c>
       <c r="Q1101" t="n">
         <v>1</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79692,25 +79692,25 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K1102" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L1102" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M1102" t="n">
-        <v>542</v>
+        <v>1045</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>542</v>
+        <v>1045</v>
       </c>
       <c r="Q1102" t="n">
         <v>1</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79764,25 +79764,25 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>2900</v>
+        <v>7100</v>
       </c>
       <c r="K1103" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1103" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1103" t="n">
-        <v>945</v>
+        <v>746</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>945</v>
+        <v>746</v>
       </c>
       <c r="Q1103" t="n">
         <v>1</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="K1104" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1104" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1104" t="n">
-        <v>740</v>
+        <v>578</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>740</v>
+        <v>578</v>
       </c>
       <c r="Q1104" t="n">
         <v>1</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>7800</v>
+        <v>3600</v>
       </c>
       <c r="K1105" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L1105" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M1105" t="n">
-        <v>545</v>
+        <v>400</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>545</v>
+        <v>400</v>
       </c>
       <c r="Q1105" t="n">
         <v>1</v>
@@ -79980,25 +79980,25 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="K1106" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L1106" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M1106" t="n">
-        <v>395</v>
+        <v>743</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>395</v>
+        <v>743</v>
       </c>
       <c r="Q1106" t="n">
         <v>1</v>
@@ -80052,25 +80052,25 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="K1107" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L1107" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1107" t="n">
-        <v>947</v>
+        <v>542</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80079,11 +80079,11 @@
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>947</v>
+        <v>542</v>
       </c>
       <c r="Q1107" t="n">
         <v>1</v>
@@ -80124,25 +80124,25 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="K1108" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L1108" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="M1108" t="n">
-        <v>240</v>
+        <v>945</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>240</v>
+        <v>945</v>
       </c>
       <c r="Q1108" t="n">
         <v>1</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>5700</v>
+        <v>4200</v>
       </c>
       <c r="K1109" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="L1109" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="M1109" t="n">
-        <v>796</v>
+        <v>740</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>796</v>
+        <v>740</v>
       </c>
       <c r="Q1109" t="n">
         <v>1</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>9200</v>
+        <v>7800</v>
       </c>
       <c r="K1110" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1110" t="n">
         <v>600</v>
       </c>
-      <c r="L1110" t="n">
-        <v>700</v>
-      </c>
       <c r="M1110" t="n">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="Q1110" t="n">
         <v>1</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80340,7 +80340,7 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>8300</v>
+        <v>5300</v>
       </c>
       <c r="K1111" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1111" t="n">
         <v>450</v>
       </c>
-      <c r="L1111" t="n">
-        <v>550</v>
-      </c>
       <c r="M1111" t="n">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>496</v>
+        <v>395</v>
       </c>
       <c r="Q1111" t="n">
         <v>1</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80412,25 +80412,25 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>6100</v>
+        <v>4700</v>
       </c>
       <c r="K1112" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="L1112" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="M1112" t="n">
-        <v>303</v>
+        <v>947</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>303</v>
+        <v>947</v>
       </c>
       <c r="Q1112" t="n">
         <v>1</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80489,20 +80489,20 @@
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>7200</v>
+        <v>4300</v>
       </c>
       <c r="K1113" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="L1113" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M1113" t="n">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="Q1113" t="n">
         <v>1</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>9500</v>
+        <v>5700</v>
       </c>
       <c r="K1114" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L1114" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="M1114" t="n">
-        <v>847</v>
+        <v>796</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>847</v>
+        <v>796</v>
       </c>
       <c r="Q1114" t="n">
         <v>1</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,7 +80637,7 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>10400</v>
+        <v>9200</v>
       </c>
       <c r="K1115" t="n">
         <v>600</v>
@@ -80646,7 +80646,7 @@
         <v>700</v>
       </c>
       <c r="M1115" t="n">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="Q1115" t="n">
         <v>1</v>
@@ -80700,7 +80700,7 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>10600</v>
+        <v>8300</v>
       </c>
       <c r="K1116" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L1116" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M1116" t="n">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="Q1116" t="n">
         <v>1</v>
@@ -80772,25 +80772,25 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1117" t="n">
         <v>6100</v>
       </c>
       <c r="K1117" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="L1117" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="M1117" t="n">
-        <v>1011</v>
+        <v>303</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>1011</v>
+        <v>303</v>
       </c>
       <c r="Q1117" t="n">
         <v>1</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>9300</v>
+        <v>7200</v>
       </c>
       <c r="K1118" t="n">
+        <v>150</v>
+      </c>
+      <c r="L1118" t="n">
         <v>200</v>
       </c>
-      <c r="L1118" t="n">
-        <v>250</v>
-      </c>
       <c r="M1118" t="n">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="Q1118" t="n">
         <v>1</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>5400</v>
+        <v>9500</v>
       </c>
       <c r="K1119" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="L1119" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="M1119" t="n">
-        <v>1154</v>
+        <v>847</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>1154</v>
+        <v>847</v>
       </c>
       <c r="Q1119" t="n">
         <v>1</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>6300</v>
+        <v>10400</v>
       </c>
       <c r="K1120" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L1120" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="M1120" t="n">
-        <v>921</v>
+        <v>635</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>921</v>
+        <v>635</v>
       </c>
       <c r="Q1120" t="n">
         <v>1</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81060,7 +81060,7 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>6300</v>
+        <v>10600</v>
       </c>
       <c r="K1121" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L1121" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M1121" t="n">
-        <v>702</v>
+        <v>447</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>702</v>
+        <v>447</v>
       </c>
       <c r="Q1121" t="n">
         <v>1</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81132,25 +81132,25 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>4300</v>
+        <v>6100</v>
       </c>
       <c r="K1122" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="L1122" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="M1122" t="n">
-        <v>435</v>
+        <v>1011</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>435</v>
+        <v>1011</v>
       </c>
       <c r="Q1122" t="n">
         <v>1</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>8100</v>
+        <v>9300</v>
       </c>
       <c r="K1123" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="L1123" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="M1123" t="n">
-        <v>1006</v>
+        <v>224</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>1006</v>
+        <v>224</v>
       </c>
       <c r="Q1123" t="n">
         <v>1</v>
@@ -81276,25 +81276,25 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>10800</v>
+        <v>5400</v>
       </c>
       <c r="K1124" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L1124" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="M1124" t="n">
-        <v>778</v>
+        <v>1154</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>778</v>
+        <v>1154</v>
       </c>
       <c r="Q1124" t="n">
         <v>1</v>
@@ -81348,25 +81348,25 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>10200</v>
+        <v>6300</v>
       </c>
       <c r="K1125" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L1125" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="M1125" t="n">
-        <v>554</v>
+        <v>921</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>554</v>
+        <v>921</v>
       </c>
       <c r="Q1125" t="n">
         <v>1</v>
@@ -81420,25 +81420,25 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>10100</v>
+        <v>6300</v>
       </c>
       <c r="K1126" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="L1126" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M1126" t="n">
-        <v>272</v>
+        <v>702</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>272</v>
+        <v>702</v>
       </c>
       <c r="Q1126" t="n">
         <v>1</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>1400</v>
+        <v>4300</v>
       </c>
       <c r="K1127" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L1127" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1127" t="n">
-        <v>800</v>
+        <v>435</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>800</v>
+        <v>435</v>
       </c>
       <c r="Q1127" t="n">
         <v>1</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81564,25 +81564,25 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>2100</v>
+        <v>8100</v>
       </c>
       <c r="K1128" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L1128" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M1128" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="Q1128" t="n">
         <v>1</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81641,20 +81641,20 @@
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>3200</v>
+        <v>10800</v>
       </c>
       <c r="K1129" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L1129" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M1129" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q1129" t="n">
         <v>1</v>
@@ -81693,58 +81693,418 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1130" t="n">
+        <v>10200</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>600</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>554</v>
+      </c>
+      <c r="N1130" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1130" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1130" t="n">
+        <v>554</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1131" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1131" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>272</v>
+      </c>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1131" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1131" t="n">
+        <v>272</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1132" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1130" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1130" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H1130" t="inlineStr">
+      <c r="E1132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J1132" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>800</v>
+      </c>
+      <c r="N1132" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1132" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1132" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1133" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1133" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N1133" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1133" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1134" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1134" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I1130" t="inlineStr">
+      <c r="I1134" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J1134" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N1134" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1134" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1135" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1130" t="n">
+      <c r="J1135" t="n">
         <v>1800</v>
       </c>
-      <c r="K1130" t="n">
+      <c r="K1135" t="n">
         <v>1200</v>
       </c>
-      <c r="L1130" t="n">
+      <c r="L1135" t="n">
         <v>1200</v>
       </c>
-      <c r="M1130" t="n">
+      <c r="M1135" t="n">
         <v>1200</v>
       </c>
-      <c r="N1130" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1130" t="inlineStr">
+      <c r="N1135" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1135" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1130" t="n">
+      <c r="P1135" t="n">
         <v>1200</v>
       </c>
-      <c r="Q1130" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1130" t="inlineStr">
+      <c r="Q1135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1135" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:R1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -83508,7 +83508,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -83517,16 +83517,16 @@
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>5700</v>
+        <v>3200</v>
       </c>
       <c r="K1155" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="L1155" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="M1155" t="n">
-        <v>796</v>
+        <v>1241</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83535,11 +83535,11 @@
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>796</v>
+        <v>1241</v>
       </c>
       <c r="Q1155" t="n">
         <v>1</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -83580,7 +83580,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>9200</v>
+        <v>3800</v>
       </c>
       <c r="K1156" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L1156" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M1156" t="n">
-        <v>648</v>
+        <v>942</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83607,11 +83607,11 @@
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>648</v>
+        <v>942</v>
       </c>
       <c r="Q1156" t="n">
         <v>1</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -83652,7 +83652,7 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>8300</v>
+        <v>2300</v>
       </c>
       <c r="K1157" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1157" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M1157" t="n">
-        <v>496</v>
+        <v>635</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83679,11 +83679,11 @@
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>496</v>
+        <v>635</v>
       </c>
       <c r="Q1157" t="n">
         <v>1</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -83724,7 +83724,7 @@
       </c>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>6100</v>
+        <v>1700</v>
       </c>
       <c r="K1158" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L1158" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M1158" t="n">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83751,11 +83751,11 @@
       </c>
       <c r="O1158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Q1158" t="n">
         <v>1</v>
@@ -83796,25 +83796,25 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>7200</v>
+        <v>5700</v>
       </c>
       <c r="K1159" t="n">
-        <v>150</v>
+        <v>750</v>
       </c>
       <c r="L1159" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="M1159" t="n">
-        <v>173</v>
+        <v>796</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>173</v>
+        <v>796</v>
       </c>
       <c r="Q1159" t="n">
         <v>1</v>
@@ -83868,25 +83868,25 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="K1160" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L1160" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1160" t="n">
-        <v>847</v>
+        <v>648</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83899,7 +83899,7 @@
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>847</v>
+        <v>648</v>
       </c>
       <c r="Q1160" t="n">
         <v>1</v>
@@ -83940,25 +83940,25 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>10400</v>
+        <v>8300</v>
       </c>
       <c r="K1161" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1161" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="M1161" t="n">
-        <v>635</v>
+        <v>496</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>635</v>
+        <v>496</v>
       </c>
       <c r="Q1161" t="n">
         <v>1</v>
@@ -84012,25 +84012,25 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>10600</v>
+        <v>6100</v>
       </c>
       <c r="K1162" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L1162" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M1162" t="n">
-        <v>447</v>
+        <v>303</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>447</v>
+        <v>303</v>
       </c>
       <c r="Q1162" t="n">
         <v>1</v>
@@ -84089,20 +84089,20 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="K1163" t="n">
-        <v>950</v>
+        <v>150</v>
       </c>
       <c r="L1163" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="M1163" t="n">
-        <v>1011</v>
+        <v>173</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>1011</v>
+        <v>173</v>
       </c>
       <c r="Q1163" t="n">
         <v>1</v>
@@ -84161,20 +84161,20 @@
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="K1164" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L1164" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M1164" t="n">
-        <v>224</v>
+        <v>847</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>224</v>
+        <v>847</v>
       </c>
       <c r="Q1164" t="n">
         <v>1</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -84228,25 +84228,25 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>5400</v>
+        <v>10400</v>
       </c>
       <c r="K1165" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L1165" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="M1165" t="n">
-        <v>1154</v>
+        <v>635</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>1154</v>
+        <v>635</v>
       </c>
       <c r="Q1165" t="n">
         <v>1</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -84300,25 +84300,25 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>6300</v>
+        <v>10600</v>
       </c>
       <c r="K1166" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="L1166" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M1166" t="n">
-        <v>921</v>
+        <v>447</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>921</v>
+        <v>447</v>
       </c>
       <c r="Q1166" t="n">
         <v>1</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -84372,25 +84372,25 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K1167" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="L1167" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="M1167" t="n">
-        <v>702</v>
+        <v>1011</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84403,7 +84403,7 @@
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>702</v>
+        <v>1011</v>
       </c>
       <c r="Q1167" t="n">
         <v>1</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,16 +84453,16 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>4300</v>
+        <v>9300</v>
       </c>
       <c r="K1168" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L1168" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M1168" t="n">
-        <v>435</v>
+        <v>224</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>435</v>
+        <v>224</v>
       </c>
       <c r="Q1168" t="n">
         <v>1</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>8100</v>
+        <v>5400</v>
       </c>
       <c r="K1169" t="n">
-        <v>950</v>
+        <v>1100</v>
       </c>
       <c r="L1169" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M1169" t="n">
-        <v>1006</v>
+        <v>1154</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84547,7 +84547,7 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>1006</v>
+        <v>1154</v>
       </c>
       <c r="Q1169" t="n">
         <v>1</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,16 +84597,16 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>10800</v>
+        <v>6300</v>
       </c>
       <c r="K1170" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1170" t="n">
-        <v>850</v>
+        <v>950</v>
       </c>
       <c r="M1170" t="n">
-        <v>778</v>
+        <v>921</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>778</v>
+        <v>921</v>
       </c>
       <c r="Q1170" t="n">
         <v>1</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>10200</v>
+        <v>6300</v>
       </c>
       <c r="K1171" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L1171" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M1171" t="n">
-        <v>554</v>
+        <v>702</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>554</v>
+        <v>702</v>
       </c>
       <c r="Q1171" t="n">
         <v>1</v>
@@ -84732,7 +84732,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>10100</v>
+        <v>4300</v>
       </c>
       <c r="K1172" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L1172" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M1172" t="n">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="Q1172" t="n">
         <v>1</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -84804,25 +84804,25 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>1400</v>
+        <v>8100</v>
       </c>
       <c r="K1173" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="L1173" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M1173" t="n">
-        <v>800</v>
+        <v>1006</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>800</v>
+        <v>1006</v>
       </c>
       <c r="Q1173" t="n">
         <v>1</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -84876,25 +84876,25 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>2100</v>
+        <v>10800</v>
       </c>
       <c r="K1174" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L1174" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M1174" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q1174" t="n">
         <v>1</v>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -84953,20 +84953,20 @@
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>3200</v>
+        <v>10200</v>
       </c>
       <c r="K1175" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L1175" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1175" t="n">
-        <v>1000</v>
+        <v>554</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84979,7 +84979,7 @@
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>1000</v>
+        <v>554</v>
       </c>
       <c r="Q1175" t="n">
         <v>1</v>
@@ -85005,58 +85005,346 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1176" t="n">
+        <v>10100</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>272</v>
+      </c>
+      <c r="N1176" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1176" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1176" t="n">
+        <v>272</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1177" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1176" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1176" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H1176" t="inlineStr">
+      <c r="E1177" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J1177" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>800</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>800</v>
+      </c>
+      <c r="N1177" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1177" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1177" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1177" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1178" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>Calameño</t>
+        </is>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1178" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N1178" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1178" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1178" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1179" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1179" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I1176" t="inlineStr">
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>Cuarta</t>
+        </is>
+      </c>
+      <c r="J1179" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N1179" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1179" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1179" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1180" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1180" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1180" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1180" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1176" t="n">
+      <c r="J1180" t="n">
         <v>1800</v>
       </c>
-      <c r="K1176" t="n">
+      <c r="K1180" t="n">
         <v>1200</v>
       </c>
-      <c r="L1176" t="n">
+      <c r="L1180" t="n">
         <v>1200</v>
       </c>
-      <c r="M1176" t="n">
+      <c r="M1180" t="n">
         <v>1200</v>
       </c>
-      <c r="N1176" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1176" t="inlineStr">
+      <c r="N1180" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1180" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1176" t="n">
+      <c r="P1180" t="n">
         <v>1200</v>
       </c>
-      <c r="Q1176" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1176" t="inlineStr">
+      <c r="Q1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1180" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1224"/>
+  <dimension ref="A1:R1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87185,20 +87185,20 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>6800</v>
+        <v>1100</v>
       </c>
       <c r="K1206" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L1206" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M1206" t="n">
-        <v>599</v>
+        <v>1000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87211,7 +87211,7 @@
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>599</v>
+        <v>1000</v>
       </c>
       <c r="Q1206" t="n">
         <v>1</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44225</v>
+        <v>44890</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -87257,20 +87257,20 @@
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>7900</v>
+        <v>1500</v>
       </c>
       <c r="K1207" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="L1207" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M1207" t="n">
-        <v>448</v>
+        <v>1300</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>448</v>
+        <v>1300</v>
       </c>
       <c r="Q1207" t="n">
         <v>1</v>
@@ -87329,20 +87329,20 @@
       </c>
       <c r="I1208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="K1208" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L1208" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M1208" t="n">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>333</v>
+        <v>599</v>
       </c>
       <c r="Q1208" t="n">
         <v>1</v>
@@ -87401,20 +87401,20 @@
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>5600</v>
+        <v>7900</v>
       </c>
       <c r="K1209" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L1209" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M1209" t="n">
-        <v>745</v>
+        <v>448</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>745</v>
+        <v>448</v>
       </c>
       <c r="Q1209" t="n">
         <v>1</v>
@@ -87473,20 +87473,20 @@
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="K1210" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L1210" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M1210" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87499,7 +87499,7 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="Q1210" t="n">
         <v>1</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,25 +87540,25 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="K1211" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1211" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1211" t="n">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87567,11 +87567,11 @@
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="Q1211" t="n">
         <v>1</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44236</v>
+        <v>44225</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,25 +87612,25 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K1212" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1212" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="M1212" t="n">
-        <v>547</v>
+        <v>214</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87639,11 +87639,11 @@
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>547</v>
+        <v>214</v>
       </c>
       <c r="Q1212" t="n">
         <v>1</v>
@@ -87689,20 +87689,20 @@
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="K1213" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L1213" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M1213" t="n">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87715,7 +87715,7 @@
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="Q1213" t="n">
         <v>1</v>
@@ -87761,20 +87761,20 @@
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="K1214" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L1214" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1214" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87787,7 +87787,7 @@
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>256</v>
+        <v>547</v>
       </c>
       <c r="Q1214" t="n">
         <v>1</v>
@@ -87828,25 +87828,25 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="K1215" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="L1215" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M1215" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87855,11 +87855,11 @@
       </c>
       <c r="O1215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>698</v>
+        <v>407</v>
       </c>
       <c r="Q1215" t="n">
         <v>1</v>
@@ -87900,25 +87900,25 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="K1216" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1216" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="M1216" t="n">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87927,11 +87927,11 @@
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="Q1216" t="n">
         <v>1</v>
@@ -87977,20 +87977,20 @@
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>4400</v>
+        <v>5200</v>
       </c>
       <c r="K1217" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="L1217" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="M1217" t="n">
-        <v>370</v>
+        <v>698</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -88003,7 +88003,7 @@
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>370</v>
+        <v>698</v>
       </c>
       <c r="Q1217" t="n">
         <v>1</v>
@@ -88049,20 +88049,20 @@
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="K1218" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L1218" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M1218" t="n">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88075,7 +88075,7 @@
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>851</v>
+        <v>544</v>
       </c>
       <c r="Q1218" t="n">
         <v>1</v>
@@ -88121,20 +88121,20 @@
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K1219" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L1219" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M1219" t="n">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88147,7 +88147,7 @@
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="Q1219" t="n">
         <v>1</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -88193,20 +88193,20 @@
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>2300</v>
+        <v>4500</v>
       </c>
       <c r="K1220" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="L1220" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M1220" t="n">
-        <v>200</v>
+        <v>851</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88215,11 +88215,11 @@
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>200</v>
+        <v>851</v>
       </c>
       <c r="Q1220" t="n">
         <v>1</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44263</v>
+        <v>44236</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -88265,20 +88265,20 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="K1221" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1221" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M1221" t="n">
-        <v>700</v>
+        <v>253</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88287,11 +88287,11 @@
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>700</v>
+        <v>253</v>
       </c>
       <c r="Q1221" t="n">
         <v>1</v>
@@ -88337,20 +88337,20 @@
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K1222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L1222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M1222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q1222" t="n">
         <v>1</v>
@@ -88409,20 +88409,20 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K1223" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1223" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1223" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88435,7 +88435,7 @@
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Q1223" t="n">
         <v>1</v>
@@ -88481,38 +88481,182 @@
       </c>
       <c r="I1224" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1224" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>500</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1224" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1224" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1224" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1224" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1225" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J1225" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>900</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>900</v>
+      </c>
+      <c r="N1225" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1225" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1225" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1225" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1226" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1224" t="n">
+      <c r="J1226" t="n">
         <v>1800</v>
       </c>
-      <c r="K1224" t="n">
+      <c r="K1226" t="n">
         <v>350</v>
       </c>
-      <c r="L1224" t="n">
+      <c r="L1226" t="n">
         <v>350</v>
       </c>
-      <c r="M1224" t="n">
+      <c r="M1226" t="n">
         <v>350</v>
       </c>
-      <c r="N1224" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1224" t="inlineStr">
+      <c r="N1226" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1226" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1224" t="n">
+      <c r="P1226" t="n">
         <v>350</v>
       </c>
-      <c r="Q1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1224" t="inlineStr">
+      <c r="Q1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1226" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1287"/>
+  <dimension ref="A1:R1292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93054,6 +93054,366 @@
         </is>
       </c>
     </row>
+    <row r="1288">
+      <c r="A1288" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1288" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1288" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1288" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>856</v>
+      </c>
+      <c r="N1288" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1288" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1288" t="n">
+        <v>856</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1289" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1289" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1289" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>648</v>
+      </c>
+      <c r="N1289" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1289" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1289" t="n">
+        <v>648</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1290" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1290" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1290" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>450</v>
+      </c>
+      <c r="N1290" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1290" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1290" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1291" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1291" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J1291" t="n">
+        <v>5700</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>1123</v>
+      </c>
+      <c r="N1291" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1291" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1291" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1291" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1292" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1292" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1292" t="n">
+        <v>5800</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>200</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>300</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>255</v>
+      </c>
+      <c r="N1292" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1292" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1292" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1292" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Melón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1319"/>
+  <dimension ref="A1:R1325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="K1234" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="L1234" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="M1234" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89223,11 +89223,11 @@
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="Q1234" t="n">
         <v>1</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89273,20 +89273,20 @@
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="K1235" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L1235" t="n">
         <v>1200</v>
       </c>
       <c r="M1235" t="n">
-        <v>1200</v>
+        <v>1104</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89295,11 +89295,11 @@
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>1200</v>
+        <v>1104</v>
       </c>
       <c r="Q1235" t="n">
         <v>1</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89345,20 +89345,20 @@
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>3900</v>
+        <v>8000</v>
       </c>
       <c r="K1236" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L1236" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1236" t="n">
-        <v>1000</v>
+        <v>741</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>1000</v>
+        <v>741</v>
       </c>
       <c r="Q1236" t="n">
         <v>1</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89417,20 +89417,20 @@
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>3800</v>
+        <v>7300</v>
       </c>
       <c r="K1237" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L1237" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M1237" t="n">
-        <v>1100</v>
+        <v>542</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89439,11 +89439,11 @@
       </c>
       <c r="O1237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>1100</v>
+        <v>542</v>
       </c>
       <c r="Q1237" t="n">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89489,20 +89489,20 @@
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>4700</v>
+        <v>6600</v>
       </c>
       <c r="K1238" t="n">
-        <v>850</v>
+        <v>1300</v>
       </c>
       <c r="L1238" t="n">
-        <v>850</v>
+        <v>1500</v>
       </c>
       <c r="M1238" t="n">
-        <v>850</v>
+        <v>1406</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89511,11 +89511,11 @@
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>850</v>
+        <v>1406</v>
       </c>
       <c r="Q1238" t="n">
         <v>1</v>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44533</v>
+        <v>44918</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="K1239" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L1239" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M1239" t="n">
-        <v>600</v>
+        <v>353</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89583,11 +89583,11 @@
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>600</v>
+        <v>353</v>
       </c>
       <c r="Q1239" t="n">
         <v>1</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44217</v>
+        <v>44162</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -89628,7 +89628,7 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
@@ -89637,16 +89637,16 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="K1240" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L1240" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M1240" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89659,7 +89659,7 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q1240" t="n">
         <v>1</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44217</v>
+        <v>44162</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89700,25 +89700,25 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="K1241" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="L1241" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="M1241" t="n">
-        <v>606</v>
+        <v>1200</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>606</v>
+        <v>1200</v>
       </c>
       <c r="Q1241" t="n">
         <v>1</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44217</v>
+        <v>44162</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89772,25 +89772,25 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>5800</v>
+        <v>3900</v>
       </c>
       <c r="K1242" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="L1242" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M1242" t="n">
-        <v>455</v>
+        <v>1000</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>455</v>
+        <v>1000</v>
       </c>
       <c r="Q1242" t="n">
         <v>1</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89844,25 +89844,25 @@
       </c>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="K1243" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="L1243" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="M1243" t="n">
-        <v>327</v>
+        <v>1100</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>327</v>
+        <v>1100</v>
       </c>
       <c r="Q1243" t="n">
         <v>1</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89916,25 +89916,25 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="K1244" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L1244" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="M1244" t="n">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>755</v>
+        <v>850</v>
       </c>
       <c r="Q1244" t="n">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -89988,7 +89988,7 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -89997,16 +89997,16 @@
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="K1245" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L1245" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M1245" t="n">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="Q1245" t="n">
         <v>1</v>
@@ -90060,7 +90060,7 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
@@ -90069,7 +90069,7 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="K1246" t="n">
         <v>100</v>
@@ -90132,7 +90132,7 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
@@ -90141,16 +90141,16 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="K1247" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L1247" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M1247" t="n">
-        <v>652</v>
+        <v>606</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>652</v>
+        <v>606</v>
       </c>
       <c r="Q1247" t="n">
         <v>1</v>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>11600</v>
+        <v>5800</v>
       </c>
       <c r="K1248" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L1248" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M1248" t="n">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="Q1248" t="n">
         <v>1</v>
@@ -90276,7 +90276,7 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -90285,7 +90285,7 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>6900</v>
+        <v>4400</v>
       </c>
       <c r="K1249" t="n">
         <v>300</v>
@@ -90294,7 +90294,7 @@
         <v>350</v>
       </c>
       <c r="M1249" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90307,7 +90307,7 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q1249" t="n">
         <v>1</v>
@@ -90348,7 +90348,7 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="K1250" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1250" t="n">
         <v>800</v>
       </c>
-      <c r="L1250" t="n">
-        <v>900</v>
-      </c>
       <c r="M1250" t="n">
-        <v>844</v>
+        <v>755</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>844</v>
+        <v>755</v>
       </c>
       <c r="Q1250" t="n">
         <v>1</v>
@@ -90420,7 +90420,7 @@
       </c>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -90429,7 +90429,7 @@
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>6300</v>
+        <v>4000</v>
       </c>
       <c r="K1251" t="n">
         <v>200</v>
@@ -90438,7 +90438,7 @@
         <v>250</v>
       </c>
       <c r="M1251" t="n">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q1251" t="n">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90492,25 +90492,25 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>5600</v>
+        <v>3200</v>
       </c>
       <c r="K1252" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="L1252" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="M1252" t="n">
-        <v>1245</v>
+        <v>100</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90523,7 +90523,7 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>1245</v>
+        <v>100</v>
       </c>
       <c r="Q1252" t="n">
         <v>1</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90564,25 +90564,25 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K1253" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L1253" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M1253" t="n">
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90595,7 +90595,7 @@
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>843</v>
+        <v>652</v>
       </c>
       <c r="Q1253" t="n">
         <v>1</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90636,25 +90636,25 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>6900</v>
+        <v>11600</v>
       </c>
       <c r="K1254" t="n">
+        <v>450</v>
+      </c>
+      <c r="L1254" t="n">
         <v>550</v>
       </c>
-      <c r="L1254" t="n">
-        <v>650</v>
-      </c>
       <c r="M1254" t="n">
-        <v>598</v>
+        <v>506</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>598</v>
+        <v>506</v>
       </c>
       <c r="Q1254" t="n">
         <v>1</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90713,20 +90713,20 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="K1255" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="L1255" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="M1255" t="n">
-        <v>1139</v>
+        <v>322</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>1139</v>
+        <v>322</v>
       </c>
       <c r="Q1255" t="n">
         <v>1</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90785,20 +90785,20 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>12300</v>
+        <v>6600</v>
       </c>
       <c r="K1256" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L1256" t="n">
         <v>900</v>
       </c>
       <c r="M1256" t="n">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="Q1256" t="n">
         <v>1</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90857,20 +90857,20 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>11500</v>
+        <v>6300</v>
       </c>
       <c r="K1257" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L1257" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M1257" t="n">
-        <v>653</v>
+        <v>222</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90883,7 +90883,7 @@
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>653</v>
+        <v>222</v>
       </c>
       <c r="Q1257" t="n">
         <v>1</v>
@@ -90924,25 +90924,25 @@
       </c>
       <c r="H1258" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>9300</v>
+        <v>5600</v>
       </c>
       <c r="K1258" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="L1258" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="M1258" t="n">
-        <v>292</v>
+        <v>1245</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>292</v>
+        <v>1245</v>
       </c>
       <c r="Q1258" t="n">
         <v>1</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44613</v>
+        <v>44545</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -90996,25 +90996,25 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>3900</v>
+        <v>6500</v>
       </c>
       <c r="K1259" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="L1259" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="M1259" t="n">
-        <v>899</v>
+        <v>843</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91023,11 +91023,11 @@
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>899</v>
+        <v>843</v>
       </c>
       <c r="Q1259" t="n">
         <v>1</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44613</v>
+        <v>44545</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91068,25 +91068,25 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>4900</v>
+        <v>6900</v>
       </c>
       <c r="K1260" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1260" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M1260" t="n">
-        <v>747</v>
+        <v>598</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91095,11 +91095,11 @@
       </c>
       <c r="O1260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>747</v>
+        <v>598</v>
       </c>
       <c r="Q1260" t="n">
         <v>1</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44613</v>
+        <v>44545</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>2500</v>
+        <v>6400</v>
       </c>
       <c r="K1261" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="L1261" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M1261" t="n">
-        <v>552</v>
+        <v>1139</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91167,11 +91167,11 @@
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>552</v>
+        <v>1139</v>
       </c>
       <c r="Q1261" t="n">
         <v>1</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44613</v>
+        <v>44545</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91217,20 +91217,20 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>2900</v>
+        <v>12300</v>
       </c>
       <c r="K1262" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L1262" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M1262" t="n">
-        <v>1048</v>
+        <v>817</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91239,11 +91239,11 @@
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>1048</v>
+        <v>817</v>
       </c>
       <c r="Q1262" t="n">
         <v>1</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44613</v>
+        <v>44545</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91289,20 +91289,20 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>3400</v>
+        <v>11500</v>
       </c>
       <c r="K1263" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L1263" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M1263" t="n">
-        <v>428</v>
+        <v>653</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91311,11 +91311,11 @@
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>428</v>
+        <v>653</v>
       </c>
       <c r="Q1263" t="n">
         <v>1</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44630</v>
+        <v>44545</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91361,20 +91361,20 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>2800</v>
+        <v>9300</v>
       </c>
       <c r="K1264" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="L1264" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="M1264" t="n">
-        <v>1246</v>
+        <v>292</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91383,11 +91383,11 @@
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>1246</v>
+        <v>292</v>
       </c>
       <c r="Q1264" t="n">
         <v>1</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44630</v>
+        <v>44613</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91433,20 +91433,20 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K1265" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="L1265" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="M1265" t="n">
-        <v>942</v>
+        <v>899</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91459,7 +91459,7 @@
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>942</v>
+        <v>899</v>
       </c>
       <c r="Q1265" t="n">
         <v>1</v>
@@ -91485,7 +91485,7 @@
         </is>
       </c>
       <c r="D1266" s="2" t="n">
-        <v>44630</v>
+        <v>44613</v>
       </c>
       <c r="E1266" t="n">
         <v>13</v>
@@ -91505,20 +91505,20 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>2500</v>
+        <v>4900</v>
       </c>
       <c r="K1266" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L1266" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M1266" t="n">
-        <v>644</v>
+        <v>747</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>644</v>
+        <v>747</v>
       </c>
       <c r="Q1266" t="n">
         <v>1</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44623</v>
+        <v>44613</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91577,20 +91577,20 @@
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K1267" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L1267" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="M1267" t="n">
-        <v>1044</v>
+        <v>552</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91603,7 +91603,7 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>1044</v>
+        <v>552</v>
       </c>
       <c r="Q1267" t="n">
         <v>1</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44623</v>
+        <v>44613</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91649,20 +91649,20 @@
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>4300</v>
+        <v>2900</v>
       </c>
       <c r="K1268" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L1268" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M1268" t="n">
-        <v>744</v>
+        <v>1048</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91675,7 +91675,7 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>744</v>
+        <v>1048</v>
       </c>
       <c r="Q1268" t="n">
         <v>1</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44623</v>
+        <v>44613</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91721,20 +91721,20 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="K1269" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L1269" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M1269" t="n">
-        <v>555</v>
+        <v>428</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>555</v>
+        <v>428</v>
       </c>
       <c r="Q1269" t="n">
         <v>1</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91793,20 +91793,20 @@
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K1270" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="L1270" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="M1270" t="n">
-        <v>341</v>
+        <v>1246</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91819,7 +91819,7 @@
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>341</v>
+        <v>1246</v>
       </c>
       <c r="Q1270" t="n">
         <v>1</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44890</v>
+        <v>44630</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91865,20 +91865,20 @@
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>1100</v>
+        <v>3800</v>
       </c>
       <c r="K1271" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L1271" t="n">
         <v>1000</v>
       </c>
       <c r="M1271" t="n">
-        <v>1000</v>
+        <v>942</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91887,11 +91887,11 @@
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>1000</v>
+        <v>942</v>
       </c>
       <c r="Q1271" t="n">
         <v>1</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44890</v>
+        <v>44630</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91937,20 +91937,20 @@
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K1272" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="L1272" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="M1272" t="n">
-        <v>1300</v>
+        <v>644</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91959,11 +91959,11 @@
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>1300</v>
+        <v>644</v>
       </c>
       <c r="Q1272" t="n">
         <v>1</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92004,7 +92004,7 @@
       </c>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K1273" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L1273" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="M1273" t="n">
-        <v>623</v>
+        <v>1044</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>623</v>
+        <v>1044</v>
       </c>
       <c r="Q1273" t="n">
         <v>1</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92076,7 +92076,7 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
@@ -92085,16 +92085,16 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>5400</v>
+        <v>4300</v>
       </c>
       <c r="K1274" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L1274" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M1274" t="n">
-        <v>443</v>
+        <v>744</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92107,7 +92107,7 @@
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>443</v>
+        <v>744</v>
       </c>
       <c r="Q1274" t="n">
         <v>1</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92148,25 +92148,25 @@
       </c>
       <c r="H1275" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>4100</v>
+        <v>2200</v>
       </c>
       <c r="K1275" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1275" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1275" t="n">
-        <v>746</v>
+        <v>555</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92179,7 +92179,7 @@
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>746</v>
+        <v>555</v>
       </c>
       <c r="Q1275" t="n">
         <v>1</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92225,20 +92225,20 @@
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>5200</v>
+        <v>2200</v>
       </c>
       <c r="K1276" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L1276" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M1276" t="n">
-        <v>578</v>
+        <v>341</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>578</v>
+        <v>341</v>
       </c>
       <c r="Q1276" t="n">
         <v>1</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44245</v>
+        <v>44890</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92297,20 +92297,20 @@
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>5100</v>
+        <v>1100</v>
       </c>
       <c r="K1277" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L1277" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="M1277" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92323,7 +92323,7 @@
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>622</v>
+        <v>1000</v>
       </c>
       <c r="Q1277" t="n">
         <v>1</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44245</v>
+        <v>44890</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92369,20 +92369,20 @@
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>7100</v>
+        <v>1500</v>
       </c>
       <c r="K1278" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="L1278" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="M1278" t="n">
-        <v>425</v>
+        <v>1300</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92391,11 +92391,11 @@
       </c>
       <c r="O1278" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>425</v>
+        <v>1300</v>
       </c>
       <c r="Q1278" t="n">
         <v>1</v>
@@ -92436,25 +92436,25 @@
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>8200</v>
+        <v>3000</v>
       </c>
       <c r="K1279" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L1279" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M1279" t="n">
-        <v>473</v>
+        <v>623</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92463,11 +92463,11 @@
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>473</v>
+        <v>623</v>
       </c>
       <c r="Q1279" t="n">
         <v>1</v>
@@ -92508,25 +92508,25 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="K1280" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L1280" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M1280" t="n">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="Q1280" t="n">
         <v>1</v>
@@ -92580,7 +92580,7 @@
       </c>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>5200</v>
+        <v>4100</v>
       </c>
       <c r="K1281" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="L1281" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M1281" t="n">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92611,7 +92611,7 @@
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="Q1281" t="n">
         <v>1</v>
@@ -92657,20 +92657,20 @@
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>6300</v>
+        <v>5200</v>
       </c>
       <c r="K1282" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="L1282" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M1282" t="n">
-        <v>721</v>
+        <v>578</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92679,11 +92679,11 @@
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>721</v>
+        <v>578</v>
       </c>
       <c r="Q1282" t="n">
         <v>1</v>
@@ -92729,20 +92729,20 @@
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="K1283" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L1283" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="M1283" t="n">
-        <v>226</v>
+        <v>622</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92755,7 +92755,7 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>226</v>
+        <v>622</v>
       </c>
       <c r="Q1283" t="n">
         <v>1</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92796,25 +92796,25 @@
       </c>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>4700</v>
+        <v>7100</v>
       </c>
       <c r="K1284" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L1284" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M1284" t="n">
-        <v>847</v>
+        <v>425</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92823,11 +92823,11 @@
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>847</v>
+        <v>425</v>
       </c>
       <c r="Q1284" t="n">
         <v>1</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92868,7 +92868,7 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
@@ -92877,16 +92877,16 @@
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>5500</v>
+        <v>8200</v>
       </c>
       <c r="K1285" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="L1285" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M1285" t="n">
-        <v>645</v>
+        <v>473</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>645</v>
+        <v>473</v>
       </c>
       <c r="Q1285" t="n">
         <v>1</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92940,25 +92940,25 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>3800</v>
+        <v>6200</v>
       </c>
       <c r="K1286" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="L1286" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="M1286" t="n">
-        <v>942</v>
+        <v>319</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>942</v>
+        <v>319</v>
       </c>
       <c r="Q1286" t="n">
         <v>1</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93017,20 +93017,20 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="K1287" t="n">
+        <v>650</v>
+      </c>
+      <c r="L1287" t="n">
         <v>750</v>
       </c>
-      <c r="L1287" t="n">
-        <v>850</v>
-      </c>
       <c r="M1287" t="n">
-        <v>794</v>
+        <v>713</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93039,11 +93039,11 @@
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>794</v>
+        <v>713</v>
       </c>
       <c r="Q1287" t="n">
         <v>1</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93089,20 +93089,20 @@
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>8900</v>
+        <v>6300</v>
       </c>
       <c r="K1288" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1288" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M1288" t="n">
-        <v>543</v>
+        <v>721</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93115,7 +93115,7 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>543</v>
+        <v>721</v>
       </c>
       <c r="Q1288" t="n">
         <v>1</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44580</v>
+        <v>44245</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93161,20 +93161,20 @@
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="K1289" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L1289" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M1289" t="n">
-        <v>395</v>
+        <v>226</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>395</v>
+        <v>226</v>
       </c>
       <c r="Q1289" t="n">
         <v>1</v>
@@ -93228,25 +93228,25 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="K1290" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1290" t="n">
         <v>900</v>
       </c>
-      <c r="L1290" t="n">
-        <v>1000</v>
-      </c>
       <c r="M1290" t="n">
-        <v>944</v>
+        <v>847</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93259,7 +93259,7 @@
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>944</v>
+        <v>847</v>
       </c>
       <c r="Q1290" t="n">
         <v>1</v>
@@ -93300,25 +93300,25 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K1291" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="L1291" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M1291" t="n">
-        <v>244</v>
+        <v>645</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93331,7 +93331,7 @@
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>244</v>
+        <v>645</v>
       </c>
       <c r="Q1291" t="n">
         <v>1</v>
@@ -93357,7 +93357,7 @@
         </is>
       </c>
       <c r="D1292" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E1292" t="n">
         <v>13</v>
@@ -93372,25 +93372,25 @@
       </c>
       <c r="H1292" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>8300</v>
+        <v>3800</v>
       </c>
       <c r="K1292" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L1292" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M1292" t="n">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93403,7 +93403,7 @@
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>742</v>
+        <v>942</v>
       </c>
       <c r="Q1292" t="n">
         <v>1</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93449,20 +93449,20 @@
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>15500</v>
+        <v>6200</v>
       </c>
       <c r="K1293" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L1293" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M1293" t="n">
-        <v>517</v>
+        <v>794</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>517</v>
+        <v>794</v>
       </c>
       <c r="Q1293" t="n">
         <v>1</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93521,20 +93521,20 @@
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="K1294" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L1294" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M1294" t="n">
-        <v>340</v>
+        <v>543</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93547,7 +93547,7 @@
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>340</v>
+        <v>543</v>
       </c>
       <c r="Q1294" t="n">
         <v>1</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93593,20 +93593,20 @@
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="K1295" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L1295" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M1295" t="n">
-        <v>934</v>
+        <v>395</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>934</v>
+        <v>395</v>
       </c>
       <c r="Q1295" t="n">
         <v>1</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44565</v>
+        <v>44580</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93665,20 +93665,20 @@
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>8100</v>
+        <v>5500</v>
       </c>
       <c r="K1296" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L1296" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M1296" t="n">
-        <v>220</v>
+        <v>944</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93691,7 +93691,7 @@
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>220</v>
+        <v>944</v>
       </c>
       <c r="Q1296" t="n">
         <v>1</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93732,25 +93732,25 @@
       </c>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>4600</v>
+        <v>5400</v>
       </c>
       <c r="K1297" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L1297" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M1297" t="n">
-        <v>748</v>
+        <v>244</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93759,11 +93759,11 @@
       </c>
       <c r="O1297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>748</v>
+        <v>244</v>
       </c>
       <c r="Q1297" t="n">
         <v>1</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93804,25 +93804,25 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>4500</v>
+        <v>8300</v>
       </c>
       <c r="K1298" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1298" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1298" t="n">
-        <v>544</v>
+        <v>742</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93831,11 +93831,11 @@
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>544</v>
+        <v>742</v>
       </c>
       <c r="Q1298" t="n">
         <v>1</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E1299" t="n">
         <v>13</v>
@@ -93876,25 +93876,25 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>3800</v>
+        <v>15500</v>
       </c>
       <c r="K1299" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L1299" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M1299" t="n">
-        <v>879</v>
+        <v>517</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93903,11 +93903,11 @@
       </c>
       <c r="O1299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>879</v>
+        <v>517</v>
       </c>
       <c r="Q1299" t="n">
         <v>1</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93953,20 +93953,20 @@
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>5300</v>
+        <v>11500</v>
       </c>
       <c r="K1300" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L1300" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M1300" t="n">
-        <v>745</v>
+        <v>340</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>745</v>
+        <v>340</v>
       </c>
       <c r="Q1300" t="n">
         <v>1</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94025,20 +94025,20 @@
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>8400</v>
+        <v>3800</v>
       </c>
       <c r="K1301" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L1301" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M1301" t="n">
-        <v>542</v>
+        <v>934</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>542</v>
+        <v>934</v>
       </c>
       <c r="Q1301" t="n">
         <v>1</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44589</v>
+        <v>44565</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94097,20 +94097,20 @@
       </c>
       <c r="I1302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>9700</v>
+        <v>8100</v>
       </c>
       <c r="K1302" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="L1302" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M1302" t="n">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94123,7 +94123,7 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="Q1302" t="n">
         <v>1</v>
@@ -94164,25 +94164,25 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="K1303" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L1303" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M1303" t="n">
-        <v>945</v>
+        <v>748</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>945</v>
+        <v>748</v>
       </c>
       <c r="Q1303" t="n">
         <v>1</v>
@@ -94236,25 +94236,25 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K1304" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L1304" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M1304" t="n">
-        <v>241</v>
+        <v>544</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94263,11 +94263,11 @@
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>241</v>
+        <v>544</v>
       </c>
       <c r="Q1304" t="n">
         <v>1</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94308,25 +94308,25 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="K1305" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1305" t="n">
         <v>1000</v>
       </c>
-      <c r="L1305" t="n">
-        <v>1100</v>
-      </c>
       <c r="M1305" t="n">
-        <v>1060</v>
+        <v>879</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94339,7 +94339,7 @@
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>1060</v>
+        <v>879</v>
       </c>
       <c r="Q1305" t="n">
         <v>1</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E1306" t="n">
         <v>13</v>
@@ -94385,20 +94385,20 @@
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="K1306" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L1306" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M1306" t="n">
-        <v>552</v>
+        <v>745</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94407,11 +94407,11 @@
       </c>
       <c r="O1306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>552</v>
+        <v>745</v>
       </c>
       <c r="Q1306" t="n">
         <v>1</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44622</v>
+        <v>44589</v>
       </c>
       <c r="E1307" t="n">
         <v>13</v>
@@ -94457,20 +94457,20 @@
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>1900</v>
+        <v>8400</v>
       </c>
       <c r="K1307" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L1307" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M1307" t="n">
-        <v>371</v>
+        <v>542</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94479,11 +94479,11 @@
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>371</v>
+        <v>542</v>
       </c>
       <c r="Q1307" t="n">
         <v>1</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44571</v>
+        <v>44589</v>
       </c>
       <c r="E1308" t="n">
         <v>13</v>
@@ -94524,25 +94524,25 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>3800</v>
+        <v>9700</v>
       </c>
       <c r="K1308" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L1308" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M1308" t="n">
-        <v>580</v>
+        <v>393</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>580</v>
+        <v>393</v>
       </c>
       <c r="Q1308" t="n">
         <v>1</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44571</v>
+        <v>44589</v>
       </c>
       <c r="E1309" t="n">
         <v>13</v>
@@ -94596,25 +94596,25 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J1309" t="n">
         <v>4900</v>
       </c>
       <c r="K1309" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L1309" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M1309" t="n">
-        <v>455</v>
+        <v>945</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>455</v>
+        <v>945</v>
       </c>
       <c r="Q1309" t="n">
         <v>1</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44571</v>
+        <v>44589</v>
       </c>
       <c r="E1310" t="n">
         <v>13</v>
@@ -94668,7 +94668,7 @@
       </c>
       <c r="H1310" t="inlineStr">
         <is>
-          <t>Calameño</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="I1310" t="inlineStr">
@@ -94677,7 +94677,7 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="K1310" t="n">
         <v>200</v>
@@ -94686,7 +94686,7 @@
         <v>300</v>
       </c>
       <c r="M1310" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q1310" t="n">
         <v>1</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44571</v>
+        <v>44622</v>
       </c>
       <c r="E1311" t="n">
         <v>13</v>
@@ -94749,16 +94749,16 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>6900</v>
+        <v>2500</v>
       </c>
       <c r="K1311" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L1311" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M1311" t="n">
-        <v>939</v>
+        <v>1060</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94767,11 +94767,11 @@
       </c>
       <c r="O1311" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>939</v>
+        <v>1060</v>
       </c>
       <c r="Q1311" t="n">
         <v>1</v>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44571</v>
+        <v>44622</v>
       </c>
       <c r="E1312" t="n">
         <v>13</v>
@@ -94817,20 +94817,20 @@
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>8500</v>
+        <v>2500</v>
       </c>
       <c r="K1312" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L1312" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M1312" t="n">
-        <v>739</v>
+        <v>552</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94839,11 +94839,11 @@
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>739</v>
+        <v>552</v>
       </c>
       <c r="Q1312" t="n">
         <v>1</v>
@@ -94869,7 +94869,7 @@
         </is>
       </c>
       <c r="D1313" s="2" t="n">
-        <v>44571</v>
+        <v>44622</v>
       </c>
       <c r="E1313" t="n">
         <v>13</v>
@@ -94889,20 +94889,20 @@
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>11100</v>
+        <v>1900</v>
       </c>
       <c r="K1313" t="n">
+        <v>350</v>
+      </c>
+      <c r="L1313" t="n">
         <v>400</v>
       </c>
-      <c r="L1313" t="n">
-        <v>500</v>
-      </c>
       <c r="M1313" t="n">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94911,11 +94911,11 @@
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="Q1313" t="n">
         <v>1</v>
@@ -94956,25 +94956,25 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>7800</v>
+        <v>3800</v>
       </c>
       <c r="K1314" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="L1314" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M1314" t="n">
-        <v>296</v>
+        <v>580</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>296</v>
+        <v>580</v>
       </c>
       <c r="Q1314" t="n">
         <v>1</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44911</v>
+        <v>44571</v>
       </c>
       <c r="E1315" t="n">
         <v>13</v>
@@ -95028,25 +95028,25 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>7000</v>
+        <v>4900</v>
       </c>
       <c r="K1315" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L1315" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M1315" t="n">
-        <v>856</v>
+        <v>455</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95059,7 +95059,7 @@
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>856</v>
+        <v>455</v>
       </c>
       <c r="Q1315" t="n">
         <v>1</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44911</v>
+        <v>44571</v>
       </c>
       <c r="E1316" t="n">
         <v>13</v>
@@ -95100,25 +95100,25 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Calameño</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>9800</v>
+        <v>4300</v>
       </c>
       <c r="K1316" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="L1316" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M1316" t="n">
-        <v>648</v>
+        <v>242</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95131,7 +95131,7 @@
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>648</v>
+        <v>242</v>
       </c>
       <c r="Q1316" t="n">
         <v>1</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44911</v>
+        <v>44571</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95177,20 +95177,20 @@
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>8800</v>
+        <v>6900</v>
       </c>
       <c r="K1317" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L1317" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M1317" t="n">
-        <v>450</v>
+        <v>939</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>450</v>
+        <v>939</v>
       </c>
       <c r="Q1317" t="n">
         <v>1</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44911</v>
+        <v>44571</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95249,20 +95249,20 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>5700</v>
+        <v>8500</v>
       </c>
       <c r="K1318" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L1318" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M1318" t="n">
-        <v>1123</v>
+        <v>739</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95275,7 +95275,7 @@
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>1123</v>
+        <v>739</v>
       </c>
       <c r="Q1318" t="n">
         <v>1</v>
@@ -95301,58 +95301,490 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1319" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1319" t="n">
+        <v>11100</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>440</v>
+      </c>
+      <c r="N1319" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1319" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1319" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1319" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1320" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1320" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1320" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1320" t="n">
+        <v>7800</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>250</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>350</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>296</v>
+      </c>
+      <c r="N1320" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1320" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1320" t="n">
+        <v>296</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1320" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1321" s="2" t="n">
         <v>44911</v>
       </c>
-      <c r="E1319" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1319" t="n">
-        <v>100112027</v>
-      </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>Melón</t>
-        </is>
-      </c>
-      <c r="H1319" t="inlineStr">
+      <c r="E1321" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
         <is>
           <t>Tuna</t>
         </is>
       </c>
-      <c r="I1319" t="inlineStr">
+      <c r="I1321" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1321" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>800</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>900</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>856</v>
+      </c>
+      <c r="N1321" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1321" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1321" t="n">
+        <v>856</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1322" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1322" t="n">
+        <v>9800</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>600</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>700</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>648</v>
+      </c>
+      <c r="N1322" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1322" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1322" t="n">
+        <v>648</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1322" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1323" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1323" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1323" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1323" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1323" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>400</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>500</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>450</v>
+      </c>
+      <c r="N1323" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1323" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1323" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1323" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1324" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1324" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1324" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J1324" t="n">
+        <v>5700</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>1123</v>
+      </c>
+      <c r="N1324" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1324" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1324" t="n">
+        <v>1123</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1324" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1325" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>100112027</v>
+      </c>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>Melón</t>
+        </is>
+      </c>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="I1325" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1319" t="n">
+      <c r="J1325" t="n">
         <v>5800</v>
       </c>
-      <c r="K1319" t="n">
+      <c r="K1325" t="n">
         <v>200</v>
       </c>
-      <c r="L1319" t="n">
+      <c r="L1325" t="n">
         <v>300</v>
       </c>
-      <c r="M1319" t="n">
+      <c r="M1325" t="n">
         <v>255</v>
       </c>
-      <c r="N1319" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O1319" t="inlineStr">
+      <c r="N1325" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O1325" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P1319" t="n">
+      <c r="P1325" t="n">
         <v>255</v>
       </c>
-      <c r="Q1319" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1319" t="inlineStr">
+      <c r="Q1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1325" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
